--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -1,43 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>job_name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>silver.ad__catalogs_served</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
+  </si>
+  <si>
+    <t>silver.ML_Platform__fy_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__model_proxy_logs</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__pdp_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>silver.msg_fraud_response__fraud_response</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,14 +86,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -80,10 +113,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -121,71 +154,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -209,50 +242,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -262,7 +298,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -271,7 +307,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -280,7 +316,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -288,10 +324,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -320,7 +356,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -333,13 +369,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -351,108 +386,75 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>job_name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>location</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>meesho.supply_v2_labels_xpressbees_2023_01_01</v>
-      </c>
-      <c r="B2" t="str">
-        <v>labels/xpressbees/2023-01-01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>meesho.supply_v2_labels_xpressbees_2023_01_02</v>
-      </c>
-      <c r="B3" t="str">
-        <v>labels/xpressbees/2023-01-02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>meesho.supply_v2_labels_xpressbees_2023_01_03</v>
-      </c>
-      <c r="B4" t="str">
-        <v>labels/xpressbees/2023-01-03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>meesho.supply_v2_labels_xpressbees_2023_01_04</v>
-      </c>
-      <c r="B5" t="str">
-        <v>labels/xpressbees/2023-01-04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>meesho.supply_v2_labels_xpressbees_2023_01_05</v>
-      </c>
-      <c r="B6" t="str">
-        <v>labels/xpressbees/2023-01-05</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,34 +22,34 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.ad__catalogs_served</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
-  </si>
-  <si>
-    <t>silver.ML_Platform__fy_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__model_proxy_logs</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__pdp_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__fraud_response</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
+    <t>silver.mixpanel_android__anonymous_catalog_views_report_21dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_views_report_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.supply__addresses_21dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/addresses</t>
+  </si>
+  <si>
+    <t>silver.msg_feed__catalogs_served_report_21dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_opened_main_21dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_opened_main_2021_04_20</t>
+  </si>
+  <si>
+    <t>silver.supply__catalogs_21dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
   </si>
 </sst>
 </file>
@@ -396,13 +396,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -415,42 +415,46 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,34 +22,34 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__anonymous_catalog_views_report_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_views_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.supply__addresses_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/addresses</t>
-  </si>
-  <si>
-    <t>silver.msg_feed__catalogs_served_report_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_opened_main_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_opened_main_2021_04_20</t>
-  </si>
-  <si>
-    <t>silver.supply__catalogs_21dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/catalogs_repartition</t>
+    <t>silver.supply__shipment_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supply__order_detail_shipment_detail_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_detail_shipment_detail_map_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_razorpay_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_razorpay_payments</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_order_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supply__carriers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/carriers</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -415,46 +415,42 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>job_name</t>
   </si>
@@ -22,34 +22,298 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supply__shipment_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/shipment_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supply__order_detail_shipment_detail_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_detail_shipment_detail_map_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supply__supply_razorpay_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/supply_razorpay_payments</t>
-  </si>
-  <si>
-    <t>silver.supply__supplier_order_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/supplier_order_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supply__carriers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/carriers</t>
+    <t>silver.order_reconciliation__order_reconciliation_refund_details_v2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_refund_details_v2</t>
+  </si>
+  <si>
+    <t>silver.file_payout__file_payout_user_payment_files_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/file_payout/file_payout_user_payment_files</t>
+  </si>
+  <si>
+    <t>silver.payment_communication__payment_communication_order_detail_level_events_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_communication/payment_communication_order_detail_level_events_schema_change</t>
+  </si>
+  <si>
+    <t>silver.payments_integration__payments_transactions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payments_integration/payments_transactions</t>
+  </si>
+  <si>
+    <t>silver.reseller_payment__scheduled_user_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_payment/scheduled_user_payments_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__payments_penalties_waivers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/payments_penalties_waivers</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__payment_aggregator_user_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/payment_aggregator_user_payments</t>
+  </si>
+  <si>
+    <t>silver.file_payout__file_payout_user_transaction_requests_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/file_payout/file_payout_user_transaction_requests</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__payment_aggregator_user_payment_recoveries_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/payment_aggregator_user_payment_recoveries</t>
+  </si>
+  <si>
+    <t>silver.payment_communication__payment_communication_user_level_events_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_communication/payment_communication_user_level_events</t>
+  </si>
+  <si>
+    <t>silver.payments_integration__payments_failed_transactions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payments_integration/payments_failed_transactions</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__eor_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/eor_payments</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__payments_penalty_waiver_reason_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/payments_penalty_waiver_reason</t>
+  </si>
+  <si>
+    <t>silver.reseller_payment__order_detail_payment_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_payment/order_detail_payment_attributes_schema_change</t>
+  </si>
+  <si>
+    <t>silver.payments_integration__payments_integration_user_bank_details_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payments_integration/payments_integration_user_bank_details_logs_repartition1</t>
+  </si>
+  <si>
+    <t>silver.payment_communication__payment_communication_user_payment_timeline_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_communication/payment_communication_user_payment_timeline</t>
+  </si>
+  <si>
+    <t>silver.order_reconciliation__order_reconciliation_cron_sync_detail_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_cron_sync_detail</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__entity_amount_calculation_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/entity_amount_calculation_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__payments_supplier_penalty_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/payments_supplier_penalty</t>
+  </si>
+  <si>
+    <t>silver.order_reconciliation__order_reconciliation_valid_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_valid_users</t>
+  </si>
+  <si>
+    <t>silver.supplier_panel__catalog_inventory_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_panel/catalog_inventory_change_log</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__files_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/files</t>
+  </si>
+  <si>
+    <t>silver.user_engagement__user_engagement_properties_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/user_engagement/user_engagement_properties</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__reverse_tinder_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/reverse_tinder</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__china_v_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/china_v</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__price_scheduling_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/price_scheduling</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__product_supplier_map_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/product_supplier_map_log</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__product_supplier_price_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/product_supplier_price</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__edit_price_scheduling_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/edit_price_scheduling</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__supplier_inventory_update_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/supplier_inventory_update</t>
+  </si>
+  <si>
+    <t>silver.user_engagement__mba_milestone_certificates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/user_engagement/mba_milestone_certificates</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__pow_admin_products_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/pow_admin_products</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__penalty_dashboard_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/penalty_dashboard</t>
+  </si>
+  <si>
+    <t>silver.cis__template_generation_data_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/template_generation_data</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_qc_skipped_catalog_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_qc_skipped_catalog_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_valid_excel_rows_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_valid_excel_rows</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_support_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_category_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.travel__travel_package_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/travel/travel_package_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_organized_issue_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_organized_issue_map</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__supplier_upload_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/supplier_upload</t>
+  </si>
+  <si>
+    <t>silver.mentorship__ms_user_group_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mentorship/ms_user_group_map_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_qc_allocation_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_qc_allocation_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__revinfo_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_revinfo_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_v2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial_v2</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__tags_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/tags</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__issue_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/issue</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_record_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_record</t>
+  </si>
+  <si>
+    <t>silver.mentorship__ms_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mentorship/ms_users_2021_09_03</t>
   </si>
 </sst>
 </file>
@@ -396,7 +660,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -454,6 +718,358 @@
         <v>11</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,298 +22,298 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.order_reconciliation__order_reconciliation_refund_details_v2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_refund_details_v2</t>
-  </si>
-  <si>
-    <t>silver.file_payout__file_payout_user_payment_files_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/file_payout/file_payout_user_payment_files</t>
-  </si>
-  <si>
-    <t>silver.payment_communication__payment_communication_order_detail_level_events_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_communication/payment_communication_order_detail_level_events_schema_change</t>
-  </si>
-  <si>
-    <t>silver.payments_integration__payments_transactions_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payments_integration/payments_transactions</t>
-  </si>
-  <si>
-    <t>silver.reseller_payment__scheduled_user_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_payment/scheduled_user_payments_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__payments_penalties_waivers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/payments_penalties_waivers</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__payment_aggregator_user_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/payment_aggregator_user_payments</t>
-  </si>
-  <si>
-    <t>silver.file_payout__file_payout_user_transaction_requests_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/file_payout/file_payout_user_transaction_requests</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__payment_aggregator_user_payment_recoveries_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/payment_aggregator_user_payment_recoveries</t>
-  </si>
-  <si>
-    <t>silver.payment_communication__payment_communication_user_level_events_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_communication/payment_communication_user_level_events</t>
-  </si>
-  <si>
-    <t>silver.payments_integration__payments_failed_transactions_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payments_integration/payments_failed_transactions</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__eor_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/eor_payments</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__payments_penalty_waiver_reason_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/payments_penalty_waiver_reason</t>
-  </si>
-  <si>
-    <t>silver.reseller_payment__order_detail_payment_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_payment/order_detail_payment_attributes_schema_change</t>
-  </si>
-  <si>
-    <t>silver.payments_integration__payments_integration_user_bank_details_logs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payments_integration/payments_integration_user_bank_details_logs_repartition1</t>
-  </si>
-  <si>
-    <t>silver.payment_communication__payment_communication_user_payment_timeline_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_communication/payment_communication_user_payment_timeline</t>
-  </si>
-  <si>
-    <t>silver.order_reconciliation__order_reconciliation_cron_sync_detail_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_cron_sync_detail</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__entity_amount_calculation_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/entity_amount_calculation_map</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__payments_supplier_penalty_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/payments_supplier_penalty</t>
-  </si>
-  <si>
-    <t>silver.order_reconciliation__order_reconciliation_valid_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_reconciliation/order_reconciliation_valid_users</t>
-  </si>
-  <si>
-    <t>silver.supplier_panel__catalog_inventory_change_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_panel/catalog_inventory_change_log</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__files_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/files</t>
-  </si>
-  <si>
-    <t>silver.user_engagement__user_engagement_properties_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/user_engagement/user_engagement_properties</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__reverse_tinder_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/reverse_tinder</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__china_v_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/china_v</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__price_scheduling_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/price_scheduling</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__product_supplier_map_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/product_supplier_map_log</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__product_supplier_price_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/product_supplier_price</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__edit_price_scheduling_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/edit_price_scheduling</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__supplier_inventory_update_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/supplier_inventory_update</t>
-  </si>
-  <si>
-    <t>silver.user_engagement__mba_milestone_certificates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/user_engagement/mba_milestone_certificates</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__pow_admin_products_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/pow_admin_products</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__penalty_dashboard_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/penalty_dashboard</t>
-  </si>
-  <si>
-    <t>silver.cis__template_generation_data_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/template_generation_data</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_qc_skipped_catalog_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_qc_skipped_catalog_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_valid_excel_rows_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_valid_excel_rows</t>
-  </si>
-  <si>
-    <t>silver.cis__agent_dashboard_supplier_support_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_category_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.travel__travel_package_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/travel/travel_package_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_organized_issue_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_organized_issue_map</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__supplier_upload_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/supplier_upload</t>
-  </si>
-  <si>
-    <t>silver.mentorship__ms_user_group_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mentorship/ms_user_group_map_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_qc_allocation_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_qc_allocation_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__revinfo_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_revinfo_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_v2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial_v2</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__tags_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/tags</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__issue_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/issue</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_record_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_record</t>
-  </si>
-  <si>
-    <t>silver.mentorship__ms_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mentorship/ms_users_2021_09_03</t>
+    <t>silver.travel__travel_lead_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/travel/travel_lead_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_organized_v2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_organized_v2</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_category_ordering_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_category_ordering_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__catalog_default_collection_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/catalog_default_collection_map</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_qc_skipped_catalog_comment_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_qc_skipped_catalog_comment_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_variation_merge_view_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_variation_merge_view</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_organized_category_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_organized_category_map</t>
+  </si>
+  <si>
+    <t>silver.travel__travel_budget_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/travel/travel_budget_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_qc_allocation_aud_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_qc_allocation_aud_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.travel__travel_banner_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/travel/travel_banner_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_qc_sampled_catalog_allocation_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_qc_sampled_catalog_allocation_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_issue_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial_issue_map</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_single_catalog_draft_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_single_catalog_draft_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_comments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_comments</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_record_aud_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_record_aud</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_description_template_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_description_template</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_product_attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_product_attribute_store</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_organized_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_organized</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_product_merge_view_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_product_merge_view</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_organized_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial_organized_map</t>
+  </si>
+  <si>
+    <t>silver.cis__prism_cis_supplier_jobs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/prism_cis_supplier_jobs</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_category_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial_category_map</t>
+  </si>
+  <si>
+    <t>silver.mentorship__ms_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mentorship/ms_groups_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_support_sub_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_sub_category_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supply_upload__catalog_initial_tag_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_upload/catalog_initial_tag_map</t>
+  </si>
+  <si>
+    <t>silver.review__review_answers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_answers</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_reasons_for_no_restock_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_reasons_for_no_restock</t>
+  </si>
+  <si>
+    <t>silver.review__review_questions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_questions</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_supplier_reason_for_out_of_stock_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_supplier_reason_for_out_of_stock</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_supplier_inventory_counts_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_supplier_inventory_counts</t>
+  </si>
+  <si>
+    <t>silver.ctqct__ct_qct_experiment_data_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ctqct/ct_qct_experiment_data</t>
+  </si>
+  <si>
+    <t>silver.review__review_product_aggregate_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_product_aggregate</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_supplier_reason_for_no_restock_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_supplier_reason_for_no_restock</t>
+  </si>
+  <si>
+    <t>silver.review__review_helpful_reviews_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_helpful_reviews</t>
+  </si>
+  <si>
+    <t>silver.fastrack__supplier_feed_supplier_catalog_action_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/supplier_feed_supplier_catalog_action</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_price_recommendation_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_price_recommendation_audit</t>
+  </si>
+  <si>
+    <t>silver.fastrack__product_recommendation_action_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/product_recommendation_action</t>
+  </si>
+  <si>
+    <t>silver.review__review_options_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_options</t>
+  </si>
+  <si>
+    <t>silver.fastrack__fastrack_reason_for_out_of_stock_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fastrack/fastrack_reason_for_out_of_stock</t>
+  </si>
+  <si>
+    <t>silver.review__review_videos_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_videos</t>
+  </si>
+  <si>
+    <t>silver.review__review_user_aggregate_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_user_aggregate</t>
+  </si>
+  <si>
+    <t>silver.review__review_images_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/review_images</t>
+  </si>
+  <si>
+    <t>silver.review__reviews_record_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
+  </si>
+  <si>
+    <t>silver.growth__appsflyer_install_events_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/appsflyer_install_events_2021_10_28</t>
+  </si>
+  <si>
+    <t>silver.tinder__match_and_earn_product_pair_action_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tinder/match_and_earn_product_pair_action</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_campaign_performance_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_campaign_performance</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_template_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_template_map</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_real_estate_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_real_estate_metadata</t>
   </si>
 </sst>
 </file>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>job_name</t>
   </si>
@@ -22,298 +22,199 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.travel__travel_lead_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/travel/travel_lead_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_organized_v2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_organized_v2</t>
-  </si>
-  <si>
-    <t>silver.cis__agent_dashboard_supplier_category_ordering_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_category_ordering_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__catalog_default_collection_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/catalog_default_collection_map</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_qc_skipped_catalog_comment_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_qc_skipped_catalog_comment_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_variation_merge_view_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_variation_merge_view</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_organized_category_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_organized_category_map</t>
-  </si>
-  <si>
-    <t>silver.travel__travel_budget_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/travel/travel_budget_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_qc_allocation_aud_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_qc_allocation_aud_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.travel__travel_banner_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/travel/travel_banner_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_qc_sampled_catalog_allocation_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_qc_sampled_catalog_allocation_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_issue_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial_issue_map</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_single_catalog_draft_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_single_catalog_draft_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_comments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_comments</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_record_aud_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_record_aud</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_description_template_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_description_template</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_product_attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_product_attribute_store</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_organized_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_organized</t>
-  </si>
-  <si>
-    <t>silver.cis__cis_product_merge_view_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/cis_product_merge_view</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_organized_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial_organized_map</t>
-  </si>
-  <si>
-    <t>silver.cis__prism_cis_supplier_jobs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/prism_cis_supplier_jobs</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_category_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial_category_map</t>
-  </si>
-  <si>
-    <t>silver.mentorship__ms_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mentorship/ms_groups_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.cis__agent_dashboard_supplier_support_sub_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_sub_category_2021_09_03</t>
-  </si>
-  <si>
-    <t>silver.supply_upload__catalog_initial_tag_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_upload/catalog_initial_tag_map</t>
-  </si>
-  <si>
-    <t>silver.review__review_answers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_answers</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_reasons_for_no_restock_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_reasons_for_no_restock</t>
-  </si>
-  <si>
-    <t>silver.review__review_questions_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_questions</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_supplier_reason_for_out_of_stock_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_supplier_reason_for_out_of_stock</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_supplier_inventory_counts_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_supplier_inventory_counts</t>
-  </si>
-  <si>
-    <t>silver.ctqct__ct_qct_experiment_data_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ctqct/ct_qct_experiment_data</t>
-  </si>
-  <si>
-    <t>silver.review__review_product_aggregate_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_product_aggregate</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_supplier_reason_for_no_restock_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_supplier_reason_for_no_restock</t>
-  </si>
-  <si>
-    <t>silver.review__review_helpful_reviews_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_helpful_reviews</t>
-  </si>
-  <si>
-    <t>silver.fastrack__supplier_feed_supplier_catalog_action_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/supplier_feed_supplier_catalog_action</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_price_recommendation_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_price_recommendation_audit</t>
-  </si>
-  <si>
-    <t>silver.fastrack__product_recommendation_action_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/product_recommendation_action</t>
-  </si>
-  <si>
-    <t>silver.review__review_options_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_options</t>
-  </si>
-  <si>
-    <t>silver.fastrack__fastrack_reason_for_out_of_stock_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/fastrack/fastrack_reason_for_out_of_stock</t>
-  </si>
-  <si>
-    <t>silver.review__review_videos_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_videos</t>
-  </si>
-  <si>
-    <t>silver.review__review_user_aggregate_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_user_aggregate</t>
-  </si>
-  <si>
-    <t>silver.review__review_images_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/review_images</t>
-  </si>
-  <si>
-    <t>silver.review__reviews_record_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/review/reviews_record_repartition</t>
-  </si>
-  <si>
-    <t>silver.growth__appsflyer_install_events_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/appsflyer_install_events_2021_10_28</t>
-  </si>
-  <si>
-    <t>silver.tinder__match_and_earn_product_pair_action_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tinder/match_and_earn_product_pair_action</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_campaign_performance_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_campaign_performance</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_feed_file_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_template_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_template_map</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_real_estate_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_real_estate_metadata</t>
+    <t>silver.ab__ab_experiments_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_experiments_change_log</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_audiences_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_audiences</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_experiment_references_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_experiment_references_map</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_subdomain_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_subdomain</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_supplier_campaign_config_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_supplier_campaign_config</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_profile_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_profile_details</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_website_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_website_templates</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_experiments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_experiments</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_variants_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_variants</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_business_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_business_details</t>
+  </si>
+  <si>
+    <t>silver.reseller_website__reseller_testimonials_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/reseller_website/reseller_testimonials</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_catalog_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign_catalog_log</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata_log</t>
+  </si>
+  <si>
+    <t>silver.ums__ums_anonymous_user_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/ums_anonymous_user_attributes</t>
+  </si>
+  <si>
+    <t>silver.ums__user_profile_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_profile</t>
+  </si>
+  <si>
+    <t>silver.ums__user_follower_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/user_follower</t>
+  </si>
+  <si>
+    <t>silver.ums__attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/attribute_store</t>
+  </si>
+  <si>
+    <t>silver.transact__payment_gateway_refund_detail_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/transact/payment_gateway_refund_detail</t>
+  </si>
+  <si>
+    <t>silver.bonus__bonus_bonus_levels_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bonus/bonus_bonus_levels</t>
+  </si>
+  <si>
+    <t>silver.payment_gateway__payment_gateway_failed_refund_detail_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_gateway/payment_gateway_failed_refund_detail</t>
+  </si>
+  <si>
+    <t>silver.bonus__excluded_sscats_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bonus/excluded_sscats</t>
+  </si>
+  <si>
+    <t>silver.bonus__transact_bonuses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bonus/transact_bonuses</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_supplier_variation_attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_supplier_variation_attribute_store</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_level_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_level_map</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__sub_sub_category_new_old_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/sub_sub_category_new_old_map</t>
+  </si>
+  <si>
+    <t>silver.opp_service__international_status_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/opp_service/international_status_logs</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_eor_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_eor</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__variation_schema_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/variation_schema_store</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_super_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_super_category</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__variation_attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/variation_attribute_store</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__videos_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/videos</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__banner_audience_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/banner_audience_map</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -350,9 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -666,8 +570,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -935,139 +839,139 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
+      <c r="A44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
+      <c r="A50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>job_name</t>
   </si>
@@ -22,199 +22,295 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.ab__ab_experiments_change_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/ab_experiments_change_log</t>
-  </si>
-  <si>
-    <t>silver.ab__ab_audiences_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/ab_audiences</t>
-  </si>
-  <si>
-    <t>silver.ab__ab_experiment_references_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/ab_experiment_references_map</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_subdomain_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_subdomain</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_supplier_campaign_config_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_supplier_campaign_config</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_profile_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_profile_details</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_website_templates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_website_templates</t>
-  </si>
-  <si>
-    <t>silver.ab__ab_experiments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/ab_experiments</t>
-  </si>
-  <si>
-    <t>silver.ab__ab_variants_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/ab_variants</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_business_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_business_details</t>
-  </si>
-  <si>
-    <t>silver.reseller_website__reseller_testimonials_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/reseller_website/reseller_testimonials</t>
-  </si>
-  <si>
-    <t>silver.advertisement__advertisement_campaign_catalog_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/advertisement_campaign_catalog_log</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_feed_file_metadata_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata_log</t>
-  </si>
-  <si>
-    <t>silver.ums__ums_anonymous_user_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/ums_anonymous_user_attributes</t>
-  </si>
-  <si>
-    <t>silver.ums__user_profile_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_profile</t>
-  </si>
-  <si>
-    <t>silver.ums__user_follower_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/user_follower</t>
-  </si>
-  <si>
-    <t>silver.ums__attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/attribute_store</t>
-  </si>
-  <si>
-    <t>silver.transact__payment_gateway_refund_detail_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/transact/payment_gateway_refund_detail</t>
-  </si>
-  <si>
-    <t>silver.bonus__bonus_bonus_levels_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bonus/bonus_bonus_levels</t>
-  </si>
-  <si>
-    <t>silver.payment_gateway__payment_gateway_failed_refund_detail_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_gateway/payment_gateway_failed_refund_detail</t>
-  </si>
-  <si>
-    <t>silver.bonus__excluded_sscats_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bonus/excluded_sscats</t>
-  </si>
-  <si>
-    <t>silver.bonus__transact_bonuses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bonus/transact_bonuses</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_supplier_variation_attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_supplier_variation_attribute_store</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_level_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_level_map</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__sub_sub_category_new_old_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/sub_sub_category_new_old_map</t>
-  </si>
-  <si>
-    <t>silver.opp_service__international_status_logs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/opp_service/international_status_logs</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_eor_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_eor</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__variation_schema_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/variation_schema_store</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_super_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_super_category</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__variation_attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/variation_attribute_store</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__videos_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/videos</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__banner_audience_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/banner_audience_map</t>
-  </si>
-  <si>
-    <t/>
+    <t>silver.supplier_detail__supplier_detail_attribute_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_log</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_supplier_log_22DEC</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_category</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_schema_value_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_schema_value_store</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__change_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/change_logs</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__variation_content_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/variation_content_store</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_ior_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_ior</t>
+  </si>
+  <si>
+    <t>silver.inventory__inventory_product_inventory_log_v2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/inventory_product_inventory_log_v2</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_benefit_status_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_benefit_status</t>
+  </si>
+  <si>
+    <t>silver.membership_audit__membership_audit_tracker_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/membership_audit/membership_audit_tracker</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__product_video_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/product_video_map</t>
+  </si>
+  <si>
+    <t>silver.inventory__product_inventory_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/product_inventory_log</t>
+  </si>
+  <si>
+    <t>silver.user_feed__feed_experimentdata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/user_feed/feed_experimentdata</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_supplier_attribute_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_attribute_mapping</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_levels_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_levels</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__scale_sub_sub_category_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/scale_sub_sub_category_map</t>
+  </si>
+  <si>
+    <t>silver.membership__user_vip_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/membership/user_vip_map</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_schema_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_schema_store</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_credit_cycle_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_credit_cycle</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_benefit_status_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_benefit_status_audit</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_supplier_kyc_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_kyc_log</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_level_map_change_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_level_map_change_audit</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_supplier_kyc_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_kyc</t>
+  </si>
+  <si>
+    <t>silver.membership__membership_user_membership_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/membership/membership_user_membership_map</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_level_benefit_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_level_benefit_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_address_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_address</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_payment_plan_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_payment_plan</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_variation_schema_value_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_variation_schema_value_store</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_supplier_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier</t>
+  </si>
+  <si>
+    <t>silver.membership_audit__membership_audit_user_membership_map_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/membership_audit/membership_audit_user_membership_map_audit</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_sub_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_category</t>
+  </si>
+  <si>
+    <t>silver.user_feed__feed_usercataloghistory_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/user_feed/feed_usercataloghistory</t>
+  </si>
+  <si>
+    <t>silver.user_feed__feed_experiment_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/user_feed/feed_experiment</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
+  </si>
+  <si>
+    <t>silver.inventory__variations_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/variations</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__supplier_detail_attribute_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/supplier_detail_attribute</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_sub_sub_category_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_sub_category_attributes</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__taxonomy_sub_sub_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_sub_category</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__product_manifest_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/product_manifest_metadata</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_ledger</t>
+  </si>
+  <si>
+    <t>silver.membership_audit__membership_audit_user_membership_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/membership_audit/membership_audit_user_membership_map</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_benefits_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_benefits</t>
+  </si>
+  <si>
+    <t>silver.bulletin__bulletin_notifications_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulletin/bulletin_notifications</t>
+  </si>
+  <si>
+    <t>silver.visual_search__visual_searches_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/visual_search/visual_searches</t>
+  </si>
+  <si>
+    <t>silver.whatsapp__whatsapp_messages_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/whatsapp/whatsapp_messages</t>
+  </si>
+  <si>
+    <t>silver.community_bot__in_house_community_news_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community_bot/in_house_community_news</t>
+  </si>
+  <si>
+    <t>silver.oauth__prism_community_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/oauth/prism_community_users</t>
+  </si>
+  <si>
+    <t>silver.whatsapp__received_whatsapp_messages_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/whatsapp/received_whatsapp_messages</t>
   </si>
 </sst>
 </file>
@@ -251,12 +347,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -570,8 +663,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -595,383 +688,383 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>66</v>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>66</v>
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>66</v>
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>66</v>
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>66</v>
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>66</v>
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>66</v>
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>66</v>
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>66</v>
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>66</v>
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>job_name</t>
   </si>
@@ -22,295 +22,598 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.supplier_detail__supplier_detail_attribute_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_log</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_supplier_log_22DEC</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_category</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_schema_value_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_schema_value_store</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__change_logs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/change_logs</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__variation_content_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/variation_content_store</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_attribute_store_repartition</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_ior_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_ior</t>
-  </si>
-  <si>
-    <t>silver.inventory__inventory_product_inventory_log_v2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/inventory_product_inventory_log_v2</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_benefit_status_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_benefit_status</t>
-  </si>
-  <si>
-    <t>silver.membership_audit__membership_audit_tracker_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/membership_audit/membership_audit_tracker</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__product_video_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/product_video_map</t>
-  </si>
-  <si>
-    <t>silver.inventory__product_inventory_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/product_inventory_log</t>
-  </si>
-  <si>
-    <t>silver.user_feed__feed_experimentdata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/user_feed/feed_experimentdata</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_supplier_attribute_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_attribute_mapping</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_levels_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_levels</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__scale_sub_sub_category_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/scale_sub_sub_category_map</t>
-  </si>
-  <si>
-    <t>silver.membership__user_vip_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/membership/user_vip_map</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_schema_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_schema_store</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_credit_cycle_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_credit_cycle</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_benefit_status_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_benefit_status_audit</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_supplier_kyc_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_kyc_log</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_level_map_change_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_level_map_change_audit</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_supplier_kyc_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier_kyc</t>
-  </si>
-  <si>
-    <t>silver.membership__membership_user_membership_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/membership/membership_user_membership_map</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_level_benefit_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_level_benefit_map</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_address_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_address</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_payment_plan_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_payment_plan</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_variation_schema_value_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_variation_schema_value_store</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_supplier_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_supplier</t>
-  </si>
-  <si>
-    <t>silver.membership_audit__membership_audit_user_membership_map_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/membership_audit/membership_audit_user_membership_map_audit</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_sub_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_category</t>
-  </si>
-  <si>
-    <t>silver.user_feed__feed_usercataloghistory_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/user_feed/feed_usercataloghistory</t>
-  </si>
-  <si>
-    <t>silver.user_feed__feed_experiment_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/user_feed/feed_experiment</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_product_supplier_map_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_product_supplier_map_attributes</t>
-  </si>
-  <si>
-    <t>silver.inventory__variations_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/variations</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__supplier_detail_attribute_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/supplier_detail_attribute</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_sub_sub_category_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_sub_category_attributes</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__taxonomy_sub_sub_category_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/taxonomy_sub_sub_category</t>
-  </si>
-  <si>
-    <t>silver.taxonomy__product_manifest_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/taxonomy/product_manifest_metadata</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_ledger</t>
-  </si>
-  <si>
-    <t>silver.membership_audit__membership_audit_user_membership_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/membership_audit/membership_audit_user_membership_map</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_benefits_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_benefits</t>
-  </si>
-  <si>
-    <t>silver.bulletin__bulletin_notifications_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulletin/bulletin_notifications</t>
-  </si>
-  <si>
-    <t>silver.visual_search__visual_searches_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/visual_search/visual_searches</t>
-  </si>
-  <si>
-    <t>silver.whatsapp__whatsapp_messages_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/whatsapp/whatsapp_messages</t>
-  </si>
-  <si>
-    <t>silver.community_bot__in_house_community_news_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community_bot/in_house_community_news</t>
-  </si>
-  <si>
-    <t>silver.oauth__prism_community_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/oauth/prism_community_users</t>
-  </si>
-  <si>
-    <t>silver.whatsapp__received_whatsapp_messages_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/whatsapp/received_whatsapp_messages</t>
+    <t>silver.bulletin__bulletin_product_links_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulletin/bulletin_product_links</t>
+  </si>
+  <si>
+    <t>silver.sniper__sniper_cmp_images_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/sniper/sniper_cmp_images</t>
+  </si>
+  <si>
+    <t>silver.tracking__user_video_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/user_video_map</t>
+  </si>
+  <si>
+    <t>silver.whatsapp__whatsapp_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/whatsapp/whatsapp_users</t>
+  </si>
+  <si>
+    <t>silver.community_bot__in_house_community_external_media_storage_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community_bot/in_house_community_external_media_storage</t>
+  </si>
+  <si>
+    <t>silver.tracking__user_app_tracking_2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/user_app_tracking_2</t>
+  </si>
+  <si>
+    <t>silver.tracking__user_app_tracking_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/user_app_tracking</t>
+  </si>
+  <si>
+    <t>silver.community_bot__in_house_community_post_permalink_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community_bot/in_house_community_post_permalink_mapping</t>
+  </si>
+  <si>
+    <t>silver.visual_search__visual_search_sessions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/visual_search/visual_search_sessions</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_reseller_contacts_two_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_two</t>
+  </si>
+  <si>
+    <t>silver.oauth__prism_community_comments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/oauth/prism_community_comments</t>
+  </si>
+  <si>
+    <t>silver.tracking__user_product_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/user_product_map</t>
+  </si>
+  <si>
+    <t>silver.oauth__prism_community_discussions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/oauth/prism_community_discussions</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_reseller_contacts_one_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_one</t>
+  </si>
+  <si>
+    <t>silver.whatsapp__whatsapp_media_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/whatsapp/whatsapp_media</t>
+  </si>
+  <si>
+    <t>silver.oauth__oauth_userid_username_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/oauth/oauth_userid_username_map</t>
+  </si>
+  <si>
+    <t>silver.pow__pow_live_website_date_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/pow/pow_live_website_date</t>
+  </si>
+  <si>
+    <t>silver.wallet11__wallet11_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet11/wallet11_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet15__wallet15_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet15/wallet15_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet12__prism_wallet_attributions_12_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet12/prism_wallet_attributions_12_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet3__wallet3_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet3/wallet3_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet10__prism_wallet_attributions_10_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet10/prism_wallet_attributions_10_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet11__wallet11_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet11/wallet11_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet12__wallet12_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet12/wallet12_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet10__wallet_transactions_10_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet10/wallet_transactions_10_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet5__wallet5_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet5/wallet5_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet17__wallet17_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet17/wallet17_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet2__wallet2_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet2/wallet2_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet21__prism_wallet_attributions_21_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet21/prism_wallet_attributions_21</t>
+  </si>
+  <si>
+    <t>silver.wallet8__wallet8_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet8/wallet8_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet16__wallet16_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet16/wallet16_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet12__wallet12_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet12/wallet12_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet13__wallet13_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet13/wallet13_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet17__wallet17_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet17/wallet17_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet16__prism_wallet_attributions_16_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet16/prism_wallet_attributions_16</t>
+  </si>
+  <si>
+    <t>silver.wallet6__wallet6_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet6/wallet6_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet5__wallet_transactions_5_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet5/wallet_transactions_5_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet7__wallet_transactions_7_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet7/wallet_transactions_7_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet13__wallet_transactions_13_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet13/wallet_transactions_13_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet22__wallet_transactions_22_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet22/wallet_transactions_22</t>
+  </si>
+  <si>
+    <t>silver.wallet14__wallet14_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet14/wallet14_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet1__wallet_transactions_1_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet1/wallet_transactions_1_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet7__wallet7_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet7/wallet7_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet11__prism_wallet_attributions_11_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet11/prism_wallet_attributions_11_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet4__prism_wallet_attributions_4_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet4/prism_wallet_attributions_4_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet20__wallet_transactions_20_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet20/wallet_transactions_20</t>
+  </si>
+  <si>
+    <t>silver.wallet1__prism_wallet_attributions_1_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet1/prism_wallet_attributions_1_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet3__wallet_transactions_3_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet3/wallet_transactions_3_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet9__prism_wallet_attributions_9_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet9/prism_wallet_attributions_9_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet18__prism_wallet_attributions_18_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/prism_wallet_attributions_18</t>
+  </si>
+  <si>
+    <t>silver.wallet16__wallet16_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet16/wallet16_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet4__wallet4_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet4/wallet4_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet4__wallet4_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet4/wallet4_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet1__wallet1_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet1/wallet1_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet_transactions_0_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet_transactions_0_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet17__prism_wallet_attributions_17_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet17/prism_wallet_attributions_17</t>
+  </si>
+  <si>
+    <t>silver.wallet10__wallet10_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet10/wallet10_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet6__wallet6_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet6/wallet6_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet9__wallet9_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet9/wallet9_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet8__prism_wallet_attributions_8_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet8/prism_wallet_attributions_8_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet17__wallet17_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet17/wallet17_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet22__prism_wallet_attributions_22_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet22/prism_wallet_attributions_22</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet_file_template_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet_file_template</t>
+  </si>
+  <si>
+    <t>silver.wallet10__wallet10_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet10/wallet10_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet14__wallet14_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet14/wallet14_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet18__wallet18_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/wallet18_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet17__wallet_transactions_17_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet17/wallet_transactions_17</t>
+  </si>
+  <si>
+    <t>silver.wallet12__wallet12_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet12/wallet12_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet3__wallet3_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet3/wallet3_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet20__wallet20_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet20/wallet20_wallet_ledger</t>
+  </si>
+  <si>
+    <t>silver.wallet10__wallet10_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet10/wallet10_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet2__wallet_transactions_2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet2/wallet_transactions_2_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet2__wallet2_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet2/wallet2_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet9__wallet9_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet9/wallet9_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet19__wallet_transactions_19_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet19/wallet_transactions_19</t>
+  </si>
+  <si>
+    <t>silver.wallet15__wallet15_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet15/wallet15_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet14__wallet_transactions_14_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet14/wallet_transactions_14_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet15__wallet15_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet15/wallet15_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet5__wallet5_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet5/wallet5_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet15__prism_wallet_attributions_15_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet15/prism_wallet_attributions_15</t>
+  </si>
+  <si>
+    <t>silver.wallet3__wallet3_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet3/wallet3_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet14__wallet14_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet14/wallet14_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet13__wallet13_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet13/wallet13_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet0__prism_wallet_attributions_0_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/prism_wallet_attributions_0_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet7__wallet7_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet7/wallet7_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet9__wallet9_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet9/wallet9_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet0_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet0_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet2__wallet2_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet2/wallet2_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet6__prism_wallet_attributions_6_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet6/prism_wallet_attributions_6_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet21__wallet_transactions_21_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet21/wallet_transactions_21</t>
+  </si>
+  <si>
+    <t>silver.wallet18__wallet18_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/wallet18_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet0_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet0_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet16__wallet16_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet16/wallet16_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet3__prism_wallet_attributions_3_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet3/prism_wallet_attributions_3_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet4__wallet4_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet4/wallet4_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet14__prism_wallet_attributions_14_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet14/prism_wallet_attributions_14_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet5__prism_wallet_attributions_5_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet5/prism_wallet_attributions_5_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet20__prism_wallet_attributions_20_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet20/prism_wallet_attributions_20</t>
+  </si>
+  <si>
+    <t>silver.wallet8__wallet8_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet8/wallet8_wallet_type</t>
   </si>
 </sst>
 </file>
@@ -657,7 +960,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -688,383 +991,783 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
   <si>
     <t>job_name</t>
   </si>
@@ -22,598 +22,769 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.bulletin__bulletin_product_links_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulletin/bulletin_product_links</t>
-  </si>
-  <si>
-    <t>silver.sniper__sniper_cmp_images_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/sniper/sniper_cmp_images</t>
-  </si>
-  <si>
-    <t>silver.tracking__user_video_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/user_video_map</t>
-  </si>
-  <si>
-    <t>silver.whatsapp__whatsapp_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/whatsapp/whatsapp_users</t>
-  </si>
-  <si>
-    <t>silver.community_bot__in_house_community_external_media_storage_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community_bot/in_house_community_external_media_storage</t>
-  </si>
-  <si>
-    <t>silver.tracking__user_app_tracking_2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/user_app_tracking_2</t>
-  </si>
-  <si>
-    <t>silver.tracking__user_app_tracking_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/user_app_tracking</t>
-  </si>
-  <si>
-    <t>silver.community_bot__in_house_community_post_permalink_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community_bot/in_house_community_post_permalink_mapping</t>
-  </si>
-  <si>
-    <t>silver.visual_search__visual_search_sessions_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/visual_search/visual_search_sessions</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_reseller_contacts_two_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_two</t>
-  </si>
-  <si>
-    <t>silver.oauth__prism_community_comments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/oauth/prism_community_comments</t>
-  </si>
-  <si>
-    <t>silver.tracking__user_product_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/user_product_map</t>
-  </si>
-  <si>
-    <t>silver.oauth__prism_community_discussions_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/oauth/prism_community_discussions</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_reseller_contacts_one_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_one</t>
-  </si>
-  <si>
-    <t>silver.whatsapp__whatsapp_media_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/whatsapp/whatsapp_media</t>
-  </si>
-  <si>
-    <t>silver.oauth__oauth_userid_username_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/oauth/oauth_userid_username_map</t>
-  </si>
-  <si>
-    <t>silver.pow__pow_live_website_date_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/pow_live_website_date</t>
-  </si>
-  <si>
-    <t>silver.wallet11__wallet11_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet11/wallet11_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet15__wallet15_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet15/wallet15_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet12__prism_wallet_attributions_12_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet12/prism_wallet_attributions_12_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet3__wallet3_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet3/wallet3_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet10__prism_wallet_attributions_10_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet10/prism_wallet_attributions_10_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet11__wallet11_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet11/wallet11_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet12__wallet12_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet12/wallet12_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet10__wallet_transactions_10_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet10/wallet_transactions_10_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet5__wallet5_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet5/wallet5_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet17__wallet17_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet17/wallet17_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet2__wallet2_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet2/wallet2_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet21__prism_wallet_attributions_21_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet21/prism_wallet_attributions_21</t>
-  </si>
-  <si>
-    <t>silver.wallet8__wallet8_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet8/wallet8_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet16__wallet16_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet16/wallet16_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet12__wallet12_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet12/wallet12_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet13__wallet13_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet13/wallet13_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet17__wallet17_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet17/wallet17_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet16__prism_wallet_attributions_16_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet16/prism_wallet_attributions_16</t>
-  </si>
-  <si>
-    <t>silver.wallet6__wallet6_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet6/wallet6_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet5__wallet_transactions_5_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet5/wallet_transactions_5_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet7__wallet_transactions_7_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet7/wallet_transactions_7_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet13__wallet_transactions_13_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet13/wallet_transactions_13_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet22__wallet_transactions_22_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet22/wallet_transactions_22</t>
-  </si>
-  <si>
-    <t>silver.wallet14__wallet14_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet14/wallet14_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet1__wallet_transactions_1_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet1/wallet_transactions_1_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet7__wallet7_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet7/wallet7_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet11__prism_wallet_attributions_11_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet11/prism_wallet_attributions_11_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet4__prism_wallet_attributions_4_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet4/prism_wallet_attributions_4_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet20__wallet_transactions_20_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet20/wallet_transactions_20</t>
-  </si>
-  <si>
-    <t>silver.wallet1__prism_wallet_attributions_1_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet1/prism_wallet_attributions_1_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet3__wallet_transactions_3_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet3/wallet_transactions_3_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet9__prism_wallet_attributions_9_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet9/prism_wallet_attributions_9_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet18__prism_wallet_attributions_18_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/prism_wallet_attributions_18</t>
-  </si>
-  <si>
-    <t>silver.wallet16__wallet16_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet16/wallet16_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet4__wallet4_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet4/wallet4_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet4__wallet4_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet4/wallet4_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet1__wallet1_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet1/wallet1_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet_transactions_0_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet_transactions_0_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet17__prism_wallet_attributions_17_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet17/prism_wallet_attributions_17</t>
-  </si>
-  <si>
-    <t>silver.wallet10__wallet10_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet10/wallet10_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet6__wallet6_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet6/wallet6_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet9__wallet9_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet9/wallet9_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet8__prism_wallet_attributions_8_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet8/prism_wallet_attributions_8_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet17__wallet17_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet17/wallet17_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet22__prism_wallet_attributions_22_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet22/prism_wallet_attributions_22</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet_file_template_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet_file_template</t>
-  </si>
-  <si>
-    <t>silver.wallet10__wallet10_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet10/wallet10_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet14__wallet14_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet14/wallet14_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet18__wallet18_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/wallet18_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet17__wallet_transactions_17_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet17/wallet_transactions_17</t>
-  </si>
-  <si>
-    <t>silver.wallet12__wallet12_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet12/wallet12_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet3__wallet3_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet3/wallet3_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet20__wallet20_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet20/wallet20_wallet_ledger</t>
-  </si>
-  <si>
-    <t>silver.wallet10__wallet10_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet10/wallet10_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet2__wallet_transactions_2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet2/wallet_transactions_2_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet2__wallet2_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet2/wallet2_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet9__wallet9_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet9/wallet9_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet19__wallet_transactions_19_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet19/wallet_transactions_19</t>
-  </si>
-  <si>
-    <t>silver.wallet15__wallet15_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet15/wallet15_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet14__wallet_transactions_14_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet14/wallet_transactions_14_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet15__wallet15_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet15/wallet15_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet5__wallet5_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet5/wallet5_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet15__prism_wallet_attributions_15_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet15/prism_wallet_attributions_15</t>
-  </si>
-  <si>
-    <t>silver.wallet3__wallet3_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet3/wallet3_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet14__wallet14_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet14/wallet14_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet13__wallet13_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet13/wallet13_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet0__prism_wallet_attributions_0_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/prism_wallet_attributions_0_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet7__wallet7_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet7/wallet7_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet9__wallet9_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet9/wallet9_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet0_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet0_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet2__wallet2_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet2/wallet2_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet6__prism_wallet_attributions_6_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet6/prism_wallet_attributions_6_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet21__wallet_transactions_21_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet21/wallet_transactions_21</t>
-  </si>
-  <si>
-    <t>silver.wallet18__wallet18_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/wallet18_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet0_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet0_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet16__wallet16_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet16/wallet16_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet3__prism_wallet_attributions_3_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet3/prism_wallet_attributions_3_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet4__wallet4_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet4/wallet4_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet14__prism_wallet_attributions_14_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet14/prism_wallet_attributions_14_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet5__prism_wallet_attributions_5_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet5/prism_wallet_attributions_5_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet20__prism_wallet_attributions_20_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet20/prism_wallet_attributions_20</t>
-  </si>
-  <si>
-    <t>silver.wallet8__wallet8_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet8/wallet8_wallet_type</t>
+    <t>silver.wallet6__wallet6_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet6/wallet6_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet18__wallet_transactions_18_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/wallet_transactions_18</t>
+  </si>
+  <si>
+    <t>silver.wallet0__prism_wallet_file_data_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/prism_wallet_file_data_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet22__wallet22_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet22/wallet22_wallet_ledger</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet_file_record_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet_file_record</t>
+  </si>
+  <si>
+    <t>silver.wallet7__wallet7_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet7/wallet7_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet12__wallet_transactions_12_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet12/wallet_transactions_12_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet9__wallet_transactions_9_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet9/wallet_transactions_9_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet15__wallet_transactions_15_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet15/wallet_transactions_15</t>
+  </si>
+  <si>
+    <t>silver.wallet4__wallet_transactions_4_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet4/wallet_transactions_4_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet8__wallet_transactions_8_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet8/wallet_transactions_8_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet11__wallet_transactions_11_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet11/wallet_transactions_11_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet11__wallet11_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet11/wallet11_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet13__wallet13_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet13/wallet13_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet16__wallet_transactions_16_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet16/wallet_transactions_16</t>
+  </si>
+  <si>
+    <t>silver.wallet8__wallet8_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet8/wallet8_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet19__wallet19_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet19/wallet19_wallet_ledger_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet5__wallet5_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet5/wallet5_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet19__wallet19_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet19/wallet19_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet13__prism_wallet_attributions_13_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet13/prism_wallet_attributions_13_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet21__wallet21_wallet_ledger_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet21/wallet21_wallet_ledger</t>
+  </si>
+  <si>
+    <t>silver.wallet19__wallet19_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet19/wallet19_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet18__wallet18_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/wallet18_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.wallet19__prism_wallet_attributions_19_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet19/prism_wallet_attributions_19_new</t>
+  </si>
+  <si>
+    <t>silver.wallet7__prism_wallet_attributions_7_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet7/prism_wallet_attributions_7_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet0__wallet0_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet0/wallet0_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet2__prism_wallet_attributions_2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet2/prism_wallet_attributions_2_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet6__wallet_transactions_6_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet6/wallet_transactions_6_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet1__wallet1_wallet_transaction_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet1/wallet1_wallet_transaction_mapping_repartition</t>
+  </si>
+  <si>
+    <t>silver.wallet1__wallet1_wallet_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet1/wallet1_wallet_type</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_text_search_high_visibility_order_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_text_search_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_labels_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_labels</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_label_values_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_label_values</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_tag_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_tag_map</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_default_filters_sscat_attribute_store_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_default_filters_sscat_attribute_store</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_clp_high_visibility_order_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_clp_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_hvf_types_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_hvf_types</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_high_visibility_filter_presets_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_high_visibility_filter_presets</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_high_visibility_order_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_tags_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_tags</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_preset_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_preset_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_users</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_user_bank_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_user_bank_details</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_pickup_address_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_pickup_address</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_term_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_term_details</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_save_user_journey_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_save_user_journey</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_ifsc_detail_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_ifsc_detail</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_supplier_gst_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_supplier_gst</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_supplier_user_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_supplier_user_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_ifsc_bank_name_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_ifsc_bank_name</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_bank_supplier_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_bank_supplier_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_addresses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_addresses</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payments</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_offers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_offers</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payment_refund_request_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payment_refund_request</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_carts_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_carts</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_attributes</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_orders_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_orders</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_order_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_attributes</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_commission_payout_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_commission_payout_new</t>
+  </si>
+  <si>
+    <t>silver.farmiso__refund_cancellation_at_sku_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/refund_cancellation_at_sku</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_user_offer_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_user_offer_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_addresses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_addresses</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_orders_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_orders</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_products_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_products</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customers</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealers</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_cart_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_cart_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_listings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_listings_2022_08_19</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_order_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_details_27_10_2021</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_order_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_banners_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_banners</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_payout_aggregation_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_payout_aggregation</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_attributes</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_order_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_attributes</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_city_city_delay_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_city_city_delay_map</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_zone_info_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_zone_info</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_tracking_2k19_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_available_pin_codes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_available_pin_codes_2021_04_13</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_city_city_zone_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_city_city_zone_maps</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_grocery_available_pin_codes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_grocery_available_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_pincode_city_state_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_pincode_city_state_maps</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_reverse_zone_info_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_reverse_zone_info</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_supplier_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_supplier</t>
+  </si>
+  <si>
+    <t>silver.invoice__invoice_urls_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/invoice_urls_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.invoice__credit_invoices_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/credit_invoices</t>
+  </si>
+  <si>
+    <t>silver.invoice__supplier_to_reseller_invoices_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.invoice__reseller_to_customer_invoices_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.trends__tinder_meesho_to_meesho_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/tinder_meesho_to_meesho_mapping</t>
+  </si>
+  <si>
+    <t>silver.trends__competition_products_fk_exp_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/competition_products_fk_exp</t>
+  </si>
+  <si>
+    <t>silver.trends__meesho_to_meesho_visenze_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/meesho_to_meesho_visenze_mapping</t>
+  </si>
+  <si>
+    <t>silver.trends__competition_products_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/competition_products</t>
+  </si>
+  <si>
+    <t>silver.trends__comp_to_comp_matching_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/comp_to_comp_matching</t>
+  </si>
+  <si>
+    <t>silver.trends__competition_image_matches_visenze_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/competition_image_matches_visenze</t>
+  </si>
+  <si>
+    <t>silver.trends__competition_image_matches_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends/competition_image_matches</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_bank_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_bank_details</t>
+  </si>
+  <si>
+    <t>silver.order_service__order_summary_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_service/order_summary</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_pin_pin_delay_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_pin_pin_delay_map</t>
+  </si>
+  <si>
+    <t>silver.mongo_shipments__pin_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mongo_shipments/pin_attributes</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_templates</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_taxonomy_categories_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_categories</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_taxonomy_category_sub_category_mappings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_category_sub_category_mappings</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_taxonomy_sub_categories_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_sub_categories</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widgets_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widgets</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_groups</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_group_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_group_maps</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_scores_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_scores</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_groups</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_group_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_group_maps</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_customer_profiles_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_customer_profiles</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_suppliers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_suppliers</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_addresses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_addresses</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_bank_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_bank_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_earnings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_earnings</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_text_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_text</t>
+  </si>
+  <si>
+    <t>silver.cart__senders_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cart/senders</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_payment_order_detail_payment_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payment_attributes_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__admins_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/admins</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__supplier_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/supplier_payments</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__entity_payout_state_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/entity_payout_state_details</t>
+  </si>
+  <si>
+    <t>silver.file_payout__supplier_payment_files_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/file_payout/supplier_payment_files</t>
+  </si>
+  <si>
+    <t>silver.support__support_dispositions_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/support/support_dispositions_new</t>
+  </si>
+  <si>
+    <t>silver.support__support_templates_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/support/support_templates_new</t>
+  </si>
+  <si>
+    <t>silver.support__call_me_back_user_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/support/call_me_back_user_details</t>
+  </si>
+  <si>
+    <t>silver.cart__blocked_user_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cart/blocked_user</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inventory__supplier_catalog_management_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -650,9 +821,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -960,14 +1134,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1770,6 +1944,246 @@
         <v>199</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>job_name</t>
   </si>
@@ -22,766 +22,598 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.wallet6__wallet6_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet6/wallet6_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet18__wallet_transactions_18_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/wallet_transactions_18</t>
-  </si>
-  <si>
-    <t>silver.wallet0__prism_wallet_file_data_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/prism_wallet_file_data_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet22__wallet22_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet22/wallet22_wallet_ledger</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet_file_record_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet_file_record</t>
-  </si>
-  <si>
-    <t>silver.wallet7__wallet7_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet7/wallet7_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet12__wallet_transactions_12_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet12/wallet_transactions_12_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet9__wallet_transactions_9_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet9/wallet_transactions_9_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet15__wallet_transactions_15_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet15/wallet_transactions_15</t>
-  </si>
-  <si>
-    <t>silver.wallet4__wallet_transactions_4_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet4/wallet_transactions_4_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet8__wallet_transactions_8_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet8/wallet_transactions_8_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet11__wallet_transactions_11_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet11/wallet_transactions_11_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet11__wallet11_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet11/wallet11_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet13__wallet13_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet13/wallet13_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet16__wallet_transactions_16_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet16/wallet_transactions_16</t>
-  </si>
-  <si>
-    <t>silver.wallet8__wallet8_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet8/wallet8_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet19__wallet19_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet19/wallet19_wallet_ledger_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet5__wallet5_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet5/wallet5_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet19__wallet19_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet19/wallet19_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet13__prism_wallet_attributions_13_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet13/prism_wallet_attributions_13_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet21__wallet21_wallet_ledger_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet21/wallet21_wallet_ledger</t>
-  </si>
-  <si>
-    <t>silver.wallet19__wallet19_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet19/wallet19_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet18__wallet18_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/wallet18_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.wallet19__prism_wallet_attributions_19_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet19/prism_wallet_attributions_19_new</t>
-  </si>
-  <si>
-    <t>silver.wallet7__prism_wallet_attributions_7_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet7/prism_wallet_attributions_7_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet0__wallet0_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet0/wallet0_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet2__prism_wallet_attributions_2_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet2/prism_wallet_attributions_2_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet6__wallet_transactions_6_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet6/wallet_transactions_6_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet1__wallet1_wallet_transaction_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet1/wallet1_wallet_transaction_mapping_repartition</t>
-  </si>
-  <si>
-    <t>silver.wallet1__wallet1_wallet_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet1/wallet1_wallet_type</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_text_search_high_visibility_order_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_text_search_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_filter_labels_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_filter_labels</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_filter_label_values_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_filter_label_values</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_collection_tag_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_collection_tag_map</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_default_filters_sscat_attribute_store_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_default_filters_sscat_attribute_store</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_clp_high_visibility_order_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_clp_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_collection_hvf_types_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_collection_hvf_types</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_high_visibility_filter_presets_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_high_visibility_filter_presets</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_collection_high_visibility_order_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_collection_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_tags_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_tags</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_collection_preset_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_collection_preset_map</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_users</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_user_bank_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_user_bank_details</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_pickup_address_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_pickup_address</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_term_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_term_details</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_save_user_journey_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_save_user_journey</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_ifsc_detail_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_ifsc_detail</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_supplier_gst_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_supplier_gst</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_supplier_user_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_supplier_user_map</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_ifsc_bank_name_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_ifsc_bank_name</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_bank_supplier_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_bank_supplier_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_addresses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_addresses</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_payments</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_offers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_offers</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_payment_refund_request_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_payment_refund_request</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_carts_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_carts</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_orders_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_orders</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_order_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_commission_payout_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_commission_payout_new</t>
-  </si>
-  <si>
-    <t>silver.farmiso__refund_cancellation_at_sku_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/refund_cancellation_at_sku</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_user_offer_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_user_offer_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_addresses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_addresses</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_orders_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_orders</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_products_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_products</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customers</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealers</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_cart_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_cart_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_listings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_listings_2022_08_19</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_order_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_details_27_10_2021</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_order_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_banners_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_banners</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_payout_aggregation_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_payout_aggregation</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_order_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_attributes</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_city_city_delay_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_city_city_delay_map</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_zone_info_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_zone_info</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_tracking_2k19_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_new</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_available_pin_codes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_available_pin_codes_2021_04_13</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_city_city_zone_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_city_city_zone_maps</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_grocery_available_pin_codes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_grocery_available_pin_codes</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_pincode_city_state_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_pincode_city_state_maps</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_reverse_zone_info_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_reverse_zone_info</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_supplier_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_supplier</t>
-  </si>
-  <si>
-    <t>silver.invoice__invoice_urls_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/invoice_urls_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.invoice__credit_invoices_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/credit_invoices</t>
-  </si>
-  <si>
-    <t>silver.invoice__supplier_to_reseller_invoices_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/supplier_to_reseller_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.invoice__reseller_to_customer_invoices_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/invoice/reseller_to_customer_invoices_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.trends__tinder_meesho_to_meesho_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/tinder_meesho_to_meesho_mapping</t>
-  </si>
-  <si>
-    <t>silver.trends__competition_products_fk_exp_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/competition_products_fk_exp</t>
-  </si>
-  <si>
-    <t>silver.trends__meesho_to_meesho_visenze_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/meesho_to_meesho_visenze_mapping</t>
-  </si>
-  <si>
-    <t>silver.trends__competition_products_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/competition_products</t>
-  </si>
-  <si>
-    <t>silver.trends__comp_to_comp_matching_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/comp_to_comp_matching</t>
-  </si>
-  <si>
-    <t>silver.trends__competition_image_matches_visenze_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/competition_image_matches_visenze</t>
-  </si>
-  <si>
-    <t>silver.trends__competition_image_matches_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/trends/competition_image_matches</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_bank_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_bank_details</t>
-  </si>
-  <si>
-    <t>silver.order_service__order_summary_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_service/order_summary</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_pin_pin_delay_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_pin_pin_delay_map</t>
-  </si>
-  <si>
-    <t>silver.mongo_shipments__pin_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mongo_shipments/pin_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_discovery_share_templates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_templates</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_taxonomy_categories_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_categories</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_taxonomy_category_sub_category_mappings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_category_sub_category_mappings</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_taxonomy_sub_categories_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_sub_categories</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_widgets_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_widgets</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_widget_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_widget_groups</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_widget_group_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_widget_group_maps</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_scores_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_scores</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_groups</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_group_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_group_maps</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_customer_profiles_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_customer_profiles</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_suppliers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_suppliers</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_supplier_addresses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_supplier_addresses</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_supplier_bank_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_supplier_bank_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_earnings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_earnings</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_discovery_share_text_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_text</t>
-  </si>
-  <si>
-    <t>silver.cart__senders_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cart/senders</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__supplier_payment_order_detail_payment_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payment_attributes_schema_change_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supplier_detail__admins_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_detail/admins</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__supplier_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/supplier_payments</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__entity_payout_state_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/entity_payout_state_details</t>
-  </si>
-  <si>
-    <t>silver.file_payout__supplier_payment_files_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/file_payout/supplier_payment_files</t>
-  </si>
-  <si>
-    <t>silver.support__support_dispositions_new_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/support/support_dispositions_new</t>
-  </si>
-  <si>
-    <t>silver.support__support_templates_new_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/support/support_templates_new</t>
-  </si>
-  <si>
-    <t>silver.support__call_me_back_user_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/support/call_me_back_user_details</t>
-  </si>
-  <si>
-    <t>silver.cart__blocked_user_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cart/blocked_user</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_logs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_logs_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inventory__supplier_catalog_management_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inventory/supplier_catalog_management_details</t>
+    <t>silver.farmiso__farmiso_facilities_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facilities</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_banner_mappings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_banner_mappings</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_logistic_fees_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_logistic_fees</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_pincode_mappings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_pincode_mappings</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_group_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_group_map</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_map</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_pin_codes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_order_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_order_map</t>
+  </si>
+  <si>
+    <t>silver.search__clp_catalog_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/search/clp_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_users_repartition</t>
+  </si>
+  <si>
+    <t>silver.referral__referrals_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referrals</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_influencers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_influencers</t>
+  </si>
+  <si>
+    <t>silver.referral__anonymous_referrals_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/anonymous_referrals</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_payments</t>
+  </si>
+  <si>
+    <t>silver.farmiso__discovery_dealer_social_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/discovery_dealer_social_groups</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__user_last_login_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/user_last_login</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_claim_data_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_claim_data_new</t>
+  </si>
+  <si>
+    <t>silver.farmiso__reviews_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/reviews</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__request_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/request_logs_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__supplier_penalty_waiver1_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/supplier_penalty_waiver1</t>
+  </si>
+  <si>
+    <t>silver.search__catalogs_clp_data_temp_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/search/catalogs_clp_data_temp</t>
+  </si>
+  <si>
+    <t>silver.relay__notification_campaigns_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/notification_campaigns</t>
+  </si>
+  <si>
+    <t>silver.relay__notification_campaign_audience_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/notification_campaign_audience_map</t>
+  </si>
+  <si>
+    <t>silver.relay__notification_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/notification_templates</t>
+  </si>
+  <si>
+    <t>silver.relay__wa_messages_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/relay_wa_messages_2021_11_08</t>
+  </si>
+  <si>
+    <t>silver.relay__wa_message_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/relay_wa_message_details</t>
+  </si>
+  <si>
+    <t>silver.relay__wa_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/wa_templates</t>
+  </si>
+  <si>
+    <t>silver.relay__wa_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/relay/relay_wa_users_2021_11_08</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_delays_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_delays</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__holiday_list_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/holiday_list</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__supplier_penalty_type_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/supplier_penalty_type</t>
+  </si>
+  <si>
+    <t>silver.supply_admin__supplier_penalty_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply_admin/supplier_penalty</t>
+  </si>
+  <si>
+    <t>silver.pow__product_count_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/pow/product_count</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_group_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_group_details</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_groups</t>
+  </si>
+  <si>
+    <t>silver.farmiso__user_offer_group_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/user_offer_group_details</t>
+  </si>
+  <si>
+    <t>silver.price__deals_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/deals</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_deal_price_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_deal_price_map</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.price__currency_exchange_rate_periodic_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/currency_exchange_rate_periodic</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_price_map_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_price_map_change_log</t>
+  </si>
+  <si>
+    <t>silver.price__supplier_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_deal_price_map_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_deal_price_map_change_log</t>
+  </si>
+  <si>
+    <t>silver.price__price_sub_sub_category_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_sub_sub_category_metadata</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_latest_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_latest</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_countries_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_countries</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_value_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria_value</t>
+  </si>
+  <si>
+    <t>silver.epg__transactions_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg/transactions_new</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_link_shares_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_link_shares</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_criterias_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_criterias</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plans_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plans</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_incentives_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_incentives</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_notifications_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_notifications</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tiers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tiers</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_user_current_badge_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_user_current_badge_details</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_fraud_reasons_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_fraud_reasons</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_audiences_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_audiences</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_earnings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_earnings_repartition</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_anonymous_user_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_anonymous_user_audit</t>
+  </si>
+  <si>
+    <t>silver.referral__re_admin_panel_api_audit_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_admin_panel_api_audit</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badges_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badges</t>
+  </si>
+  <si>
+    <t>silver.referral__re_audience_badge_referral_plan_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_audience_badge_referral_plan_map</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_description_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes_description</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badge_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badge_groups</t>
+  </si>
+  <si>
+    <t>silver.community__revinfo_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/revinfo</t>
+  </si>
+  <si>
+    <t>silver.communicator__communicator_sms_template_provider_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/communicator_sms_template_provider_metadata</t>
+  </si>
+  <si>
+    <t>silver.community__comments_audit_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/comments_audit_log</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_posts_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_posts_repartition</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_user_post_like_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_user_post_like_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_user_comment_like_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_user_comment_like_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_user_type_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_user_type_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_topics_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topics</t>
+  </si>
+  <si>
+    <t>silver.communicator__payments_communicator_sms_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/payments_communicator_sms_templates</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_media_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_media</t>
+  </si>
+  <si>
+    <t>silver.community__community_user_post_save_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_user_post_save_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_variations_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_variations</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_media_statuses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_media_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_blocked_users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_blocked_users</t>
+  </si>
+  <si>
+    <t>silver.community__community_posts_audit_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_posts_audit_log</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_adjectives_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_adjectives</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_feed_type_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_feed_type_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_user_post_share_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_user_post_share_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_moderation_statuses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_moderation_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_user_post_bookmark_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_user_post_bookmark_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_post_tag_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_post_tag_maps</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_content_types_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_content_types</t>
+  </si>
+  <si>
+    <t>silver.community__community_product_posts_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_product_posts</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_tags_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_tags</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_user_post_view_maps_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_user_post_view_maps_2021_07_06</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_comments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_comments_repartition</t>
+  </si>
+  <si>
+    <t>silver.shipment__city_city_shipping_zone_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/city_city_shipping_zone</t>
+  </si>
+  <si>
+    <t>silver.shipment__pincode_city_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/pincode_city_map</t>
+  </si>
+  <si>
+    <t>silver.shipment__shipping_zone_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/shipping_zone</t>
+  </si>
+  <si>
+    <t>silver.supply__addresses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/addresses</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__webinar_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/webinar_details</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__webinar_registration_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/webinar_registration_details</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata</t>
   </si>
   <si>
     <t/>
@@ -1946,242 +1778,242 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>203</v>
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>205</v>
+      <c r="A103" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>207</v>
+      <c r="A104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>209</v>
+      <c r="A105" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>211</v>
+      <c r="A106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>213</v>
+      <c r="A107" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>215</v>
+      <c r="A108" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>217</v>
+      <c r="A109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>219</v>
+      <c r="A110" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>221</v>
+      <c r="A111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>223</v>
+      <c r="A112" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>225</v>
+      <c r="A113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>227</v>
+      <c r="A114" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>229</v>
+      <c r="A115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>231</v>
+      <c r="A116" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>233</v>
+      <c r="A117" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>235</v>
+      <c r="A118" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>237</v>
+      <c r="A119" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>239</v>
+      <c r="A120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>241</v>
+      <c r="A121" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>243</v>
+      <c r="A122" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>245</v>
+      <c r="A123" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>247</v>
+      <c r="A124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>249</v>
+      <c r="A125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>251</v>
+      <c r="A126" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>253</v>
+      <c r="A127" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>255</v>
+      <c r="A128" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="300">
   <si>
     <t>job_name</t>
   </si>
@@ -22,292 +22,868 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.farmiso__farmiso_facilities_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_facilities</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_facility_banner_mappings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_facility_banner_mappings</t>
-  </si>
-  <si>
-    <t>silver.supply__supplier_logistic_fees_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/supplier_logistic_fees</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_facility_pincode_mappings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_facility_pincode_mappings</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_facility_widget_group_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_group_map</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_facility_widget_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_map</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_pin_codes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_pin_codes</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_order_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_order_map</t>
-  </si>
-  <si>
-    <t>silver.search__clp_catalog_mapping_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/search/clp_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_users_repartition</t>
-  </si>
-  <si>
-    <t>silver.referral__referrals_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referrals</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_influencers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_influencers</t>
-  </si>
-  <si>
-    <t>silver.referral__anonymous_referrals_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/anonymous_referrals</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_payments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_payments</t>
-  </si>
-  <si>
-    <t>silver.farmiso__discovery_dealer_social_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/discovery_dealer_social_groups</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__user_last_login_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/user_last_login</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__supplier_claim_data_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/supplier_claim_data_new</t>
-  </si>
-  <si>
-    <t>silver.farmiso__reviews_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/reviews</t>
-  </si>
-  <si>
-    <t>silver.supplier_payment__request_logs_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_payment/request_logs_schema_change_schema_change</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__supplier_penalty_waiver1_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/supplier_penalty_waiver1</t>
-  </si>
-  <si>
-    <t>silver.search__catalogs_clp_data_temp_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/search/catalogs_clp_data_temp</t>
-  </si>
-  <si>
-    <t>silver.relay__notification_campaigns_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/notification_campaigns</t>
-  </si>
-  <si>
-    <t>silver.relay__notification_campaign_audience_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/notification_campaign_audience_map</t>
-  </si>
-  <si>
-    <t>silver.relay__notification_templates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/notification_templates</t>
-  </si>
-  <si>
-    <t>silver.relay__wa_messages_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/relay_wa_messages_2021_11_08</t>
-  </si>
-  <si>
-    <t>silver.relay__wa_message_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/relay_wa_message_details</t>
-  </si>
-  <si>
-    <t>silver.relay__wa_templates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/wa_templates</t>
-  </si>
-  <si>
-    <t>silver.relay__wa_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/relay/relay_wa_users_2021_11_08</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_delays_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_delays</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__holiday_list_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/holiday_list</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__supplier_penalty_type_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/supplier_penalty_type</t>
-  </si>
-  <si>
-    <t>silver.supply_admin__supplier_penalty_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply_admin/supplier_penalty</t>
-  </si>
-  <si>
-    <t>silver.pow__product_count_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/product_count</t>
-  </si>
-  <si>
-    <t>silver.farmiso__offer_group_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/offer_group_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__offer_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/offer_groups</t>
-  </si>
-  <si>
-    <t>silver.farmiso__user_offer_group_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/user_offer_group_details</t>
-  </si>
-  <si>
-    <t>silver.price__deals_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/deals</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_deal_price_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_deal_price_map</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_attributes</t>
-  </si>
-  <si>
-    <t>silver.price__currency_exchange_rate_periodic_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/currency_exchange_rate_periodic</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_price_map_change_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_price_map_change_log</t>
-  </si>
-  <si>
-    <t>silver.price__supplier_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/supplier_attributes</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_deal_price_map_change_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_deal_price_map_change_log</t>
-  </si>
-  <si>
-    <t>silver.price__price_sub_sub_category_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/price_sub_sub_category_metadata</t>
-  </si>
-  <si>
-    <t>silver.price__price_cart_criteria_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/price_cart_criteria</t>
-  </si>
-  <si>
-    <t>silver.price__price_currency_exchange_rate_latest_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/price_currency_exchange_rate_latest</t>
-  </si>
-  <si>
-    <t>silver.price__price_currency_exchange_rate_countries_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/price_currency_exchange_rate_countries</t>
-  </si>
-  <si>
-    <t>silver.price__price_cart_criteria_value_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/price_cart_criteria_value</t>
+    <t>silver.shipment__pincode_city_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/pincode_city_map</t>
+  </si>
+  <si>
+    <t>silver.shipment__sscat_shipping_zone_charge_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/sscat_shipping_zone_charge</t>
+  </si>
+  <si>
+    <t>silver.shipment__shipping_zone_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/shipping_zone</t>
+  </si>
+  <si>
+    <t>silver.shipment__city_city_shipping_zone_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/city_city_shipping_zone</t>
+  </si>
+  <si>
+    <t>silver.cms__price_collapse_similar_products_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cms/price_collapse_similar_products</t>
+  </si>
+  <si>
+    <t>silver.cms__product_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cms/product_groups</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__recommendation_service_price_recommendation_accepted_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/recommendation_service_price_recommendation_accepted</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__recommendation_service_price_recommendation_rejected_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/recommendation_service_price_recommendation_rejected</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__sub_order_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/sub_order</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__sub_order_attribute_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/sub_order_attribute</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__order_attribute_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/order_attribute</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__shipment_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/shipment</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__sub_order_shipment_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/sub_order_shipment_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__shipment_attribute_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/shipment_attribute</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__return_shipment_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/return_shipment</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__return_shipment_attribute_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/return_shipment_attribute</t>
+  </si>
+  <si>
+    <t>silver.supplier_orders__return_sub_order_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_orders/return_sub_order</t>
+  </si>
+  <si>
+    <t>silver.merchandising__widget_group_location_audience_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/widget_group_location_audience_map</t>
+  </si>
+  <si>
+    <t>silver.advertisement__catalog_recommendations_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/catalog_recommendations_metadata</t>
+  </si>
+  <si>
+    <t>silver.farmiso__dealer_scores_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/dealer_scores</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_pick_up_locations_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_pick_up_locations</t>
+  </si>
+  <si>
+    <t>silver.farmsio__product_translations_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmsio/product_translations</t>
+  </si>
+  <si>
+    <t>silver.shipments__city_promise_on_sunday_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/city_promise_on_sunday_map</t>
+  </si>
+  <si>
+    <t>silver.advertisement__sscat_campaign_config_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/sscat_campaign_config_log</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata_log</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_level_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_level_payments</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_level_payment_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_level_payment_attributes</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_payment_order_detail_attributes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_attributes_repartition_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__supplier_payment_order_detail_payments_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/supplier_payment_order_detail_payments_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__manual_payout_upload_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/manual_payout_upload_logs</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__payment_plan_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/payment_plan_map</t>
+  </si>
+  <si>
+    <t>silver.inventory__product_supplier_variation_map_chage_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/product_supplier_variation_map_chage_log_rewrite</t>
+  </si>
+  <si>
+    <t>silver.trends_scraper_post_processor__trends_image_match_mc_cm_v3_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/trends_scraper_post_processor/trends_image_match_mc_cm_v3_2022_02_02</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_widget_group_location_map_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_widget_group_location_map_change_log</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_widgets_groups_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_widgets_groups_change_log</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_widgets_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_widgets_change_log</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_widget_group_widget_map_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_widget_group_widget_map_change_log</t>
+  </si>
+  <si>
+    <t>silver.supply__widget_groups_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/widget_groups</t>
+  </si>
+  <si>
+    <t>silver.supply__widgets_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/widgets</t>
+  </si>
+  <si>
+    <t>silver.supply__widget_group_location_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/widget_group_location_map_2022_03_11</t>
+  </si>
+  <si>
+    <t>silver.supply__widget_group_widget_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/widget_group_widget_map_2022_03_11</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_supplier_catalog_sscat_config_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_supplier_catalog_sscat_config</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_catalog_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign_catalog</t>
+  </si>
+  <si>
+    <t>silver.advertisement__catalog_cpc_map_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/catalog_cpc_map_log</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_real_estate_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_real_estate_metadata</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_campaign_performance_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_campaign_performance</t>
+  </si>
+  <si>
+    <t>silver.advertisement_rds__ds_feeds_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement_rds/ds_feeds</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign_log</t>
+  </si>
+  <si>
+    <t>silver.advertisement__catalog_cpc_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/catalog_cpc_map</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_catalog_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign_catalog_log</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_sscat_campaign_config_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_sscat_campaign_config</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_supplier_catalog_config_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_supplier_catalog_config</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata_log</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_supplier_campaign_config_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_supplier_campaign_config</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_catalog_metadata_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_catalog_metadata</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_ds_feeds_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_ds_feeds_log</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_catalog_recommendations_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_catalog_recommendations</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_agency_milestones_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_agency_milestones</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_ticket_updates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_ticket_updates_schema_change</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_support_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_category_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_support_ticket_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_ticket_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_support_sub_category_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_support_sub_category_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.cis__agent_dashboard_supplier_category_ordering_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/agent_dashboard_supplier_category_ordering_2021_09_03</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__supplier_ums_agency_supplier_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/supplier_ums_agency_supplier_map</t>
+  </si>
+  <si>
+    <t>silver.supply__order_detail_benefits_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_detail_benefits</t>
+  </si>
+  <si>
+    <t>silver.farmiso__taxonomy_category_facility_mappings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/taxonomy_category_facility_mappings</t>
+  </si>
+  <si>
+    <t>silver.taxation__supplier_tds_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxation/supplier_tds</t>
+  </si>
+  <si>
+    <t>silver.supply__scales_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/scales</t>
+  </si>
+  <si>
+    <t>silver.growth__appsflyer_install_events_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/appsflyer_install_events_2021_10_28</t>
+  </si>
+  <si>
+    <t>silver.supply__categories_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/categories</t>
+  </si>
+  <si>
+    <t>silver.supply__sub_categories_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/sub_categories</t>
+  </si>
+  <si>
+    <t>silver.supply__sub_sub_categories_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/sub_sub_categories</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_action_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_action_logs</t>
+  </si>
+  <si>
+    <t>silver.supplier_payment__request_logs_old_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_payment/request_logs_old</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__streamer_tnc_action_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/streamer_tnc_action</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__terms_and_conditions_revision_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/terms_and_conditions_revision</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_07_07_22</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_feed_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_feed</t>
+  </si>
+  <si>
+    <t>silver.supplier_detail__status_change_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_detail/status_change_logs</t>
+  </si>
+  <si>
+    <t>silver.supply__suppliers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/suppliers</t>
+  </si>
+  <si>
+    <t>silver.supply__supply_supplier_bank_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supply_supplier_bank_details</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_category_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_category_map</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__agency_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__agency_report_link_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency_report_link</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__agency_supplier_order_kpi_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency_supplier_order_kpi</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__agency_user_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency_user</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__agency_invite_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency_invite_log</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog</t>
+  </si>
+  <si>
+    <t>silver.supply__account_managers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/account_managers</t>
+  </si>
+  <si>
+    <t>silver.supply__bd_executives_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/bd_executives</t>
+  </si>
+  <si>
+    <t>silver.supply__catalog_data_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/catalog_data</t>
+  </si>
+  <si>
+    <t>silver.supply__schedule_tasks_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/schedule_tasks</t>
+  </si>
+  <si>
+    <t>silver.supply__product_supplier_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/product_supplier_map_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.supply__status_change_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/status_change_logs_schema_change</t>
+  </si>
+  <si>
+    <t>silver.supply__product_supplier_sku_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/product_supplier_sku_map</t>
+  </si>
+  <si>
+    <t>silver.campaign_performance__advertisement_rds_campaign_performance_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/campaign_performance/advertisement_rds_campaign_performance</t>
+  </si>
+  <si>
+    <t>silver.supply__users_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/users</t>
+  </si>
+  <si>
+    <t>silver.supply__order_detail_requests_v2_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/order_detail_requests_v2</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__user_fraud_status_scores_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/user_fraud_status_scores</t>
+  </si>
+  <si>
+    <t>silver.supply__collections_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/collections</t>
+  </si>
+  <si>
+    <t>silver.merchandising__banners_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/banners</t>
+  </si>
+  <si>
+    <t>silver.supply__widget_group_templates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/widget_group_templates</t>
+  </si>
+  <si>
+    <t>silver.merchandising__merchandising_catalog_listing_pages_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/merchandising_catalog_listing_pages</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__user_upi_details_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/user_upi_details</t>
+  </si>
+  <si>
+    <t>silver.order_service__supply_order_mapping_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_service/supply_order_mapping</t>
+  </si>
+  <si>
+    <t>silver.farmiso__home_page_section_rankings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/home_page_section_rankings</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_real_estate_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_real_estate</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_notification_template_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_template</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_notification_campaign_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_campaign</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_reminder_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_reminder</t>
+  </si>
+  <si>
+    <t>silver.payments_integration__payments_integration_bank_partner_event_updates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payments_integration/payments_integration_bank_partner_event_updates</t>
+  </si>
+  <si>
+    <t>silver.payment_communication__payment_communication_notification_status_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_communication/payment_communication_notification_status</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_user_block_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_user_block</t>
+  </si>
+  <si>
+    <t>silver.supply__root_order_num_map_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/root_order_num_map</t>
+  </si>
+  <si>
+    <t>silver.supply__supplier_qc_statuses_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/supplier_qc_statuses</t>
+  </si>
+  <si>
+    <t>silver.farmiso__landing_page_navigation_mappings_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/landing_page_navigation_mappings</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__product_duplicacy_exception_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/product_duplicacy_exception_fix</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_product_level_duplicacy_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_product_level_duplicacy_fix</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_upload_duplicates_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_upload_duplicates</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_limited_visibility_catalogs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_limited_visibility_catalogs_fix</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_catalog_full_visibility_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_full_visibility_fix</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_catalog_visibility_status_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_visibility_status_fix</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_change_log</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_change_log_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_change_log</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_recording_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_recording</t>
+  </si>
+  <si>
+    <t>silver.taxonomy__kafka_events_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/taxonomy/kafka_events</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_aud_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version_aud</t>
+  </si>
+  <si>
+    <t>silver.cis__product_edit_request_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/product_edit_request</t>
+  </si>
+  <si>
+    <t>silver.supply__cancellation_requests_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/cancellation_requests</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__pipeline_stats_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/pipeline_stats_new</t>
+  </si>
+  <si>
+    <t>silver.address__unserviceable_pin_codes_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/address/unserviceable_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__pipeline_job_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/pipeline_job_new</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__project_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/project_new</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__event_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/event_new</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__pipeline_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/pipeline_new</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__event_destinations_new_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/event_destinations_new</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__chat_analytics_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/chat_analytics</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__real_estate_preset_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/real_estate_preset</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_campaign_preset_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_campaign_preset</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_template_preset_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_template_preset</t>
   </si>
   <si>
     <t>silver.epg__transactions_22DEC</t>
@@ -316,307 +892,28 @@
     <t>delta_lake/SILVER/epg/transactions_new</t>
   </si>
   <si>
-    <t>silver.referral__re_referral_link_shares_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_link_shares</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_plan_tier_criterias_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_plan_tier_criterias</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_plans_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_plans</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_plan_tier_incentives_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_plan_tier_incentives</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_notifications_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_notifications</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_plan_tiers_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_plan_tiers</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_user_current_badge_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_user_current_badge_details</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_fraud_reasons_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_fraud_reasons</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_audiences_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_audiences</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_earnings_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_earnings_repartition</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_anonymous_user_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_anonymous_user_audit</t>
-  </si>
-  <si>
-    <t>silver.referral__re_admin_panel_api_audit_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_admin_panel_api_audit</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_badges_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_badges</t>
-  </si>
-  <si>
-    <t>silver.referral__re_audience_badge_referral_plan_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_audience_badge_referral_plan_map</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_attributes_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_attributes</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_attributes_description_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_attributes_description</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_badge_groups_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_badge_groups</t>
-  </si>
-  <si>
-    <t>silver.community__revinfo_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/revinfo</t>
-  </si>
-  <si>
-    <t>silver.communicator__communicator_sms_template_provider_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/communicator/communicator_sms_template_provider_metadata</t>
-  </si>
-  <si>
-    <t>silver.community__comments_audit_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/comments_audit_log</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_posts_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_posts_repartition</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_user_post_like_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_user_post_like_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_user_comment_like_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_user_comment_like_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_topic_user_type_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_topic_user_type_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_topics_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_topics</t>
-  </si>
-  <si>
-    <t>silver.communicator__payments_communicator_sms_templates_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/communicator/payments_communicator_sms_templates</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_media_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_media</t>
-  </si>
-  <si>
-    <t>silver.community__community_user_post_save_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_user_post_save_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_system_flag_words_variations_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_system_flag_words_variations</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_media_statuses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_media_statuses</t>
-  </si>
-  <si>
-    <t>silver.community__community_blocked_users_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_blocked_users</t>
-  </si>
-  <si>
-    <t>silver.community__community_posts_audit_log_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_posts_audit_log</t>
-  </si>
-  <si>
-    <t>silver.community__community_system_flag_words_adjectives_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_system_flag_words_adjectives</t>
-  </si>
-  <si>
-    <t>silver.community__community_topic_feed_type_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_topic_feed_type_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_user_post_share_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_user_post_share_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_moderation_statuses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_moderation_statuses</t>
-  </si>
-  <si>
-    <t>silver.community__community_user_post_bookmark_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_user_post_bookmark_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_post_tag_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_post_tag_maps</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_content_types_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_content_types</t>
-  </si>
-  <si>
-    <t>silver.community__community_product_posts_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_product_posts</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_tags_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_tags</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_user_post_view_maps_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_user_post_view_maps_2021_07_06</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_comments_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_comments_repartition</t>
-  </si>
-  <si>
-    <t>silver.shipment__city_city_shipping_zone_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipment/city_city_shipping_zone</t>
-  </si>
-  <si>
-    <t>silver.shipment__pincode_city_map_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipment/pincode_city_map</t>
-  </si>
-  <si>
-    <t>silver.shipment__shipping_zone_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipment/shipping_zone</t>
-  </si>
-  <si>
-    <t>silver.supply__addresses_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/addresses</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__webinar_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/webinar_details</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__webinar_registration_details_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/webinar_registration_details</t>
-  </si>
-  <si>
-    <t>silver.advertisement__supplier_sscat_metadata_22DEC</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata</t>
-  </si>
-  <si>
-    <t/>
+    <t>silver.supplier_ums__agency_value_based_milestone_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/agency_value_based_milestone</t>
+  </si>
+  <si>
+    <t>silver.msg_payout__audit_logs_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_payout/audit_logs</t>
+  </si>
+  <si>
+    <t>silver.advertisement__bid_recommendation_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/bid_recommendation</t>
+  </si>
+  <si>
+    <t>silver.offer_platform__meesho_offers_22DEC</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/offer_platform/meesho_offers</t>
   </si>
 </sst>
 </file>
@@ -653,12 +950,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -966,14 +1260,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1338,682 +1632,858 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>200</v>
+      <c r="B103" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>200</v>
+      <c r="A104" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>200</v>
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>200</v>
+      <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>200</v>
+      <c r="A107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>200</v>
+      <c r="A108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>200</v>
+      <c r="A109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>200</v>
+      <c r="A110" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>200</v>
+      <c r="A111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>200</v>
+      <c r="A112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>200</v>
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>200</v>
+      <c r="A114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>200</v>
+      <c r="A115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>200</v>
+      <c r="A116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>200</v>
+      <c r="A117" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>200</v>
+      <c r="A118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>200</v>
+      <c r="A119" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>200</v>
+      <c r="A120" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>200</v>
+      <c r="A121" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>200</v>
+      <c r="A122" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>200</v>
+      <c r="A123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>200</v>
+      <c r="A124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>200</v>
+      <c r="A125" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>200</v>
+      <c r="A126" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>200</v>
+      <c r="A127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>200</v>
+      <c r="A128" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>200</v>
+      <c r="A129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>200</v>
+      <c r="A130" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="279">
   <si>
     <t>job_name</t>
   </si>
@@ -22,1162 +22,832 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__screen_visited_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_fcm_records_v2_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_fcm_records_v2</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_loading_failed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_loading_failed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__product_page_scrolled_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/product_page_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_open_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_open</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_mobile_ads_initialized_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_mobile_ads_initialized</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_anonymous_fcm_records_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_anonymous_fcm_records</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_image_swiped_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_image_swiped_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.ML_Platform__fy_ad_relevance_feed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ML_Platform/fy_ad_relevance_feed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__plp_products_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/plp_products_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_media_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_media_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_session_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_session</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_proto_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_typing_details_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_typing_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_notification_delivered_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_notification_delivered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feed_state_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feed_state_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_card_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_card_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_user_app_tracking_3_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_results_shown_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_results_shown</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_result_details_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_result_details</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_oc_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping_oc</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_details_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feed_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feed_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_pretype_suggestion_shown_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_pretype_suggestion_shown_2021_04_15</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_pdp_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__prism_clevertap_notification_sent_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/prism_clevertap_notification_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_open_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_session_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_session</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_added_to_wishlist_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_added_to_wishlist</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_sessions_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_sessions</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_performance_metrics_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_performance_metrics</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__fy_relevance_feed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/fy_relevance_feed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__category_views_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/category_views_report</t>
-  </si>
-  <si>
-    <t>silver.msg_competitor__competitor_data_ingestion_log_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_competitor/competitor_data_ingestion_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__screen_visited_test_dbc_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_widget_views_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_views_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__code_received_401_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/code_received_401</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_suggestion_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_suggestion_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_audience__audience_entity_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_audience/audience_entity_map_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__banner_views_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/banner_views</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__duplicate_product_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/duplicate_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_share_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__orders_tab_clicked_sync_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/orders_tab_clicked_sync</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_feed_state_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_feed_state_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adclicks_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adclicks</t>
-  </si>
-  <si>
-    <t>silver.msg_ct_qct_service__ctqct_v2_re_catalogs_served_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ct_qct_service/ctqct_v2_re_catalogs_served</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_clicked_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__video_review_progress_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ad_widget_views_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ad_widget_views</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_product_offer_map_log_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_product_offer_map_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hvf_impression_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hvf_impression_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_clone_test_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_opened</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__non_native_ad_requests_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/non_native_ad_requests_events</t>
-  </si>
-  <si>
-    <t>silver.supply__order_timeline_3_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_timeline_3</t>
-  </si>
-  <si>
-    <t>silver.ad__interaction_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/interaction_events</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__catalog_tracking_sse_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__fcm_token_refreshed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/fcm_token_refreshed</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__non_native_ad_catalogs_served_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/non_native_ad_catalogs_served</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_video_player_state_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_video_player_state</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__orders_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/orders_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_details_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_details_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_offer_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_offer</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__anonymous_user_apps_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/anonymous_user_apps</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__installed_apps_tracking_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/installed_apps_tracking</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_proto_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_plp_products_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_plp_products_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_pageview_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_pageview_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_result_details_internal_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_result_details_internal_2021_04_22</t>
-  </si>
-  <si>
-    <t>silver.inhouse__user_location_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/user_location</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__facebook_ad_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/facebook_ad_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__for_you_scrolled_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/for_you_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__shield_sdk_details_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/shield_sdk_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_image_loading_failed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_image_loading_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_analytics_data_event_summary_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_analytics_data_event_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__category_tile_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/category_tile_clicked</t>
-  </si>
-  <si>
-    <t>silver.ad__requests_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/requests_events</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_optin__supplier_optin_product_map_audit_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_audit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__add_to_cart_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_sms_records_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_records</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_pdp_card_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_pdp_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cronet_init_success_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cronet_init_success</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__ds_demand_prediction_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__review_video_play_pause_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__notifications_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/notifications_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__buy_now_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_pdp_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_pdp_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_temp_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_session_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_session</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_sessions_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_sessions</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__filter_value_selection_changed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed_repartition</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_top_nav_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_top_nav_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_sms_requests_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_requests</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_completed_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_completed_appstrackingworker</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_notifications_viewed_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_notifications_viewed_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__voice_icon_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/voice_icon_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_details_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_product_card_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__catalog_upsert_event_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/catalog_upsert_event</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__user_cod_block_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/user_cod_block</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_lp_product_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_results_shown_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_results_shown_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_removed_from_wishlist_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_removed_from_wishlist</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ad_requested_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ad_requested</t>
-  </si>
-  <si>
-    <t>silver.shipment__tracking_2k19_new_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipment/tracking_2k19_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_widget_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_analytics__anonymous_app_open_pre_signup_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_analytics/anonymous_app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_product_wishlist_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_product_wishlist_map</t>
-  </si>
-  <si>
-    <t>silver.epg_api_records__api_call_records_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/epg_api_records/api_call_records_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_load_failed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_load_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__clp_catalog_mapping_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/clp_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.inhouse__pow_pdp_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/pow_pdp_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_email_records_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_records</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__see_all_updates_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/see_all_updates_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__cart_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/cart_viewed</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_reseller_contacts_3_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_3</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__add_to_cart_continue_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_banner_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__buy_now_continue_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/buy_now_continue_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.kafka_ext__inventory_change_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/kafka_ext/inventory_change_2021_04_15</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_fcm_token_refreshed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_fcm_token_refreshed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_image_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_image_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_shared_report_test1_etl_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_shared_report_test1_etl_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_tracking_dump_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_tracking_dump</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_celere_event_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_celere_event</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_embedding_catalog_mapping_oc_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_embedding_catalog_mapping_oc</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__batch_share_metrics_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/batch_share_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_address_selection_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_address_selection</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_process_created_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_process_created</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_camera_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_camera_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_size_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_size_selected</t>
-  </si>
-  <si>
-    <t>silver.msg_campaign__catalog_day_performance_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_campaign/catalog_day_performance_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_orders_tab_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_orders_tab_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_opened_android_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_opened_android</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_android_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_search_results_shown_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_search_results_shown</t>
-  </si>
-  <si>
-    <t>silver.default__communicator_whatsapp_records_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/communicator_whatsapp_records</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__vss_indexing_data_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/vss_indexing_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__deliver_to_this_address_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/deliver_to_this_address_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_wishlist_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_wishlist_map_2021_06_07</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wishlist_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wishlist_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_ad_click_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_ad_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__banner_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/banner_clicked_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_email_requests_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_requests</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_product_strip_scrolled_android_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_product_strip_scrolled_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_track_widget_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_track_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_notification_sent_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adwishlists_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adwishlists</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_popup_dismissed_sync_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_popup_dismissed_sync</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_real_estate_sunsetted_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_sunsetted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_viewed_android_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_viewed_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_comes_for_final_text_batch_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_for_final_text_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_comes_back_after_batch_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_saw_trust_block_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_saw_trust_block</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_search_typed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_search_typed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_placed_screen_shown_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_placed_screen_shown_partition_fix_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__payment_method_selected_juspay_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/payment_method_selected_juspay_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_started_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_started_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.msg_supply_service__poc_triggered_pn_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supply_service/poc_triggered_pn_events_2022_12_28</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__native_permission_popup_action_done_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/native_permission_popup_action_done</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__superstore_back_button_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/superstore_back_button</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__category_tab_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/category_tab_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__continue_in_payment_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/continue_in_payment_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_search_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_popup_opened_sync_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_popup_opened_sync</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_completed_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_completed_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_installed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_installed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_tab_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__collection_views_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/collection_views_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_summary_place_order_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_summary_place_order_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__recommendation_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/recommendation_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__panel_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/panel_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.default__communicator_whatsapp_requests_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/communicator_whatsapp_requests</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__clevertap_uninstall_event_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/clevertap_uninstall_event</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_views_report_final_proto_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_proto</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_video_player_state_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_video_player_state</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_edits_address_field_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_edits_address_field</t>
-  </si>
-  <si>
-    <t>silver.msg_external_payment_gateway__epg_transaction_entity_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_external_payment_gateway/epg_transaction_entity</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dynamic_filter_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dynamic_filter_clicked</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_placed_screen_shown_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__truecaller_not_present_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/truecaller_not_present</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_section_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator__sms_callback_delivery_reports_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator/sms_callback_delivery_reports</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_card_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cart_icon_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cart_icon_clicked</t>
+    <t>silver.mixpanel_android__catalog_reviews_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_reviews_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg__firebase_instance_id_map_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg/firebase_instance_id_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_installed_apps_tracking_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_installed_apps_tracking</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_landing_page_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_landing_page_opened</t>
+  </si>
+  <si>
+    <t>silver.order_service__order_summary_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_service/order_summary</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_app_installed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_app_installed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_share_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__social_profile_screen_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/social_profile_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__notification_store_icon_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/notification_store_icon_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pinned_number_recieved_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pinned_number_recieved</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_lp_product_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_loaded_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_loaded</t>
+  </si>
+  <si>
+    <t>silver.price__product_logistics_zone_charge_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_logistics_zone_charge</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_notification_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_view_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_view_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__display_ads_budget_utilization_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/display_ads_budget_utilization</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_used_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_used_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__eligibility_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/eligibility</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_exit_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_exit</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__native_permission_popups_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/native_permission_popups_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_started_refreshfcmtokenworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_started_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_links_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_links_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__notification_store_notification_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/notification_store_notification_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__notification_store_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/notification_store_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_search_suggestion_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_search_suggestion_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_completed_refreshfcmtokenworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_completed_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_initiated_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_initiated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_shared_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_shared</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__continue_in_review_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/continue_in_review_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_facebook_ad_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_facebook_ad_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_profile_info_modal_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_viewed</t>
+  </si>
+  <si>
+    <t>silver.mipanel_android__pow_plp_page_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mipanel_android/pow_plp_page_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__all_filters_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/all_filters_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__visual_searches_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/visual_searches</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_session_duration_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_session_duration</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_updated_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_updated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__level1_return_reason_selected_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/level1_return_reason_selected_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__time_spent_on_rocket_deals_lp_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/time_spent_on_rocket_deals_lp</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__filters_views_report_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/filters_views_report</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__vs_image_uploaded_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/vs_image_uploaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__payment_method_selected_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/payment_method_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator__whatsapp_callback_delivery_reports_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator/whatsapp_callback_delivery_reports</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_hp_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_hp_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_video_quality_changed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_video_quality_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_sort_v2_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_v2_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_or_exchange_order_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_or_exchange_order_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_screen_state_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_screen_state</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_force_started_refreshfcmtokenworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_force_started_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_user_location_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_user_location</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_upsert_event_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_upsert_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_impression_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_impression</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_refer_earn_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_refer_earn_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__share_bottom_sheet_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/share_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_home_widget_comprehension_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_home_widget_comprehension_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_buy_now_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_buy_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_post_view_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_post_view</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__payment_place_order_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/payment_place_order_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__level2_return_reason_selected_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/level2_return_reason_selected_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__save_address_and_continue_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/save_address_and_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__map_mixpanel_distinct_id_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/map_mixpanel_distinct_id</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_details_tack_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_details_tack_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_force_started_appstrackingworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_force_started_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__truecaller_fired_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/truecaller_fired</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_user_edits_rating_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_user_edits_rating_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_for_you_scrolled_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_for_you_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__safety_banner_in_order_confirmation_page_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/safety_banner_in_order_confirmation_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.supplier_ums__pi_access_logs_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supplier_ums/pi_access_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_disposition_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_disposition_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__label_meta_data_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/label_meta_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__see_less_updates_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/see_less_updates_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_signup_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_signup</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__mixpanel_identity_mappings_data_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/mixpanel_identity_mappings_data</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_notification_received_report_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_notification_received_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_profile_info_modal_gender_filled_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_gender_filled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__duplicate_product_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/duplicate_product_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__install_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/install</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__exchange_only_banner_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/exchange_only_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_journey_ledger_events__journey_ledger_events_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_journey_ledger_events/journey_ledger_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_saw_address_field_error_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_saw_address_field_error</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_product_bottom_sheet_closed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_bottom_sheet_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_profile_info_language_selected_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_language_selected_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__proceed_button_in_cart_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/proceed_button_in_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__dynamic_filter_done_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/dynamic_filter_done_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__all_filters_done_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/all_filters_done_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_get_help_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_get_help_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_error_appstrackingworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_error_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__inapp_popup_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/inapp_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shop_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shop_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__continue_in_cart_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/continue_in_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_video_load_start_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_video_load_start</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_catalogs_fetching_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetching</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_catalogs_fetched_successfully_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetched_successfully</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_product_bottom_sheet_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_bottom_sheet_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__intro_dialog_opened_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/intro_dialog_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_request_submitted_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_request_submitted_2022_03_10</t>
+  </si>
+  <si>
+    <t>silver.msg_audience__abacus_plane_bucket_entity_map_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_audience/abacus_plane_bucket_entity_map</t>
+  </si>
+  <si>
+    <t>silver.supply__orders_pii_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/supply/orders_pii</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__home_page_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/home_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_supply_service__poc_triggered_sms_events_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supply_service/poc_triggered_sms_events_2022_12_28</t>
+  </si>
+  <si>
+    <t>silver.inhouse__pow_plp_page_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/pow_plp_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__open_tracking_link_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/open_tracking_link_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_sort_v2_option_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_v2_option_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_mobile_otp_flow_initiated_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_mobile_otp_flow_initiated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_total_changed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_total_changed</t>
+  </si>
+  <si>
+    <t>silver.inhouse__pow_hp_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/pow_hp_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__panel_section_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/panel_section_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_filter_value_selection_changed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_filter_value_selection_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_steps_title_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_steps_title_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_updated_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_updated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_exit_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_exit</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_offline_product_offer_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_offline_product_offer</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pow_anonymous_app_installed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pow_anonymous_app_installed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_social_proofing_message_popped_up_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_social_proofing_message_popped_up_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__continue_shopping_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/continue_shopping_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_step3_main_content_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step3_main_content_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__order_placed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/order_placed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_config_api_success_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_config_api_success</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__view_shop_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/view_shop_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_notification_delivered_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_delivered</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_redemption_lever_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_lever_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_product_page_scrolled_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_product_page_scrolled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__banner_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__edit_profile_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/edit_profile_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__truecaller_signup_accepted_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/truecaller_signup_accepted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__app_signup_mobile_number_screen_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/app_signup_mobile_number_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__more_products_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/more_products_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_user_starts_rating_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_user_starts_rating</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_viewed_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__daily_app_session_report_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/daily_app_session_report</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_stopped_appstrackingworker_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_stopped_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_product_swiped_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_product_swiped</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_reviews_helpful_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_reviews_helpful_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_voice_note_received_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_note_received</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__order_status_change_log_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/order_status_change_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_notification_clicked_24dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_notification_clicked</t>
   </si>
   <si>
     <t/>
@@ -2358,2650 +2028,2650 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
-      <c r="A140" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="A140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
-      <c r="A141" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>280</v>
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
-      <c r="A142" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>282</v>
+      <c r="A142" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
-      <c r="A143" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>284</v>
+      <c r="A143" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>286</v>
+      <c r="A144" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>288</v>
+      <c r="A145" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
-      <c r="A146" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>290</v>
+      <c r="A146" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>292</v>
+      <c r="A147" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
-      <c r="A148" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>294</v>
+      <c r="A148" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
-      <c r="A149" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>296</v>
+      <c r="A149" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
-      <c r="A150" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>298</v>
+      <c r="A150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>300</v>
+      <c r="A151" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
-      <c r="A152" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>302</v>
+      <c r="A152" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
-      <c r="A153" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>304</v>
+      <c r="A153" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
-      <c r="A154" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>306</v>
+      <c r="A154" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
-      <c r="A155" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>308</v>
+      <c r="A155" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
-      <c r="A156" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>310</v>
+      <c r="A156" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
-      <c r="A157" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>312</v>
+      <c r="A157" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
-      <c r="A158" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>314</v>
+      <c r="A158" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
-      <c r="A159" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>316</v>
+      <c r="A159" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
-      <c r="A160" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>318</v>
+      <c r="A160" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
-      <c r="A161" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>320</v>
+      <c r="A161" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
-      <c r="A162" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>322</v>
+      <c r="A162" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
-      <c r="A163" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>324</v>
+      <c r="A163" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
-      <c r="A164" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>326</v>
+      <c r="A164" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
-      <c r="A165" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>328</v>
+      <c r="A165" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
-      <c r="A166" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>330</v>
+      <c r="A166" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
-      <c r="A167" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>332</v>
+      <c r="A167" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
-      <c r="A168" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>334</v>
+      <c r="A168" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
-      <c r="A169" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>336</v>
+      <c r="A169" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
-      <c r="A170" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>338</v>
+      <c r="A170" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
-      <c r="A171" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>340</v>
+      <c r="A171" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
-      <c r="A172" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>342</v>
+      <c r="A172" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
-      <c r="A173" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>344</v>
+      <c r="A173" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
-      <c r="A174" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>346</v>
+      <c r="A174" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
-      <c r="A175" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>348</v>
+      <c r="A175" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
-      <c r="A176" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>350</v>
+      <c r="A176" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
-      <c r="A177" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>352</v>
+      <c r="A177" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
-      <c r="A178" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>354</v>
+      <c r="A178" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
-      <c r="A179" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>356</v>
+      <c r="A179" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
-      <c r="A180" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>358</v>
+      <c r="A180" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
-      <c r="A181" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>360</v>
+      <c r="A181" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
-      <c r="A182" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>362</v>
+      <c r="A182" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
-      <c r="A183" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>364</v>
+      <c r="A183" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
-      <c r="A184" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>366</v>
+      <c r="A184" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
-      <c r="A185" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>368</v>
+      <c r="A185" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
-      <c r="A186" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>370</v>
+      <c r="A186" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
-      <c r="A187" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>372</v>
+      <c r="A187" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
-      <c r="A188" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>374</v>
+      <c r="A188" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
-      <c r="A189" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>376</v>
+      <c r="A189" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
-      <c r="A190" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>377</v>
+      <c r="A190" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
-      <c r="A191" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>379</v>
+      <c r="A191" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
-      <c r="A192" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>381</v>
+      <c r="A192" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
-      <c r="A193" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>383</v>
+      <c r="A193" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
-      <c r="A194" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>385</v>
+      <c r="A194" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
-      <c r="A195" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>387</v>
+      <c r="A195" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="113">
   <si>
     <t>job_name</t>
   </si>
@@ -22,832 +22,334 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__catalog_reviews_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_reviews_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg__firebase_instance_id_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg/firebase_instance_id_map</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_installed_apps_tracking_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_installed_apps_tracking</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_landing_page_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_landing_page_opened</t>
-  </si>
-  <si>
-    <t>silver.order_service__order_summary_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_service/order_summary</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_installed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_installed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_share_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_screen_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_icon_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_icon_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pinned_number_recieved_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pinned_number_recieved</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_lp_product_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_loaded_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_loaded</t>
-  </si>
-  <si>
-    <t>silver.price__product_logistics_zone_charge_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_logistics_zone_charge</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_notification_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_view_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_view_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__display_ads_budget_utilization_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/display_ads_budget_utilization</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_used_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_used_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__eligibility_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/eligibility</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_exit_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_exit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__native_permission_popups_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/native_permission_popups_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_started_refreshfcmtokenworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_started_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_links_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_links_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_notification_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_notification_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_search_suggestion_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_search_suggestion_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_completed_refreshfcmtokenworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_completed_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_initiated_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_shared_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_shared</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__continue_in_review_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/continue_in_review_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_facebook_ad_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_facebook_ad_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_profile_info_modal_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mipanel_android__pow_plp_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mipanel_android/pow_plp_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__all_filters_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/all_filters_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_searches_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_searches</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_session_duration_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_session_duration</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_updated_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_updated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__level1_return_reason_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/level1_return_reason_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__time_spent_on_rocket_deals_lp_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/time_spent_on_rocket_deals_lp</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__filters_views_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/filters_views_report</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__vs_image_uploaded_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/vs_image_uploaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__payment_method_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/payment_method_selected</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator__whatsapp_callback_delivery_reports_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator/whatsapp_callback_delivery_reports</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_hp_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_hp_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_video_quality_changed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_video_quality_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_v2_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_v2_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_or_exchange_order_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_or_exchange_order_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_screen_state_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_screen_state</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_force_started_refreshfcmtokenworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_force_started_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_user_location_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_user_location</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_upsert_event_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_upsert_event</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_impression_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_impression</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_refer_earn_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_refer_earn_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__share_bottom_sheet_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/share_bottom_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_home_widget_comprehension_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_home_widget_comprehension_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_buy_now_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_post_view_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_post_view</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__payment_place_order_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/payment_place_order_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__level2_return_reason_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/level2_return_reason_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__save_address_and_continue_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/save_address_and_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__map_mixpanel_distinct_id_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/map_mixpanel_distinct_id</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_details_tack_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_details_tack_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_force_started_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_force_started_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__truecaller_fired_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/truecaller_fired</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_user_edits_rating_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_user_edits_rating_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_for_you_scrolled_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_for_you_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__safety_banner_in_order_confirmation_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/safety_banner_in_order_confirmation_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__pi_access_logs_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/pi_access_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_disposition_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_disposition_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__label_meta_data_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/label_meta_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__see_less_updates_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/see_less_updates_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_signup_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_signup</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__mixpanel_identity_mappings_data_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/mixpanel_identity_mappings_data</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_notification_received_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_notification_received_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_profile_info_modal_gender_filled_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_gender_filled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__duplicate_product_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/duplicate_product_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__install_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/install</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__exchange_only_banner_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/exchange_only_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_journey_ledger_events__journey_ledger_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_journey_ledger_events/journey_ledger_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_address_field_error_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_address_field_error</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_product_bottom_sheet_closed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_bottom_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_profile_info_language_selected_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_language_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__proceed_button_in_cart_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/proceed_button_in_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dynamic_filter_done_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dynamic_filter_done_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__all_filters_done_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/all_filters_done_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_get_help_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_get_help_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_error_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_error_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__inapp_popup_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/inapp_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__continue_in_cart_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/continue_in_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_video_load_start_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_video_load_start</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_catalogs_fetching_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetching</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_catalogs_fetched_successfully_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetched_successfully</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_product_bottom_sheet_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_bottom_sheet_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__intro_dialog_opened_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/intro_dialog_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_request_submitted_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_request_submitted_2022_03_10</t>
-  </si>
-  <si>
-    <t>silver.msg_audience__abacus_plane_bucket_entity_map_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_audience/abacus_plane_bucket_entity_map</t>
-  </si>
-  <si>
-    <t>silver.supply__orders_pii_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/orders_pii</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__home_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/home_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_supply_service__poc_triggered_sms_events_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supply_service/poc_triggered_sms_events_2022_12_28</t>
-  </si>
-  <si>
-    <t>silver.inhouse__pow_plp_page_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/pow_plp_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__open_tracking_link_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/open_tracking_link_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_v2_option_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_v2_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_mobile_otp_flow_initiated_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_mobile_otp_flow_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_total_changed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_total_changed</t>
-  </si>
-  <si>
-    <t>silver.inhouse__pow_hp_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/pow_hp_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__panel_section_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/panel_section_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_filter_value_selection_changed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_filter_value_selection_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_steps_title_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_steps_title_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_updated_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_updated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_exit_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_exit</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_optin__supplier_optin_offline_product_offer_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_offline_product_offer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pow_anonymous_app_installed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pow_anonymous_app_installed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_social_proofing_message_popped_up_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_social_proofing_message_popped_up_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__continue_shopping_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/continue_shopping_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step3_main_content_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step3_main_content_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__order_placed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/order_placed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_config_api_success_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_config_api_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__view_shop_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/view_shop_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_notification_delivered_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_delivered</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_redemption_lever_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_lever_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_product_page_scrolled_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_product_page_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__banner_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__edit_profile_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/edit_profile_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__truecaller_signup_accepted_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/truecaller_signup_accepted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__app_signup_mobile_number_screen_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/app_signup_mobile_number_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__more_products_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/more_products_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_user_starts_rating_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_user_starts_rating</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_viewed_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__daily_app_session_report_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/daily_app_session_report</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_stopped_appstrackingworker_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_stopped_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_product_swiped_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_product_swiped</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_reviews_helpful_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_reviews_helpful_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_voice_note_received_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_note_received</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__order_status_change_log_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/order_status_change_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_notification_clicked_24dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_notification_clicked</t>
+    <t>silver.mixpanel_android__search_typed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_typed</t>
+  </si>
+  <si>
+    <t>silver.growth__appsflyer_uninstall_report_v2_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/appsflyer_uninstall_report_v2</t>
+  </si>
+  <si>
+    <t>silver.msg_price__meesho_image_similarity_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/meesho_image_similarity</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_continue_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__hp_widget_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_widget_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_call_me_back_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_call_me_back_success_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__welcome_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/welcome_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_app_updated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_app_updated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__checkout_progress_step_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/checkout_progress_step_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_panel_login_button_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_login_button</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__first_address_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/first_address_added</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__daily_notification_report_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/daily_notification_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_installed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_installed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_images_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_images_added_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_step1_main_content_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step1_main_content_viewed</t>
+  </si>
+  <si>
+    <t>silver.wallet18__wallet_transactions_18_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet18/wallet_transactions_18</t>
+  </si>
+  <si>
+    <t>silver.wallet22__wallet_transactions_22_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/wallet22/wallet_transactions_22</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__quantity_size_return_change_sheet_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/quantity_size_return_change_sheet_closed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__app_uninstalled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/app_uninstalled</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_details_internal_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_details_internal</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_sub_order_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_sub_order_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_product_card_details_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_details_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__appsflyer_link_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/appsflyer_link_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_clicked_main_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_clicked_main_2021_04_20_1</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_earn_cart_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_cart_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_new_user_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_new_user_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__profile_form_100pc_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/profile_form_100pc_completed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__quantity_size_return_change_sheet_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/quantity_size_return_change_sheet_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_panel_login_pageview_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_login_pageview_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__final_customer_amount_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_added</t>
+  </si>
+  <si>
+    <t>silver.shipments__supplier_lane_level_preferred_carriers_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/supplier_lane_level_preferred_carriers</t>
+  </si>
+  <si>
+    <t>silver.merchandising__catalog_collection_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/catalog_collection_map_fix_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_rating_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_rating_changed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_size_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_video_played_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_video_played</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__location_input_bottom_sheet_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/location_input_bottom_sheet_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__location_input_bottom_sheet_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/location_input_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__fingerpint_sdk_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/fingerpint_sdk_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg__ndr_clickstream_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg/ndr_clickstream_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__permission_rationale_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/permission_rationale_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_notification_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_notification_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_attribute_store_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_attribute_store_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_card_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_supplier_map_attribute_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_supplier_map_attribute_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__product_views_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/product_views</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_wm_error_appstrackingworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_error_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_step2_main_content_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step2_main_content_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_fraud_response__shield_sdk_device_info_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_fraud_response/shield_sdk_device_info</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__collection_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/collection_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_pdp_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_pdp_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_landing_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_landing_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_lp_daily_deals_widget_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_daily_deals_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__reviews_image_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/reviews_image_opened</t>
   </si>
   <si>
     <t/>
@@ -1659,3019 +1161,3019 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
+      <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
+      <c r="A63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
+      <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
+      <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
+      <c r="A66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
+      <c r="A68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
+      <c r="A69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
+      <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
+      <c r="A71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
+      <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>145</v>
+      <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>147</v>
+      <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>149</v>
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>151</v>
+      <c r="A76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>155</v>
+      <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
+      <c r="A79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
+      <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
+      <c r="A81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
+      <c r="A82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
+      <c r="A83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>167</v>
+      <c r="A84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
+      <c r="A85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>171</v>
+      <c r="A86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>173</v>
+      <c r="A87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>175</v>
+      <c r="A88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>177</v>
+      <c r="A89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>179</v>
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>181</v>
+      <c r="A91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
+      <c r="A92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>185</v>
+      <c r="A93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>187</v>
+      <c r="A94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>189</v>
+      <c r="A95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>191</v>
+      <c r="A96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
+      <c r="A97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>195</v>
+      <c r="A98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>197</v>
+      <c r="A99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>199</v>
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>201</v>
+      <c r="A101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>203</v>
+      <c r="A102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>205</v>
+      <c r="A103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>207</v>
+      <c r="A104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>209</v>
+      <c r="A105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>211</v>
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>213</v>
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>215</v>
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>217</v>
+      <c r="A109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>219</v>
+      <c r="A110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>221</v>
+      <c r="A111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>223</v>
+      <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>225</v>
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>227</v>
+      <c r="A114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>229</v>
+      <c r="A115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>231</v>
+      <c r="A116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>233</v>
+      <c r="A117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>235</v>
+      <c r="A118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>237</v>
+      <c r="A119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>239</v>
+      <c r="A120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>241</v>
+      <c r="A121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>243</v>
+      <c r="A122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>245</v>
+      <c r="A123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>247</v>
+      <c r="A124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>249</v>
+      <c r="A125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>251</v>
+      <c r="A126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>253</v>
+      <c r="A127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>255</v>
+      <c r="A128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>257</v>
+      <c r="A129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>259</v>
+      <c r="A130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
-      <c r="A131" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>261</v>
+      <c r="A131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
-      <c r="A132" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>263</v>
+      <c r="A132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
-      <c r="A133" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>265</v>
+      <c r="A133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>267</v>
+      <c r="A134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
-      <c r="A135" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>269</v>
+      <c r="A135" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>271</v>
+      <c r="A136" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
-      <c r="A137" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>273</v>
+      <c r="A137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>275</v>
+      <c r="A138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>277</v>
+      <c r="A139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="687">
   <si>
     <t>job_name</t>
   </si>
@@ -22,334 +22,2056 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__search_typed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_typed</t>
-  </si>
-  <si>
-    <t>silver.growth__appsflyer_uninstall_report_v2_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/appsflyer_uninstall_report_v2</t>
-  </si>
-  <si>
-    <t>silver.msg_price__meesho_image_similarity_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/meesho_image_similarity</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_continue_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__hp_widget_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_call_me_back_success_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_call_me_back_success_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__welcome_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/welcome_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_updated_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_updated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__checkout_progress_step_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/checkout_progress_step_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_panel_login_button_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_login_button</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__first_address_added_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/first_address_added</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__daily_notification_report_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/daily_notification_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_installed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_installed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_images_added_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_images_added_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step1_main_content_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step1_main_content_viewed</t>
-  </si>
-  <si>
-    <t>silver.wallet18__wallet_transactions_18_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet18/wallet_transactions_18</t>
-  </si>
-  <si>
-    <t>silver.wallet22__wallet_transactions_22_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/wallet22/wallet_transactions_22</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__quantity_size_return_change_sheet_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/quantity_size_return_change_sheet_closed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__app_uninstalled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/app_uninstalled</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_details_internal_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_details_internal</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_sub_order_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_sub_order_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_product_card_details_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_details_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__appsflyer_link_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/appsflyer_link_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_clicked_main_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_clicked_main_2021_04_20_1</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_earn_cart_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_cart_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_new_user_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_new_user_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__profile_form_100pc_completed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/profile_form_100pc_completed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__quantity_size_return_change_sheet_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/quantity_size_return_change_sheet_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_panel_login_pageview_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_login_pageview_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__final_customer_amount_added_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_added</t>
-  </si>
-  <si>
-    <t>silver.shipments__supplier_lane_level_preferred_carriers_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/supplier_lane_level_preferred_carriers</t>
-  </si>
-  <si>
-    <t>silver.merchandising__catalog_collection_map_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising/catalog_collection_map_fix_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_rating_changed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_rating_changed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_size_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_video_played_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_video_played</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_submitted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_input_bottom_sheet_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_input_bottom_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_input_bottom_sheet_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_input_bottom_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__fingerpint_sdk_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/fingerpint_sdk_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg__ndr_clickstream_data_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg/ndr_clickstream_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__permission_rationale_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/permission_rationale_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_notification_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_notification_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_attribute_store_event_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_attribute_store_event</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_card_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_supplier_map_attribute_event_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_supplier_map_attribute_event</t>
+    <t>silver.mixpanel_android__add_bank_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/add_bank_details_clicked_partition_fix</t>
   </si>
   <si>
     <t>silver.mixpanel_farmiso__product_views_26dec</t>
   </si>
   <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/product_views</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_error_appstrackingworker_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_error_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step2_main_content_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step2_main_content_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__shield_sdk_device_info_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/shield_sdk_device_info</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__collection_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/collection_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_pdp_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_pdp_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_landing_page_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_landing_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_lp_daily_deals_widget_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_daily_deals_widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_image_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_image_opened</t>
+    <t>delta_lake/SILVER/mixpanel_farmiso/product_views_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_progress_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_progress</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_landing_page_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_landing_page_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_group_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_group_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__buy_now_clicked_temp_1_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/buy_now_clicked_temp_1</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pow_search_results_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pow_search_results_shown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_website_launch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_website_launch_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_given_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_given</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_ums__kapture_report_175_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_ums/kapture_report_175</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_lp_filter_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_filter_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_video_player_create_start_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_video_player_create_start</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_applied_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_exit_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_exit</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__my_payments_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/my_payments_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__visual_search_catalogs_served_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/visual_search_catalogs_served</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__help_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/help_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__anonymous_user_metadata_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/anonymous_user_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_mode_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_mode_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__customer_ndr_registration_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/customer_ndr_registration_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__calling_supplier_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/calling_supplier</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_page_load_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_page_load</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_app_links_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_links_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__supplier_reviews_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/supplier_reviews_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__location_bar_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/location_bar_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_voice_play_icon_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_play_icon_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__review_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/review_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_request_continue_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_request_continue</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__notification_store_section_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/notification_store_section_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_page_widget_clicked_android_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_clicked_android</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_utm_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_utm_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__reviews_media_share_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/reviews_media_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_searchability_search_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_searchability_search_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_views_report_duplicate_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_duplicate</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_cart_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_cart_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__proceed_button_in_addresses_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/proceed_button_in_addresses_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_share_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_invite_friends_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_invite_friends_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__location_permission_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/location_permission_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_saw_pincode_speaker_icon_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_saw_pincode_speaker_icon</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_pdp_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_pdp_size_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_share_bottom_sheet_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_share_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__confirm_delivery_bottomsheet_triggered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_bottomsheet_triggered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_screen_pincode_check_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_success_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__address_edited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/address_edited</t>
+  </si>
+  <si>
+    <t>silver.journey__journey_user_benefit_status_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/journey/journey_user_benefit_status</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_submit_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_submit_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__story_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/story_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__try_image_search_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/try_image_search_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__my_journey_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/my_journey_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__confirm_delivery_bottomsheet_dismissed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_bottomsheet_dismissed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_top_nav_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_top_nav_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_call_me_back_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_call_me_back_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_web_catalog_upload_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_web_catalog_upload</t>
+  </si>
+  <si>
+    <t>silver.msg_price__oms_order_audit_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/oms_order_audit_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_incentives_banner_view_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentives_banner_view</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__screenshot_taken_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/screenshot_taken</t>
+  </si>
+  <si>
+    <t>silver.growth__growth_appsflyer_conversion_report_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/growth_appsflyer_conversion_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__view_all_duplicates_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/view_all_duplicates_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_add_to_cart_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_add_to_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_deal_price_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_deal_price_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_wallet_info_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_wallet_info_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_review_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_review_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_productdetails_rendered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_productdetails_rendered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__widget_views_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/widget_views</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_request_ticked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_request_ticked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__pipeline_stats_new_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/pipeline_stats_new</t>
+  </si>
+  <si>
+    <t>silver.msg_genesys__call_me_back_complete_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_genesys/call_me_back_complete_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_onboarding_video_play_milestone_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_play_milestone</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_tiles_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_tiles_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__final_customer_amount_add_start_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_add_start_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__opened_ads_performance_page_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/opened_ads_performance_page</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_screen_pincode_address_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_address_selected_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__account_section_meesho_credits_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/account_section_meesho_credits_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_feedback_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_feedback_submitted_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__meeshologistics_order_metadata_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/meeshologistics_order_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__raise_ticket_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/raise_ticket_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__supply_psm_valid_change_automation_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/supply_psm_valid_change_automation_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__superstore_order_widget_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/superstore_order_widget_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__permission_rationale_continue_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/permission_rationale_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__intro_dialog_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/intro_dialog_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__benefits_card_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/benefits_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_options_bottom_sheet_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_users_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_users_repartition</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_auth_successful_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_auth_successful</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__hao_product_notify_me_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/hao_product_notify_me_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_options_bottom_sheet_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_closed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_open_pre_signup_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_open_pre_signup</t>
+  </si>
+  <si>
+    <t>silver.advertisement__bid_recommendation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/bid_recommendation</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_wm_enqueued_appstrackingworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_enqueued_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_media_upload_initiated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_upload_initiated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_resolution_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_resolution_cta_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_sort_option_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_option_clicked</t>
+  </si>
+  <si>
+    <t>silver.loyalty__product_detail_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/product_detail_new</t>
+  </si>
+  <si>
+    <t>silver.merchandising__catalog_collection_map_audit_fix_new_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/catalog_collection_map_audit_fix_new</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__unconsented_orders_kaleyra_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/unconsented_orders_kaleyra_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_loyalty_animation_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_loyalty_animation_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_media_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_added</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_store_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_store_page_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_ct_qct__supplier_store_performance_marketing_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ct_qct/supplier_store_performance_marketing</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__points_table_first_item_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/points_table_first_item_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_promotion_service__bonus_user_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_promotion_service/bonus_user_map</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_sscat_attribute_update_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_sscat_attribute_update_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__delight_popup_olp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/delight_popup_olp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__hao_clicked_catalog_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_catalog</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_Profile_Info_Modal_Gender_Filled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_Profile_Info_Modal_Gender_Filled_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__anonymous_catalog_shared_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/anonymous_catalog_shared_map</t>
+  </si>
+  <si>
+    <t>silver.msg_search__clp_catalog_mapping_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/clp_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_initial_plp_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_initial_plp_interacted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__recommendation_shown_v2_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/recommendation_shown_v2</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_screen_add_media_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_screen_add_media_selected</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_campaign_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_campaign_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_shared_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_shared</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_nudge_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_nudge_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_profile_info_modal_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_profile_info_modal_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__update_stock_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/update_stock_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__continue_return_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/continue_return_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_review_section_view_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_review_section_view</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_apply_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_apply_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__hao_clicked_product_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_product</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_saw_unserviceable_address_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_saw_unserviceable_address</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__Inventory_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/Inventory_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__webview_launch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/webview_launch</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_user_current_badge_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_user_current_badge_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__points_table_middle_item_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/points_table_middle_item_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_play_pause_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_play_pause_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_sort_applied_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_applied</t>
+  </si>
+  <si>
+    <t>silver.inhouse__adshares_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/adshares</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_voice_note_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_note_completed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__label_downloaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/label_downloaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__returns_unbundling_video_quartile_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_quartile_completed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_bottom_nav_exited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_exited_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_analytics__community_post_views_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_analytics/community_post_views</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_pdp_mounted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_mounted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_video_quartile_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_quartile</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_ums__all_ticket_updates_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_ums/all_ticket_updates</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_push_impressions_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_push_impressions</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_redemption_nudge_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_nudge_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__delivery_screen_pincode_unserviceable_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/delivery_screen_pincode_unserviceable</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_screen_pincode_check_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pdp_images_scroll_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_images_scroll</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_auth_token_requested_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_auth_token_requested</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__user_authenticated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/user_authenticated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__challenge_page_opened_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/challenge_page_opened_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gpl_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gpl_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__supplier_payments_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/supplier_payments</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_ihao_created_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_created</t>
+  </si>
+  <si>
+    <t>silver.price__product_logistics_zone_charge_upsert_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_logistics_zone_charge_upsert</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mba_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mba_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__inapp_popup_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/inapp_popup_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_orders_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__points_table_last_item_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/points_table_last_item_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_onboarding_video_play_pause_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_play_pause_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_main_filter_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mrp_details_bottom_sheet_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_app_open_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_app_open</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__address_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/address_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mrp_details_bottom_sheet_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_closed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.loyalty__loyalty_supplier_opt_in_history_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/loyalty_supplier_opt_in_history</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_scrolled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_loot_deals_top_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_loot_deals_top_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_return_option_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_return_option_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_profile_info_modal_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__language_selection_modal_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_login_page_email_phone_input_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_login_page_email_phone_input</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_request_cancelled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_request_cancelled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_app_signup_otp_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_app_signup_otp_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__s3_export_app_open_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/s3_export_app_open</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_download_meesho_app_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_download_meesho_app_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_page_scroll_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_scroll_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_ums__edit_product_diff_detail_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_ums/edit_product_diff_detail</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_user_post_like_maps_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_user_post_like_maps</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_similar_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_similar_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__inapp_popup_dismissed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/inapp_popup_dismissed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__pagination_used_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/pagination_used_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__add_address_in_review_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/add_address_in_review_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_video_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__location_updated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/location_updated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__another_address_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/another_address_added</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_web_vitals_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_web_vitals</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_see_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_see_details_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__hp_top_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_top_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.offer_platform__order_cancellation_offer_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/offer_platform/order_cancellation_offer_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__confirm_suggested_address_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/confirm_suggested_address_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__panel_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/panel_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_browse_item_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_browse_item_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__merchandise_video_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/merchandise_video_page_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mba_landing_page_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mba_landing_page_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_top_navigation_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_top_navigation_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_commission_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_commission_details_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__return_manifestation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/return_manifestation</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__app_signup_mobile_otp_successful_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/app_signup_mobile_otp_successful</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__redemption_lever_checked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/redemption_lever_checked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__social_profile_followers_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/social_profile_followers_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_add_to_cart_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_add_to_cart_size_selected</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_catalog_visibility_status_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_visibility_status_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_share_comes_back_after_batch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_share_comes_back_after_batch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_reopened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_reopened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__profile_language_selection_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/profile_language_selection_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_catalog_view_products_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_catalog_view_products_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pincode_location_input_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pincode_location_input</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_sort_v2_option_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_sort_v2_option_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_add_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_add_product_clicked_schema_change</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_product_recommendation_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_recommendation_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_ds__ds_user_reimbursement_qc_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds/ds_user_reimbursement_qc</t>
+  </si>
+  <si>
+    <t>silver.ors__order_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ors/order_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__social_profile_following_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/social_profile_following_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__returns_unbundling_video_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_reg_visit_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_reg_visit</t>
+  </si>
+  <si>
+    <t>silver.farmiso__user_location_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/user_location_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_step_2_category_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step_2_category_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__profile_info_language_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/profile_info_language_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_comment_sent_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_sent</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_sheet_triggered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_sheet_triggered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_view_all_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__user_added_for_location_permission_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/user_added_for_location_permission</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_video_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_limited_visibility_catalogs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_limited_visibility_catalogs_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_buy_now_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_buy_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__confirm_delivery_yes_received_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_yes_received_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_spin_user_tracker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_spin_user_tracker</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__not_delivered_bottomsheet_dismissed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_dismissed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pdp_enlarge_image_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_enlarge_image_viewed</t>
+  </si>
+  <si>
+    <t>silver.community__revinfo_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/revinfo</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_comment_box_entered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_box_entered</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__app_crashed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/app_crashed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__confirm_delivery_not_received_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_not_received_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__not_delivered_bottomsheet_triggered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_triggered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_bottom_nav_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_code_shared_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_code_shared</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__odr_status_change_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/odr_status_change_log</t>
+  </si>
+  <si>
+    <t>silver.msg_ds__ds_msg_transact_insight_api_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds/ds_msg_transact_insight_api</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__customer_npr_registration_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/customer_npr_registration_details</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__manifestation_errors_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/manifestation_errors</t>
+  </si>
+  <si>
+    <t>silver.msg_reseller_pricing__reseller_pricing_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_reseller_pricing/reseller_pricing</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__location_fetch_initiation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/location_fetch_initiation</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_price_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_price_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_edit_request_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_request_submitted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_product_details_ssr_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_details_ssr_success</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__fa_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/fa_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_value_prop_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_value_prop_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__account_section_call_us_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/account_section_call_us_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_verify_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_verify_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_ihao_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_upload_homepage_actions_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_homepage_actions</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__shipment_cancellations_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/shipment_cancellations</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__vs_image_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/vs_image_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__address_searchability_search_used_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/address_searchability_search_used</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_review_image_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_review_image_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_verify_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_verify_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__language_selection_modal_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_product_card_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__not_delivered_bottomsheet_ok_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_ok_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__dyhaoft_popup_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_popup_shown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__products_selected_done_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/products_selected_done_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_enqueued_refreshfcmtokenworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_enqueued_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__upi_details_verify_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/upi_details_verify_success</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__search_category_clicked_new_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_catalog_go_live_activation_status_aud_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_go_live_activation_status_aud</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__products_selected_for_fb_share_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/products_selected_for_fb_share</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_landing_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_landing_page_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_app_performance_metrics_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_app_performance_metrics</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_Gratification_Modal_Viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_Gratification_Modal_Viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__delight_banner_odp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/delight_banner_odp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__language_selection_input_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/language_selection_input_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_profile_screen_submit_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_submit_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_screen_pincode_check_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_screen_pincode_check_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__branded_packaging_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/branded_packaging_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_video_skip_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_skip_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__superstore_webview_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/superstore_webview_loaded</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_event_catalog_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_event_catalog</t>
+  </si>
+  <si>
+    <t>silver.inhouse__farmiso_supplier_login_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/farmiso_supplier_login</t>
+  </si>
+  <si>
+    <t>silver.inhouse_rte_v2__catalog_share_comes_back_after_batch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_rte_v2/catalog_share_comes_back_after_batch</t>
+  </si>
+  <si>
+    <t>silver.address__unserviceable_pin_codes_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/address/unserviceable_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__second_quartile_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/second_quartile_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__become_meesho_supplier_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/become_meesho_supplier_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shop_widget_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shop_widget_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__etl_metrics_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/etl_metrics</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__meesho_price_value_edited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/meesho_price_value_edited</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__update_stock_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/update_stock_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_share_comes_back_after_batch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_share_comes_back_after_batch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__dyhaoft_yes_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_yes_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_exit_friction_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__payment_method_change_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/payment_method_change_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_removed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_removed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__success_to_get_user_location_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/success_to_get_user_location</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__superstore_website_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/superstore_website_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__plp_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/plp_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_category_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_category_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cancel_return_or_exchange_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cancel_return_or_exchange_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__scrolled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/scrolled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_option_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_option_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_scrolled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__video_played_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/video_played</t>
+  </si>
+  <si>
+    <t>silver.cms__price_collapse_similar_products_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cms/price_collapse_similar_products</t>
+  </si>
+  <si>
+    <t>silver.communicator__campaigns_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/campaigns</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_scores_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_scores</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_manifest_downloaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_manifest_downloaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__oneclick_banner_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/oneclick_banner_shown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__issue_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_video_quartile_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_video_quartile</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__exchange_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/exchange_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_exit_friction_product_scrolled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_product_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__location_error_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/location_error_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__search_category_results_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_results</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_pending_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_pending_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_pre_buzz_sale_strip_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_pre_buzz_sale_strip_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_bazaar_section_product_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_section_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__odr_instance_detail_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/odr_instance_detail</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__similar_catalogs_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/similar_catalogs_shown</t>
+  </si>
+  <si>
+    <t>silver.msg_offer_platform__offer_platform_global_user_offer_redemptions_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_global_user_offer_redemptions</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_accepted_pending_orders_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_accepted_pending_orders</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_recall_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_recall_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_size_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_screen_pincode_check_error_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_error</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__submit_catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/submit_catalog_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_clicked_on_pincode_speaker_icon_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_clicked_on_pincode_speaker_icon</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__final_customer_amount_prefilled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_prefilled_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.prism__follow_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/prism/follow_repartition</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_input_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_input_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__accepted_pending_orders_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/accepted_pending_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__open_order_card_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/open_order_card_loaded_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__image_popup_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/image_popup_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__social_profile_followed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/social_profile_followed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_new_live_timer_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_new_live_timer_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__reverse_manifest_pool_allocation_type_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/reverse_manifest_pool_allocation_type</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fa_intro_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fa_intro_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_call_details_records_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_call_details_records</t>
   </si>
   <si>
     <t/>
@@ -1161,3019 +2883,3019 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>112</v>
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>112</v>
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>112</v>
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>112</v>
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>112</v>
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>112</v>
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>112</v>
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>112</v>
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>112</v>
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>112</v>
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>112</v>
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>112</v>
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>112</v>
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>112</v>
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>112</v>
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>112</v>
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>112</v>
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>112</v>
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>112</v>
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>112</v>
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>112</v>
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>112</v>
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>112</v>
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>112</v>
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>112</v>
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>112</v>
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>112</v>
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>112</v>
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>112</v>
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>112</v>
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>112</v>
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>112</v>
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>112</v>
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>112</v>
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>112</v>
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>112</v>
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>112</v>
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>112</v>
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>112</v>
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>112</v>
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>112</v>
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>112</v>
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>112</v>
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>112</v>
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>112</v>
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>112</v>
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>112</v>
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>112</v>
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>112</v>
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>112</v>
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>112</v>
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>112</v>
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>112</v>
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>112</v>
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>112</v>
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>112</v>
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>112</v>
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>112</v>
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>112</v>
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>112</v>
+      <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>112</v>
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>112</v>
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>112</v>
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>112</v>
+      <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>112</v>
+      <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>112</v>
+      <c r="A128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>112</v>
+      <c r="A129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>112</v>
+      <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
-      <c r="A131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>112</v>
+      <c r="A131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
-      <c r="A132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>112</v>
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
-      <c r="A133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>112</v>
+      <c r="A133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>112</v>
+      <c r="A134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
-      <c r="A135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>112</v>
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>112</v>
+      <c r="A136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
-      <c r="A137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>112</v>
+      <c r="A137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>112</v>
+      <c r="A138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>112</v>
+      <c r="A139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
-      <c r="A140" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>112</v>
+      <c r="A140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
-      <c r="A141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>112</v>
+      <c r="A141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
-      <c r="A142" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>112</v>
+      <c r="A142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
-      <c r="A143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>112</v>
+      <c r="A143" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>112</v>
+      <c r="A144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>112</v>
+      <c r="A145" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
-      <c r="A146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>112</v>
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>112</v>
+      <c r="A147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
-      <c r="A148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>112</v>
+      <c r="A148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
-      <c r="A149" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>112</v>
+      <c r="A149" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
-      <c r="A150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>112</v>
+      <c r="A150" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>112</v>
+      <c r="A151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
-      <c r="A152" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>112</v>
+      <c r="A152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
-      <c r="A153" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>112</v>
+      <c r="A153" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
-      <c r="A154" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>112</v>
+      <c r="A154" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
-      <c r="A155" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>112</v>
+      <c r="A155" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
-      <c r="A156" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>112</v>
+      <c r="A156" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
-      <c r="A157" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>112</v>
+      <c r="A157" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
-      <c r="A158" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>112</v>
+      <c r="A158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
-      <c r="A159" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>112</v>
+      <c r="A159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
-      <c r="A160" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>112</v>
+      <c r="A160" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
-      <c r="A161" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>112</v>
+      <c r="A161" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
-      <c r="A162" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>112</v>
+      <c r="A162" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
-      <c r="A163" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>112</v>
+      <c r="A163" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
-      <c r="A164" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>112</v>
+      <c r="A164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
-      <c r="A165" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>112</v>
+      <c r="A165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
-      <c r="A166" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>112</v>
+      <c r="A166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
-      <c r="A167" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>112</v>
+      <c r="A167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
-      <c r="A168" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>112</v>
+      <c r="A168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
-      <c r="A169" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>112</v>
+      <c r="A169" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
-      <c r="A170" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>112</v>
+      <c r="A170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
-      <c r="A171" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>112</v>
+      <c r="A171" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
-      <c r="A172" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>112</v>
+      <c r="A172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
-      <c r="A173" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>112</v>
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
-      <c r="A174" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>112</v>
+      <c r="A174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
-      <c r="A175" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>112</v>
+      <c r="A175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
-      <c r="A176" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>112</v>
+      <c r="A176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
-      <c r="A177" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>112</v>
+      <c r="A177" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
-      <c r="A178" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>112</v>
+      <c r="A178" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
-      <c r="A179" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>112</v>
+      <c r="A179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
-      <c r="A180" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>112</v>
+      <c r="A180" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
-      <c r="A181" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>112</v>
+      <c r="A181" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
-      <c r="A182" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>112</v>
+      <c r="A182" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
-      <c r="A183" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>112</v>
+      <c r="A183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
-      <c r="A184" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>112</v>
+      <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
-      <c r="A185" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>112</v>
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
-      <c r="A186" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>112</v>
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
-      <c r="A187" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>112</v>
+      <c r="A187" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
-      <c r="A188" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>112</v>
+      <c r="A188" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
-      <c r="A189" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>112</v>
+      <c r="A189" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
-      <c r="A190" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>112</v>
+      <c r="A190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
-      <c r="A191" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>112</v>
+      <c r="A191" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
-      <c r="A192" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>112</v>
+      <c r="A192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
-      <c r="A193" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>112</v>
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
-      <c r="A194" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>112</v>
+      <c r="A194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
-      <c r="A195" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>112</v>
+      <c r="A195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
-      <c r="A196" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>112</v>
+      <c r="A196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
-      <c r="A197" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>112</v>
+      <c r="A197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
-      <c r="A198" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>112</v>
+      <c r="A198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
-      <c r="A199" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>112</v>
+      <c r="A199" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
-      <c r="A200" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>112</v>
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
-      <c r="A201" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>112</v>
+      <c r="A201" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
-      <c r="A202" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>112</v>
+      <c r="A202" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
-      <c r="A203" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>112</v>
+      <c r="A203" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
-      <c r="A204" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>112</v>
+      <c r="A204" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
-      <c r="A205" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>112</v>
+      <c r="A205" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
-      <c r="A206" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>112</v>
+      <c r="A206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
-      <c r="A207" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>112</v>
+      <c r="A207" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
-      <c r="A208" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>112</v>
+      <c r="A208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
-      <c r="A209" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>112</v>
+      <c r="A209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
-      <c r="A210" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>112</v>
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
-      <c r="A211" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>112</v>
+      <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
-      <c r="A212" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>112</v>
+      <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
-      <c r="A213" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>112</v>
+      <c r="A213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
-      <c r="A214" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>112</v>
+      <c r="A214" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
-      <c r="A215" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>112</v>
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
-      <c r="A216" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>112</v>
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
-      <c r="A217" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>112</v>
+      <c r="A217" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
-      <c r="A218" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>112</v>
+      <c r="A218" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
-      <c r="A219" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>112</v>
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
-      <c r="A220" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>112</v>
+      <c r="A220" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
-      <c r="A221" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>112</v>
+      <c r="A221" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
-      <c r="A222" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>112</v>
+      <c r="A222" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
-      <c r="A223" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>112</v>
+      <c r="A223" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
-      <c r="A224" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>112</v>
+      <c r="A224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
-      <c r="A225" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>112</v>
+      <c r="A225" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
-      <c r="A226" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>112</v>
+      <c r="A226" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
-      <c r="A227" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>112</v>
+      <c r="A227" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
-      <c r="A228" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>112</v>
+      <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
-      <c r="A229" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>112</v>
+      <c r="A229" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
-      <c r="A230" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>112</v>
+      <c r="A230" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
-      <c r="A231" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>112</v>
+      <c r="A231" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
-      <c r="A232" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>112</v>
+      <c r="A232" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
-      <c r="A233" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>112</v>
+      <c r="A233" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
-      <c r="A234" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>112</v>
+      <c r="A234" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
-      <c r="A235" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>112</v>
+      <c r="A235" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
-      <c r="A236" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>112</v>
+      <c r="A236" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
-      <c r="A237" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>112</v>
+      <c r="A237" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
-      <c r="A238" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>112</v>
+      <c r="A238" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
-      <c r="A239" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>112</v>
+      <c r="A239" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
-      <c r="A240" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>112</v>
+      <c r="A240" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
-      <c r="A241" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>112</v>
+      <c r="A241" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
-      <c r="A242" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>112</v>
+      <c r="A242" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
-      <c r="A243" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>112</v>
+      <c r="A243" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
-      <c r="A244" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>112</v>
+      <c r="A244" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
-      <c r="A245" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>112</v>
+      <c r="A245" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
-      <c r="A246" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>112</v>
+      <c r="A246" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
-      <c r="A247" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>112</v>
+      <c r="A247" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
-      <c r="A248" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>112</v>
+      <c r="A248" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
-      <c r="A249" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>112</v>
+      <c r="A249" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
-      <c r="A250" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>112</v>
+      <c r="A250" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
-      <c r="A251" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>112</v>
+      <c r="A251" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
-      <c r="A252" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>112</v>
+      <c r="A252" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
-      <c r="A253" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>112</v>
+      <c r="A253" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
-      <c r="A254" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>112</v>
+      <c r="A254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
-      <c r="A255" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>112</v>
+      <c r="A255" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
-      <c r="A256" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>112</v>
+      <c r="A256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
-      <c r="A257" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>112</v>
+      <c r="A257" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
-      <c r="A258" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>112</v>
+      <c r="A258" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
-      <c r="A259" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>112</v>
+      <c r="A259" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
-      <c r="A260" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>112</v>
+      <c r="A260" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
-      <c r="A261" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>112</v>
+      <c r="A261" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
-      <c r="A262" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>112</v>
+      <c r="A262" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
-      <c r="A263" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>112</v>
+      <c r="A263" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
-      <c r="A264" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>112</v>
+      <c r="A264" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
-      <c r="A265" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>112</v>
+      <c r="A265" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
-      <c r="A266" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>112</v>
+      <c r="A266" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
-      <c r="A267" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>112</v>
+      <c r="A267" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
-      <c r="A268" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>112</v>
+      <c r="A268" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
-      <c r="A269" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>112</v>
+      <c r="A269" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
-      <c r="A270" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>112</v>
+      <c r="A270" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
-      <c r="A271" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>112</v>
+      <c r="A271" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
-      <c r="A272" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>112</v>
+      <c r="A272" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
-      <c r="A273" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>112</v>
+      <c r="A273" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
-      <c r="A274" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>112</v>
+      <c r="A274" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
-      <c r="A275" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>112</v>
+      <c r="A275" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
-      <c r="A276" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>112</v>
+      <c r="A276" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
-      <c r="A277" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>112</v>
+      <c r="A277" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
-      <c r="A278" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>112</v>
+      <c r="A278" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
-      <c r="A279" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>112</v>
+      <c r="A279" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
-      <c r="A280" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>112</v>
+      <c r="A280" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
-      <c r="A281" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>112</v>
+      <c r="A281" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
-      <c r="A282" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>112</v>
+      <c r="A282" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
-      <c r="A283" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>112</v>
+      <c r="A283" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
-      <c r="A284" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>112</v>
+      <c r="A284" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
-      <c r="A285" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>112</v>
+      <c r="A285" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
-      <c r="A286" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>112</v>
+      <c r="A286" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
-      <c r="A287" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>112</v>
+      <c r="A287" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
-      <c r="A288" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>112</v>
+      <c r="A288" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
-      <c r="A289" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>112</v>
+      <c r="A289" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
-      <c r="A290" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>112</v>
+      <c r="A290" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
-      <c r="A291" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>112</v>
+      <c r="A291" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
-      <c r="A292" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>112</v>
+      <c r="A292" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
-      <c r="A293" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>112</v>
+      <c r="A293" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
-      <c r="A294" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>112</v>
+      <c r="A294" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
-      <c r="A295" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>112</v>
+      <c r="A295" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
-      <c r="A296" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>112</v>
+      <c r="A296" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
-      <c r="A297" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>112</v>
+      <c r="A297" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
-      <c r="A298" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>112</v>
+      <c r="A298" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
-      <c r="A299" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>112</v>
+      <c r="A299" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
-      <c r="A300" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>112</v>
+      <c r="A300" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
-      <c r="A301" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>112</v>
+      <c r="A301" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
-      <c r="A302" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>112</v>
+      <c r="A302" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
-      <c r="A303" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>112</v>
+      <c r="A303" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
-      <c r="A304" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>112</v>
+      <c r="A304" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
-      <c r="A305" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>112</v>
+      <c r="A305" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
-      <c r="A306" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>112</v>
+      <c r="A306" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
-      <c r="A307" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>112</v>
+      <c r="A307" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
-      <c r="A308" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>112</v>
+      <c r="A308" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
-      <c r="A309" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>112</v>
+      <c r="A309" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
-      <c r="A310" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>112</v>
+      <c r="A310" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
-      <c r="A311" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>112</v>
+      <c r="A311" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
-      <c r="A312" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>112</v>
+      <c r="A312" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
-      <c r="A313" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>112</v>
+      <c r="A313" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
-      <c r="A314" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>112</v>
+      <c r="A314" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
-      <c r="A315" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>112</v>
+      <c r="A315" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
-      <c r="A316" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>112</v>
+      <c r="A316" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
-      <c r="A317" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>112</v>
+      <c r="A317" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
-      <c r="A318" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>112</v>
+      <c r="A318" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
-      <c r="A319" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>112</v>
+      <c r="A319" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
-      <c r="A320" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>112</v>
+      <c r="A320" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
-      <c r="A321" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>112</v>
+      <c r="A321" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
-      <c r="A322" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>112</v>
+      <c r="A322" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
-      <c r="A323" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>112</v>
+      <c r="A323" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
-      <c r="A324" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>112</v>
+      <c r="A324" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
-      <c r="A325" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>112</v>
+      <c r="A325" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
-      <c r="A326" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>112</v>
+      <c r="A326" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
-      <c r="A327" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>112</v>
+      <c r="A327" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
-      <c r="A328" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>112</v>
+      <c r="A328" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
-      <c r="A329" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>112</v>
+      <c r="A329" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
-      <c r="A330" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>112</v>
+      <c r="A330" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
-      <c r="A331" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>112</v>
+      <c r="A331" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
-      <c r="A332" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>112</v>
+      <c r="A332" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
-      <c r="A333" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>112</v>
+      <c r="A333" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
-      <c r="A334" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>112</v>
+      <c r="A334" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
-      <c r="A335" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>112</v>
+      <c r="A335" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
-      <c r="A336" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>112</v>
+      <c r="A336" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
-      <c r="A337" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>112</v>
+      <c r="A337" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
-      <c r="A338" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>112</v>
+      <c r="A338" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
-      <c r="A339" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>112</v>
+      <c r="A339" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
-      <c r="A340" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>112</v>
+      <c r="A340" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
-      <c r="A341" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>112</v>
+      <c r="A341" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
-      <c r="A342" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>112</v>
+      <c r="A342" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
-      <c r="A343" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>112</v>
+      <c r="A343" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1205">
   <si>
     <t>job_name</t>
   </si>
@@ -22,2059 +22,3613 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__add_bank_details_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/add_bank_details_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__product_views_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/product_views_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__merchandise_video_progress_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_progress</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_landing_page_section_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_landing_page_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_group_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_group_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__buy_now_clicked_temp_1_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/buy_now_clicked_temp_1</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pow_search_results_shown_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pow_search_results_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_website_launch_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_website_launch_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_given_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_given</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__kapture_report_175_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/kapture_report_175</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_lp_filter_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_filter_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_video_player_create_start_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_video_player_create_start</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_applied_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_exit_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_exit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__my_payments_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/my_payments_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__visual_search_catalogs_served_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/visual_search_catalogs_served</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__help_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/help_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__anonymous_user_metadata_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/anonymous_user_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__refund_mode_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/refund_mode_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__customer_ndr_registration_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/customer_ndr_registration_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_button_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__calling_supplier_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/calling_supplier</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_page_load_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_page_load</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_links_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_links_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__supplier_reviews_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/supplier_reviews_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_bar_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_bar_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_voice_play_icon_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_play_icon_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__review_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/review_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_request_continue_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_request_continue</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_section_page_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_section_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_clicked_android_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_clicked_android</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_utm_visited_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_utm_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_media_share_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_media_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_searchability_search_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_searchability_search_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_duplicate_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_duplicate</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_cart_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_cart_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__proceed_button_in_addresses_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/proceed_button_in_addresses_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_share_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_invite_friends_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_invite_friends_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_permission_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_permission_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_saw_pincode_speaker_icon_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_saw_pincode_speaker_icon</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_pdp_size_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_pdp_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_share_bottom_sheet_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_share_bottom_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_bottomsheet_triggered_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_bottomsheet_triggered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_check_success_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_success_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_edited_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_edited</t>
-  </si>
-  <si>
-    <t>silver.journey__journey_user_benefit_status_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/journey/journey_user_benefit_status</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_submit_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_submit_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__story_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/story_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__try_image_search_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/try_image_search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__my_journey_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/my_journey_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_bottomsheet_dismissed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_bottomsheet_dismissed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_top_nav_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_top_nav_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_call_me_back_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_call_me_back_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_web_catalog_upload_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_web_catalog_upload</t>
-  </si>
-  <si>
-    <t>silver.msg_price__oms_order_audit_logs_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/oms_order_audit_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_incentives_banner_view_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentives_banner_view</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__screenshot_taken_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/screenshot_taken</t>
-  </si>
-  <si>
-    <t>silver.growth__growth_appsflyer_conversion_report_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/growth_appsflyer_conversion_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__view_all_duplicates_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/view_all_duplicates_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_add_to_cart_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_add_to_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.price__product_supplier_deal_price_map_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_supplier_deal_price_map</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_landing_wallet_info_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_wallet_info_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_review_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_review_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_productdetails_rendered_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_productdetails_rendered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__widget_views_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/widget_views</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_request_ticked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_request_ticked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_tab_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__pipeline_stats_new_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/pipeline_stats_new</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__call_me_back_complete_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/call_me_back_complete_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_onboarding_video_play_milestone_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_play_milestone</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_tiles_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_tiles_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__final_customer_amount_add_start_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_add_start_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__opened_ads_performance_page_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/opened_ads_performance_page</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_address_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_address_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_section_meesho_credits_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_section_meesho_credits_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_feedback_submitted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_feedback_submitted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__meeshologistics_order_metadata_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/meeshologistics_order_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__raise_ticket_page_interacted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/raise_ticket_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__supply_psm_valid_change_automation_events_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/supply_psm_valid_change_automation_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__superstore_order_widget_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/superstore_order_widget_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__permission_rationale_continue_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/permission_rationale_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__intro_dialog_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/intro_dialog_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__benefits_card_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/benefits_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_options_bottom_sheet_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_users_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_users_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_auth_successful_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_auth_successful</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_product_notify_me_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_product_notify_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_options_bottom_sheet_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_closed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_open_pre_signup_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.advertisement__bid_recommendation_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/bid_recommendation</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_enqueued_appstrackingworker_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_enqueued_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_media_upload_initiated_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_upload_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_resolution_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_resolution_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_option_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.loyalty__product_detail_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/loyalty/product_detail_new</t>
-  </si>
-  <si>
-    <t>silver.merchandising__catalog_collection_map_audit_fix_new_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising/catalog_collection_map_audit_fix_new</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__unconsented_orders_kaleyra_event_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/unconsented_orders_kaleyra_event</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__post_order_loyalty_animation_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/post_order_loyalty_animation_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_media_added_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_added</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_store_page_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_store_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ct_qct__supplier_store_performance_marketing_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ct_qct/supplier_store_performance_marketing</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_first_item_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_first_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_promotion_service__bonus_user_map_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_promotion_service/bonus_user_map</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_sscat_attribute_update_event_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_sscat_attribute_update_event</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__delight_popup_olp_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/delight_popup_olp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_clicked_catalog_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_catalog</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_Profile_Info_Modal_Gender_Filled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_Profile_Info_Modal_Gender_Filled_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__anonymous_catalog_shared_map_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/anonymous_catalog_shared_map</t>
-  </si>
-  <si>
-    <t>silver.msg_search__clp_catalog_mapping_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/clp_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_initial_plp_interacted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_initial_plp_interacted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__recommendation_shown_v2_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/recommendation_shown_v2</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_add_media_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_add_media_selected</t>
-  </si>
-  <si>
-    <t>silver.advertisement__advertisement_campaign_log_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/advertisement_campaign_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_shared_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_shared</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_nudge_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_profile_info_modal_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_profile_info_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__update_stock_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/update_stock_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__continue_return_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/continue_return_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_review_section_view_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_review_section_view</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_apply_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_apply_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_clicked_product_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_product</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_unserviceable_address_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_unserviceable_address</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__Inventory_button_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/Inventory_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__webview_launch_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/webview_launch</t>
-  </si>
-  <si>
-    <t>silver.referral__re_referral_user_current_badge_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/re_referral_user_current_badge_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_middle_item_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_middle_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__merchandise_video_play_pause_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_applied_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adshares_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adshares</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_voice_note_completed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_note_completed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__label_downloaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/label_downloaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_tab_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_quartile_completed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_quartile_completed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_bottom_nav_exited_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_exited_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_analytics__community_post_views_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_analytics/community_post_views</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_pdp_mounted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_mounted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_quartile_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_quartile</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__all_ticket_updates_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/all_ticket_updates</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_push_impressions_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_push_impressions</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_redemption_nudge_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__delivery_screen_pincode_unserviceable_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/delivery_screen_pincode_unserviceable</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_check_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_images_scroll_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_images_scroll</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_auth_token_requested_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_auth_token_requested</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__user_authenticated_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/user_authenticated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__challenge_page_opened_events_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/challenge_page_opened_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gpl_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gpl_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.payment_aggregator__supplier_payments_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_aggregator/supplier_payments</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_ihao_created_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_created</t>
-  </si>
-  <si>
-    <t>silver.price__product_logistics_zone_charge_upsert_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_logistics_zone_charge_upsert</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_tab_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__inapp_popup_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/inapp_popup_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_customer_orders_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_customer_orders</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_last_item_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_last_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_onboarding_video_play_pause_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mrp_details_bottom_sheet_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_open_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mrp_details_bottom_sheet_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_closed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.loyalty__loyalty_supplier_opt_in_history_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/loyalty/loyalty_supplier_opt_in_history</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_scrolled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_loot_deals_top_section_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_loot_deals_top_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_return_option_changed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_return_option_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_profile_info_modal_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_modal_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_login_page_email_phone_input_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_login_page_email_phone_input</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_request_cancelled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_request_cancelled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_app_signup_otp_submitted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_app_signup_otp_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__s3_export_app_open_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/s3_export_app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_download_meesho_app_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_download_meesho_app_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_page_scroll_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_scroll_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__edit_product_diff_detail_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/edit_product_diff_detail</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_user_post_like_maps_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_user_post_like_maps</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_similar_product_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_similar_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__inapp_popup_dismissed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/inapp_popup_dismissed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__pagination_used_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/pagination_used_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__add_address_in_review_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/add_address_in_review_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_updated_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_updated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__another_address_added_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/another_address_added</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_web_vitals_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_web_vitals</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_see_details_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_see_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__hp_top_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_top_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.offer_platform__order_cancellation_offer_map_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/offer_platform/order_cancellation_offer_map</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_suggested_address_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_suggested_address_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__panel_section_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/panel_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_browse_item_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_browse_item_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_social_sellers__merchandise_video_page_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_social_sellers/merchandise_video_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_landing_page_visited_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_landing_page_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_top_navigation_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_top_navigation_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_commission_details_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_commission_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__return_manifestation_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/return_manifestation</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__app_signup_mobile_otp_successful_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/app_signup_mobile_otp_successful</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__redemption_lever_checked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/redemption_lever_checked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_followers_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_followers_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_add_to_cart_size_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_add_to_cart_size_selected</t>
-  </si>
-  <si>
-    <t>silver.listing_go_live__listing_go_live_catalog_visibility_status_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_visibility_status_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_share_comes_back_after_batch_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_reopened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_reopened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__profile_language_selection_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/profile_language_selection_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_banner_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_catalog_view_products_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_catalog_view_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pincode_location_input_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pincode_location_input</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_sort_v2_option_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_sort_v2_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_add_product_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_add_product_clicked_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_recommendation_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_recommendation_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_ds__ds_user_reimbursement_qc_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds/ds_user_reimbursement_qc</t>
-  </si>
-  <si>
-    <t>silver.ors__order_events_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ors/order_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_following_screen_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_following_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_reg_visit_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_reg_visit</t>
-  </si>
-  <si>
-    <t>silver.farmiso__user_location_data_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/user_location_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step_2_category_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step_2_category_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__profile_info_language_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/profile_info_language_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_comment_sent_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_sheet_triggered_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_sheet_triggered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_product_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_view_all_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_view_all_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__user_added_for_location_permission_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/user_added_for_location_permission</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.listing_go_live__listing_go_live_limited_visibility_catalogs_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/listing_go_live/listing_go_live_limited_visibility_catalogs_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_buy_now_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_yes_received_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_yes_received_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.gamification__gamification_spin_user_tracker_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/gamification_spin_user_tracker</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_dismissed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_dismissed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_enlarge_image_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_enlarge_image_viewed</t>
-  </si>
-  <si>
-    <t>silver.community__revinfo_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/revinfo</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_comment_box_entered_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_box_entered</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__app_crashed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/app_crashed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_not_received_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_not_received_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_triggered_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_triggered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_bottom_nav_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_code_shared_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_code_shared</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_status_change_log_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_status_change_log</t>
-  </si>
-  <si>
-    <t>silver.msg_ds__ds_msg_transact_insight_api_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds/ds_msg_transact_insight_api</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__customer_npr_registration_details_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/customer_npr_registration_details</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__manifestation_errors_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/manifestation_errors</t>
-  </si>
-  <si>
-    <t>silver.msg_reseller_pricing__reseller_pricing_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_reseller_pricing/reseller_pricing</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__location_fetch_initiation_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/location_fetch_initiation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_price_changed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_price_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_edit_request_submitted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_request_submitted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_details_ssr_success_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_details_ssr_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__fa_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/fa_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_value_prop_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_value_prop_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_section_call_us_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_section_call_us_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_verify_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_verify_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_ihao_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_upload_homepage_actions_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_homepage_actions</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__shipment_cancellations_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/shipment_cancellations</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__vs_image_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/vs_image_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_searchability_search_used_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_searchability_search_used</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_review_image_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_review_image_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_verify_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_verify_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_modal_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_product_card_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_ok_cta_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_ok_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dyhaoft_popup_shown_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_popup_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__products_selected_done_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/products_selected_done_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueued_refreshfcmtokenworker_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueued_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__upi_details_verify_success_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/upi_details_verify_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_category_clicked_new_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.listing_go_live__listing_go_live_catalog_go_live_activation_status_aud_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_go_live_activation_status_aud</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__products_selected_for_fb_share_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/products_selected_for_fb_share</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_landing_page_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_landing_page_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_performance_metrics_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_performance_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_Gratification_Modal_Viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_Gratification_Modal_Viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_page_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__delight_banner_odp_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/delight_banner_odp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_input_changed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_input_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_submit_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_submit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_tab_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_screen_pincode_check_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_screen_pincode_check_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__branded_packaging_events_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/branded_packaging_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_skip_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_skip_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__superstore_webview_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/superstore_webview_loaded</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__supplier_event_catalog_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/supplier_event_catalog</t>
-  </si>
-  <si>
-    <t>silver.inhouse__farmiso_supplier_login_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/farmiso_supplier_login</t>
-  </si>
-  <si>
-    <t>silver.inhouse_rte_v2__catalog_share_comes_back_after_batch_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_rte_v2/catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.address__unserviceable_pin_codes_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/address/unserviceable_pin_codes</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_social_sellers__second_quartile_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_social_sellers/second_quartile_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__become_meesho_supplier_page_opened_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/become_meesho_supplier_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_widget_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_widget_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__etl_metrics_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/etl_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__meesho_price_value_edited_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/meesho_price_value_edited</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__update_stock_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/update_stock_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_share_comes_back_after_batch_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dyhaoft_yes_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_yes_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_friction_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__payment_method_change_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/payment_method_change_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_removed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__success_to_get_user_location_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/success_to_get_user_location</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__superstore_website_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/superstore_website_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__plp_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/plp_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_category_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_category_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_return_or_exchange_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_return_or_exchange_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__scrolled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_option_closed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_option_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_scrolled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__video_played_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/video_played</t>
-  </si>
-  <si>
-    <t>silver.cms__price_collapse_similar_products_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cms/price_collapse_similar_products</t>
-  </si>
-  <si>
-    <t>silver.communicator__campaigns_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/communicator/campaigns</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_scores_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_scores</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_manifest_downloaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_manifest_downloaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__oneclick_banner_shown_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/oneclick_banner_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__issue_page_interacted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_video_quartile_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_video_quartile</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__exchange_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/exchange_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_friction_product_scrolled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_product_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__location_error_popup_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/location_error_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_category_results_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_results</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_pending_tab_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_pending_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_pre_buzz_sale_strip_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_pre_buzz_sale_strip_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_section_product_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_section_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_instance_detail_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_instance_detail</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__similar_catalogs_shown_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/similar_catalogs_shown</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_global_user_offer_redemptions_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_global_user_offer_redemptions</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_accepted_pending_orders_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_accepted_pending_orders</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_recall_banner_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_recall_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_size_selected_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_check_error_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_error</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__submit_catalog_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/submit_catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_clicked_on_pincode_speaker_icon_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_clicked_on_pincode_speaker_icon</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__final_customer_amount_prefilled_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_prefilled_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.prism__follow_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/prism/follow_repartition</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_input_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_input_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_clicked_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__accepted_pending_orders_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/accepted_pending_orders</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__open_order_card_loaded_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/open_order_card_loaded_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__image_popup_interacted_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/image_popup_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_followed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_followed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_new_live_timer_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_new_live_timer_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__reverse_manifest_pool_allocation_type_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/reverse_manifest_pool_allocation_type</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fa_intro_viewed_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fa_intro_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_call_details_records_26dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_call_details_records</t>
-  </si>
-  <si>
-    <t/>
+    <t>silver.community__comments_audit_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/comments_audit_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__address_bottomsheet_close_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/address_bottomsheet_close_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_topic_navigation_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_topic_navigation_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_experience__was_this_helpful_user_feedback_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_experience/was_this_helpful_user_feedback</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__facebook_share_screen_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/facebook_share_screen_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__back_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/back_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_exchange_not_available_bottom_sheet_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_exchange_not_available_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_posts_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_posts_repartition</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__logo_creator_logo_confirmed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/logo_creator_logo_confirmed_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_exchange_size_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_exchange_size_added</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_self_support_get_help_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_self_support_get_help_clicked</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_order_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_order_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_loot_plp_nudge_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_plp_nudge_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_profile_screen_error_thrown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_error_thrown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_profile_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__sp_goto_login_page_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_goto_login_page_clicked</t>
+  </si>
+  <si>
+    <t>silver.advertisement__catalog_cpc_map_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/catalog_cpc_map_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__level_on_my_journey_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/level_on_my_journey_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_reviews_view_more_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_reviews_view_more_clicked</t>
+  </si>
+  <si>
+    <t>silver.advertisement__catalog_cpc_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/catalog_cpc_map</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__product_duplicacy_exception_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/product_duplicacy_exception_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__enter_referral_code_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/enter_referral_code_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__label_downloaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/label_downloaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_profile_info_modal_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_profile_info_modal_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_continue_in_cart_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_continue_in_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_error_refreshfcmtokenworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_error_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__returns_unbundling_video_play_pause_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_play_pause_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fa_intro_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fa_intro_closed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__payment_place_order_clicked_backfill_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/payment_place_order_clicked_backfill</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_order_status_filter_tapped_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_order_status_filter_tapped_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_continue_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_continue_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_view_levels_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_view_levels_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__bulk_upload_category_template_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_upload_category_template</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__catalog_upload_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/catalog_upload</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_earn_cart_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__matching_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/matching_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__orders_filter_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/orders_filter_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_firebase_flow_initiated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_flow_initiated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_atc_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_atc_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_basket_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_basket_loaded_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_feedservice__feed_filters_mapping_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feedservice/feed_filters_mapping</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__story_terminated_state_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/story_terminated_state_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__promotions_tab_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/promotions_tab_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shop_followed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shop_followed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_location_permission_action_done_ss_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_location_permission_action_done_ss</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__self_support_voice_pause_icon_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_pause_icon_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_prism__metrics_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_prism/metrics</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_place_order_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_place_order_success_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_fcm_records_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_fcm_records_2021_04_13</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_closed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_location_permission_viewed_ss_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_location_permission_viewed_ss</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_checkout_initiated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_checkout_initiated_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_edit_request_discarded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_request_discarded</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_ad_shared_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_ad_shared</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_edits_suggested_address_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_edits_suggested_address</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_exit_friction_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_share_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.incentives__supplier_ad_info_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/incentives/supplier_ad_info</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__action_cta_on_my_journey_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/action_cta_on_my_journey_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__sp_start_selling_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_start_selling_button_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_onboarding_video_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_closed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__shipment_manifestation_source_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/shipment_manifestation_source</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ad_campaign_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_campaign_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__supplier_reviews_helpful_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/supplier_reviews_helpful_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__user_whitelisted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/user_whitelisted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__continue_in_review_clicked_backfill_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/continue_in_review_clicked_backfill</t>
+  </si>
+  <si>
+    <t>silver.cis__ds_tagging_allocation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/ds_tagging_allocation</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__reactivation_reason_log_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/reactivation_reason_log_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ipp_product_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ipp_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_gratification_modal_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_gratification_modal_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__notice_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/notice_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__address_change_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/address_change_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest_service__fraud_order_cancellations_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest_service/fraud_order_cancellations_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__review_tips_video_play_pause_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/review_tips_video_play_pause</t>
+  </si>
+  <si>
+    <t>silver.msg_promotion_service__bonus_user_order_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_promotion_service/bonus_user_order_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_account_created_mixpanel_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_account_created_mixpanel</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_otp_submitted_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_otp_submitted_logs</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_page_account_2_fill_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_page_account_2_fill</t>
+  </si>
+  <si>
+    <t>silver.msg_price__survey_submissions_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/survey_submissions</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_calculator_seeked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_calculator_seeked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__point_table_faq_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/point_table_faq_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__issue_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_profile_screen_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ticket_details_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_details_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__my_tickets_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/my_tickets_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__manifest_downloaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/manifest_downloaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_score_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_score_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__price_recommendation_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/price_recommendation_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_lp_filter_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_filter_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__share_paste_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/share_paste_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_follow_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_follow_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_carts_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_carts</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__points_history_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/points_history_opened</t>
+  </si>
+  <si>
+    <t>silver.msg_genesys__customer_support_tickets_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_genesys/customer_support_tickets</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_assortment_detail_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_assortment_detail</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_gratification_modal_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_gratification_modal_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__leaderboard_details_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/leaderboard_details_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_language_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_language_popup_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_product_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_product_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_page_ifsc_fill_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_page_ifsc_fill</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_video_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__recommendation_edited_accepted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_edited_accepted_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_code_submit_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_code_submit_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__prism_fy_step3_place_order_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step3_place_order_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_video_widget_state_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_widget_state</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__early_payments_component_seen_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/early_payments_component_seen</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__returns_unbundling_video_language_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_language_changed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_pdp_burn_video_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_burn_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_all_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_all_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_language_selection_input_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_language_selection_input_changed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_catalog_full_visibility_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_catalog_full_visibility_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_video_quartile_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_video_quartile_completed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__product_image_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/product_image_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_signup_email_validation_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_signup_email_validation_logs</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_link_shares_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_link_shares</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_time_spent_on_rocket_deals_lp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_time_spent_on_rocket_deals_lp</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_installed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_installed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__view_order_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/view_order_details_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_notification_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_stopped_refreshfcmtokenworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_stopped_refreshfcmtokenworker</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__self_support_cmb_language_error_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/self_support_cmb_language_error</t>
+  </si>
+  <si>
+    <t>silver.msg_ct_qct_service__ct_qct_feed_experimentdata_activation_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ct_qct_service/ct_qct_feed_experimentdata_activation_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_learn_how_it_works_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_learn_how_it_works_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_pdp_earn_video_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_earn_video_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_appsflyer_link_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_appsflyer_link_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_upload_price_recommendation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_price_recommendation</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__become_meesho_supplier_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/become_meesho_supplier_page_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_tiles_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_tiles_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__orders_filtered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/orders_filtered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_signup_password_validation_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_signup_password_validation_logs</t>
+  </si>
+  <si>
+    <t>silver.payments_integration__payments_integration_bank_partner_event_updates_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payments_integration/payments_integration_bank_partner_event_updates</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__copy_suggested_text_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/copy_suggested_text_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/button_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_pdp_earn_video_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_earn_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__issue_category_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_category_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_banner_views_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_banner_views</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__orders_device_intelligence_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/orders_device_intelligence</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_firebase_verification_successful_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_verification_successful</t>
+  </si>
+  <si>
+    <t>silver.Adminpanel__calling_supplier_from_admin_panel_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/Adminpanel/calling_supplier_from_admin_panel</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_play_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_play_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_hashtag_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_hashtag_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_profile_drop_down_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_profile_drop_down_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__add_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__selected_catalogs_for_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_catalogs_for_ad</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__entered_ad_campaign_name_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/entered_ad_campaign_name</t>
+  </si>
+  <si>
+    <t>silver.msg_external_payment_gateway__cod_block_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_external_payment_gateway/cod_block_event_fix_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__entered_budget_for_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/entered_budget_for_ad</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_filter_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_filter_log_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_login_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_login_success_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__my_tickets_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/my_tickets_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__recommendation_accepted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_accepted_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.loyalty__supplier_product_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/supplier_product_map</t>
+  </si>
+  <si>
+    <t>silver.msg_price__product_portfolio_mappings_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/product_portfolio_mappings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__estimated_delivery_date_widget_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/estimated_delivery_date_widget_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__fe_identifier_data_er_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/fe_identifier_data_er</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_buy_now_continue_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_buy_now_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_attributes_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__price_reco_tab_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/price_reco_tab_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_follow_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_follow_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ticket_details_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_details_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_customer_profiles_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_customer_profiles</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__single_upload_form_simplification_interactions_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/single_upload_form_simplification_interactions</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_product_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_comments_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_comments_repartition</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_main_filter_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_search_term_entered_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_term_entered_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_category_navigation_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_category_navigation_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__label_download_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/label_download_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_option__supplier_optin_price_change_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_option/supplier_optin_price_change</t>
+  </si>
+  <si>
+    <t>silver.growth__game_play_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/game_play_details</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__redemption_lever_unchecked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/redemption_lever_unchecked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_closed</t>
+  </si>
+  <si>
+    <t>silver.msg_ctqct__ctqct_v2_insufficient_catalogs_requests_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_insufficient_catalogs_requests</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__recommendation_service_price_recommendation_rejected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/recommendation_service_price_recommendation_rejected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_video_continue_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_reminder_set_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_reminder_set</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_pick_up_locations_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_pick_up_locations</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_lp_daily_deals_widget_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_daily_deals_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_score_play_again_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_score_play_again_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_verify_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_verify_success</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__search_feedback_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/search_feedback_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__superstore_order_widget_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/superstore_order_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_location_fetch_success_ss_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_location_fetch_success_ss</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__campaign_loading_Page_for_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_loading_Page_for_ad</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__cart_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/cart_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_loading_started_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_loading_started</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_location_fetch_initiated_ss_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_location_fetch_initiated_ss</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_order_attributes_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__category_views_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/category_views</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_coach_mark_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_coach_mark_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_share_comes_back_after_batch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_share_comes_back_after_batch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_sort_option_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_option_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_filter_applied_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_payments_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_payments</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_started_playing_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_started_playing</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_shared_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_shared</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_signup_firebase_cancelled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_cancelled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_flow_edit_slider_used_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_slider_used</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__all_products_clicked_upload_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/all_products_clicked_upload_mweb</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__exchange_only_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/exchange_only_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_feedback_banner_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_feedback_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__quality_dashboard_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/quality_dashboard_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_view_all_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_past_stream_card_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_past_stream_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.cis__ds_tagging_result_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/ds_tagging_result</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_detail_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_detail_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_code_success_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_code_success_shown</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ftux_for_earn_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ftux_for_earn_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__pdp_bottom_sheet_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/pdp_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse__farmiso_website_launch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/farmiso_website_launch</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__quality_dashboard_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/quality_dashboard_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mba_video_play_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_video_play_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__applied_ad_status_filter_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/applied_ad_status_filter</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_rocket_deals_landing_page_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_landing_page_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_edit_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_edit_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mba_level_drop_down_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mba_level_drop_down_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_goto_login_page_clicked_ac_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_goto_login_page_clicked_ac</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__unserviceable_discovery_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/unserviceable_discovery</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__add_product_image_clicked_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_image_clicked_mweb</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_watch_time_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_watch_time</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_add_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_add_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__your_category_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_overlay_nudge_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_overlay_nudge_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_add_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_add_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__recommendation_tab_catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_tab_catalog_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_score_go_back_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_score_go_back_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__draft_status_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/draft_status_interacted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_coins_history_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_coins_history_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__stream_run_stats_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/stream_run_stats</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_screenshot_taken_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_screenshot_taken</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__add_product_images_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_images_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__upload_product_step_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/upload_product_step_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mba_video_started_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_video_started_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__NPP_Price_Recommedation_Generated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/NPP_Price_Recommedation_Generated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ticket_confirmation_page_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_confirmation_page</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_edit_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_edit_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__selected_ad_budget_type_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_ad_budget_type</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__clicked_select_catalogs_for_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/clicked_select_catalogs_for_ad</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cancel_cta_clicked_on_cancel_return_or_exchange_bottom_sheet_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cancel_cta_clicked_on_cancel_return_or_exchange_bottom_sheet</t>
+  </si>
+  <si>
+    <t>silver.msg_price__npp_catalog_upload_sscat_shipping_fallback_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/npp_catalog_upload_sscat_shipping_fallback_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__story_restarted_from_terminated_state_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/story_restarted_from_terminated_state</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_view_levels_know_more_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_view_levels_know_more_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__earnings_main_page_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/earnings_main_page_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_become_meesho_supplier_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_become_meesho_supplier_page_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_swiped_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_swiped</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_stock_counter_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_stock_counter_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_campaign_tnc_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_campaign_tnc_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_language_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_language_changed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_fab_click_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_fab_click</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_competition_error_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_competition_error</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__sp_home_mobile_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_home_mobile_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_code_failed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_code_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_search_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__continued_to_submit_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/continued_to_submit_ad</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_enqueued_appstrackingworker_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_enqueued_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_profile_drop_down_item_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_profile_drop_down_item_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__challenge_link_clicked_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/challenge_link_clicked_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_profile_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_profile_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__truecaller_rejected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/truecaller_rejected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_faq_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_faq_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_user_authenticated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_user_authenticated</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_popup_cross_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_popup_cross_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_genesys__inbound_calls_complete_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_genesys/inbound_calls_complete_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_otp_trigger_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_otp_trigger_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ad_budget_banner_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_budget_banner_changed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_attribute_update_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_attribute_update_event</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_whatsapp_share_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_whatsapp_share_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__exchange_request_created_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/exchange_request_created</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__selected_duration_for_ad_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_duration_for_ad</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_landing_video_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_landing_video_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shopping_nps_rated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shopping_nps_rated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__shop_link_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/shop_link_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__next_button_clicked_on_returns_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/next_button_clicked_on_returns</t>
+  </si>
+  <si>
+    <t>silver.inhouse__farmiso_homepage_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/farmiso_homepage_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_reg_continue_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_reg_continue</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_app_crashed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_app_crashed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mba_video_play_milestone_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mba_video_play_milestone_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__sender_details_name_add_start_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/sender_details_name_add_start_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_webview_launch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_webview_launch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shopping_nps_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shopping_nps_submitted</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__recommendation_service_product_recommendation_shortlisted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/recommendation_service_product_recommendation_shortlisted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_flow_edit_box_used_wdrp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_box_used_wdrp</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_pickup_failed_card_olp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_card_olp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__search_category_clicked_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_clicked_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rewards_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rewards_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_share_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__see_all_friends_you_can_refer_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/see_all_friends_you_can_refer_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_promotion_service__bonus_redemption_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_promotion_service/bonus_redemption</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shop_unfollowed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shop_unfollowed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_my_customers_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_my_customers_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_order_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_order_details_27_10_2021</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_search_type_initiated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_type_initiated</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__Image_guidelines_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/Image_guidelines_mweb</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__address_status_update_banner_displayed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/address_status_update_banner_displayed</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__user_payments_arn_mapping_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/user_payments_arn_mapping</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_add_name_initiated_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_add_name_initiated_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_gstin_details_fetch_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_gstin_details_fetch_logs</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_flow_edit_box_used_mp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_box_used_mp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_detail_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_detail_submitted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_plp_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__mba_video_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/mba_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_page_widget_horizontal_scroll_android_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_horizontal_scroll_android</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cart_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cart_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_customer_name_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_customer_name_added_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_reco_button_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_reco_button_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__male_referral_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/male_referral_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_recall_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_recall_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__gen_ai_cx_instrumentation_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/gen_ai_cx_instrumentation_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__community_post_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/community_post_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pit_popup_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_popup_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_faq_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_faq_interacted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__order_failed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/order_failed</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_earnings_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_earnings_repartition</t>
+  </si>
+  <si>
+    <t>silver.listing_go_live__listing_go_live_upload_duplicates_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/listing_go_live/listing_go_live_upload_duplicates</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_order_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_details</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_atc_clicked</t>
+  </si>
+  <si>
+    <t>silver.cis__cis_comments_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/cis_comments</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_price_comparison_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_price_comparison_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_ctqct__ctqct_v2_for_you_catalog_last_fetch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalog_last_fetch</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_orders_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__sender_details_name_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/sender_details_name_added_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__your_category_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_selected</t>
+  </si>
+  <si>
+    <t>silver.growth__growth_appsflyer_performance_report_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/growth/growth_appsflyer_performance_report_2021_04_19</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_streaks_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_streaks_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__price_reco_visible_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/price_reco_visible</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_catalog_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_catalog_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_pdp_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__save_catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/save_catalog_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_live_bids_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_live_bids_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.ads_credit__supplier_credit_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ads_credit/supplier_credit</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_address_references_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_address_references</t>
+  </si>
+  <si>
+    <t>silver.inhouse_rte_v2__pow_continue_in_cart_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_rte_v2/pow_continue_in_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__returns_unbundling_video_full_screen_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_full_screen_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__price_recommendations_tab_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/price_recommendations_tab_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_closed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_video_state_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_state</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_screen_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_screen_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_onboarding_video_play_milestone_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_onboarding_video_play_milestone</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__exp_inbound_view_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/exp_inbound_view</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__view_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/view_details_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__product_inventories_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/product_inventories</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__invoice_download_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/invoice_download_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__onboarding_profile_screen_skipped_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_skipped</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__share_tooltip_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/share_tooltip_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__business_dashboard_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/business_dashboard_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__view_shop_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/view_shop_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_order_attributes_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_order_attributes</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_value_prop_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_value_prop_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.cms__product_groups_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cms/product_groups</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_default_filters_sscat_attribute_store_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_default_filters_sscat_attribute_store</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_ad_wishlisted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_ad_wishlisted</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_reminder_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_reminder</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__scratch_card_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_loaded</t>
+  </si>
+  <si>
+    <t>silver.farmiso__user_offer_group_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/user_offer_group_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_past_video_forward_control_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_forward_control</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_atc_bottom_sheet_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_atc_bottom_sheet_size_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_video_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__transferprice_api_response_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/transferprice_api_response</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_unfollow_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_unfollow_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_upload_validation_modal_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_validation_modal_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_question_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_question_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_listings_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_listings_2022_08_19</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_exit_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_exit</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_add_to_cart_success_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_add_to_cart_success</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__upload_attachment_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/upload_attachment</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__qpd_l1_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_notifications_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_notifications</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__transferprice_api_called_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/transferprice_api_called</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__overview_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/overview_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__failed_to_get_user_location_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/failed_to_get_user_location</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__download_update_attachment_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/download_update_attachment</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__sender_details_change_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/sender_details_change_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_shown_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_shown_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_category_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_category_clicked</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__recommendation_service_product_recommendation_uploaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/recommendation_service_product_recommendation_uploaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_streak_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_streak_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_i_want_this_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_i_want_this_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_other_live_category_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_gateway__survey_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_gateway/survey_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__search_box_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/search_box_interacted</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_media_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_media</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_catalog_pinned_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_pinned</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__ad_budget_exhausted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_budget_exhausted</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__fe_identifier_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/fe_identifier_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gdp_streak_ok_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gdp_streak_ok_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__user_discovery_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/user_discovery</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sx_ticket_fields_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_ticket_fields_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__view_comparision_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparision_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_pdp_size_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_size_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__view_status_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/view_status_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_seek_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_seek</t>
+  </si>
+  <si>
+    <t>silver.msg_price__price_recommendation_error_log_entity_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/price_recommendation_error_log_entity</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__account_section_email_us_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/account_section_email_us_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_more_products_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_more_products_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__retry_pickup_reallocation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/retry_pickup_reallocation</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__a2hs_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_panel_forgot_password_pageview_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_forgot_password_pageview_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_query_top_semantic_score_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_query_top_semantic_score</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_product_card_widget_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__fraud_user_detection_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/fraud_user_detection</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_full_screen_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_full_screen_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__Back_button_clicked_catalog_upload_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/Back_button_clicked_catalog_upload_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__cancel_allowed_open_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_allowed_open</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_referral_my_referrals_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_my_referrals_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_card_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_card_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_overlay_nudge_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_overlay_nudge_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pending_referrals_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pending_referrals_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__graph_time_scale_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/graph_time_scale_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_performance_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_performance_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__recommend_category_popup_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/recommend_category_popup_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__discard_catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/discard_catalog_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_faq_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_faq_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__successful_referrals_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/successful_referrals_clicked</t>
+  </si>
+  <si>
+    <t>silver.inventory__product_supplier_variation_identifier_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inventory/product_supplier_variation_identifier_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_tnc_menu_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_tnc_menu_interacted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_update_app_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_update_app_page_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__scratch_card_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__bank_details_verified_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/bank_details_verified</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__address_popup_displayed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/address_popup_displayed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__NPP_Modal_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/NPP_Modal_shown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmsio__order_cancel_option_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmsio/order_cancel_option_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_page_load_started_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_page_load_started</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_attributes_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancel_next_step_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancel_next_step</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_upload_clicked_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_clicked_mweb</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__user_unserviceable_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/user_unserviceable</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_category_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_category_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__extractor_stats_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/extractor_stats</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__select_category_clicked_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/select_category_clicked_mweb</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_customer_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_customer_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_401_code_received_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_401_code_received</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__price_calculator_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/price_calculator_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__forgot_password_email_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/forgot_password_email_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sx_discoverability_tool_tip_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_discoverability_tool_tip_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__gender_selection_widget_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/gender_selection_widget_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__need_help_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/need_help_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__navigation_bar_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/navigation_bar_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_image_verified_successfully_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_image_verified_successfully</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__delete_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/delete_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_other_same_category_stream_card_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_stream_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_pickup_failed_card_odp_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_card_odp</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ff_real_estate_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_filter_reset_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_reset_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancel_confirm_modal_action_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancel_confirm_modal_action</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__open_order_card_swiped_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/open_order_card_swiped_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ftux_for_burn_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ftux_for_burn_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_self_support_disposition_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_self_support_disposition_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delivery_info_step_loaded_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_info_step_loaded</t>
+  </si>
+  <si>
+    <t>silver.central_web__cso_errors_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/central_web/cso_errors</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cronet_init_failed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cronet_init_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_edit_image_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_image_added</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_product_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__gst_apply_now_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/gst_apply_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__a2hs_modal_dismissed_custom_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_modal_dismissed_custom</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__qpd_l1_tab_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_tab_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cross_sell_bottom_sheet_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cross_sell_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__primary_filter_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__clicked_create_new_ad_campaign_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/clicked_create_new_ad_campaign</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__anonymous_become_meesho_supplier_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/anonymous_become_meesho_supplier_page_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_past_video_backward_control_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_backward_control</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_other_same_category_video_section_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_video_section_viewed</t>
+  </si>
+  <si>
+    <t>silver.offer_platform__meesho_offers_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/offer_platform/meesho_offers</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__continue_generic_upload_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/continue_generic_upload</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_incentive_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentive_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__courier_partner_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/courier_partner_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_bid_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_bid_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__submit_catalog_clicked_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/submit_catalog_clicked_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__view_all_items_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/view_all_items_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_video_ready_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_video_ready</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mba_call_us_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_call_us_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__return_reason_log_change_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/return_reason_log_change</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__contact_permission_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/contact_permission_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pit_pre_animation_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_pre_animation_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_more_products_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_more_products_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_product_added_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_product_added_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_product_map_sync_final_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_sync_final</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_catalogs_fetch_failed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetch_failed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reinstall_login_screen_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reinstall_login_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.merchandising__merchandising_catalog_listing_pages_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/merchandising_catalog_listing_pages</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_page_load_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_page_load_completed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_new_live_timer_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_new_live_timer_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ipp_pricing_panel_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ipp_pricing_panel_opened</t>
+  </si>
+  <si>
+    <t>silver.msg_ums__mrp_validation_failure_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ums/mrp_validation_failure</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_images_deleted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_images_deleted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__image_removed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/image_removed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_creator_live_stream_transmission_stats_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_live_stream_transmission_stats</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reason_selected_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reason_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_consent_check_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_consent_check</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__contact_permission_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/contact_permission_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__notification_permission_status_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/notification_permission_status_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_incentive_card_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentive_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_commission_payout_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_commission_payout_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__front_image_changed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/front_image_changed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_saw_invalid_address_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_saw_invalid_address</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_screen_final_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_screen_final</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__primary_filter_applied_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_live_stream_ended_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_stream_ended</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_catalog_unpinned_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_unpinned</t>
+  </si>
+  <si>
+    <t>silver.msg_growth__user_address_details_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth/user_address_details_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_unserviceable_discovery_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_unserviceable_discovery</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_pre_sign_up_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_pre_sign_up_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_website_launch_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_website_launch</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__safety_banner_in_order_confirmation_page_cta_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/safety_banner_in_order_confirmation_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_fod_popup_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_join_bid_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_join_bid_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__supplier_on_hold_orders_v1_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/supplier_on_hold_orders_v1</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_typing_started_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_typing_started</t>
+  </si>
+  <si>
+    <t>silver.msg_merchandising__widget_document_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_merchandising/widget_document</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__instagram_xdom_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/instagram_xdom</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_category_navigation_card_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_category_navigation_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_login_page_register_button_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_login_page_register_button_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.community__community_posts_audit_log_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_posts_audit_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_shared_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_shared</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sx_subcategory_search_box_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_subcategory_search_box_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__call_customer_support_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/call_customer_support_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_help_now_share_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_help_now_share</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__bd_date_filter_applied_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/bd_date_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_typing_not_completed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_typing_not_completed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_pincode_validation_logs_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_pincode_validation_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__add_products_to_sale_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/add_products_to_sale_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_bidding_page_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_bidding_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_search_used_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_used_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_page_shop_now_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_page_shop_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__add_more_items_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/add_more_items_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_view_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_view</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__nps_ratings_data_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/nps_ratings_data</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_update_app_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_update_app_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__single_upload_tooltip_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/single_upload_tooltip_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_filter_removed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_filter_removed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_video_load_start_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_video_load_start</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delete_order_confirmed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delete_order_confirmed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__new_address_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/new_address_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_home_page_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_home_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__scan_and_pack_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/scan_and_pack_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__challenge_reward_claimed_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/challenge_reward_claimed_events</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_weekly_sale_communication_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_weekly_sale_communication_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__select_catalog_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/select_catalog_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_user_locked_challenge_map_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_user_locked_challenge_map</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_user_post_share_maps_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_user_post_share_maps</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__cla_cpc_edit_mode_during_creation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/cla_cpc_edit_mode_during_creation</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_ums__supplier_fraud_status_scores_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_ums/supplier_fraud_status_scores</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_login_page_forgot_password_button_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_login_page_forgot_password_button_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__api_call_event_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/api_call_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__add_address_failed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/add_address_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__rupee_one_deal_on_store_page_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/rupee_one_deal_on_store_page</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__pricing_recommendations_tab_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/pricing_recommendations_tab_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_ad__ad_campaign_management_interaction_events_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ad/ad_campaign_management_interaction_events</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_deal_banner_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_deal_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__margin_earnings_page_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/margin_earnings_page_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__hp_widget_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__search_category_results_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_results_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_balance_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_balance_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__catalog_view_details_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/catalog_view_details_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__tutorial_video_clicked_upload_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/tutorial_video_clicked_upload_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__save_and_add_products_to_sale_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/save_and_add_products_to_sale_clicked</t>
+  </si>
+  <si>
+    <t>silver.community__community_user_post_bookmark_maps_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_user_post_bookmark_maps</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__invalid_address_error_thrown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/invalid_address_error_thrown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_performace_tabs_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_performace_tabs_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_referral_invite_input_validation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_invite_input_validation</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__onb_mixpanel_identity_merge_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/onb_mixpanel_identity_merge</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_popup_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_popup_clicked</t>
+  </si>
+  <si>
+    <t>silver.devops__ivs_metrics_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/devops/ivs_metrics</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__npp_price_recommedation_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_recommedation_shown</t>
+  </si>
+  <si>
+    <t>silver.fraud_supplier_platform__ni_suppliers_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/fraud_supplier_platform/product_duplicacy_exception_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bank_details_consent_check_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bank_details_consent_check</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_product_strip_scrolled_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_product_strip_scrolled</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__entity_payout_state_details_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/entity_payout_state_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_view_all_closed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_view_all_closed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__courier_partner_page_interacted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/courier_partner_page_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_answer_feedback_given_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_answer_feedback_given_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_add_bank_doc_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_add_bank_doc_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__category_tree_interacted_mweb_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/category_tree_interacted_mweb</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__progress_bar_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/progress_bar_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_creator_pit_shown_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_pit_shown</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_total_changed_bottom_sheet_viewed_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_total_changed_bottom_sheet_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mba_video_play_milestone_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_video_play_milestone</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__gif_view_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/gif_view</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_earnings_page_visited_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_earnings_page_visited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_website_launch_new_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_website_launch_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_bazaar_section_product_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_section_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_start_live_clicked_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_start_live_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__all_offer_opened_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/all_offer_opened</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_dealer_payout_aggregation_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_dealer_payout_aggregation</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__retry_pickup_user_response_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/retry_pickup_user_response</t>
+  </si>
+  <si>
+    <t>silver.farmiso__consignments_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/consignments</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__bank_details_submitted_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/bank_details_submitted</t>
+  </si>
+  <si>
+    <t>silver.loyalty__catalog_opt_detail_26dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/catalog_opt_detail</t>
   </si>
 </sst>
 </file>
@@ -2111,12 +3665,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2424,14 +3975,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="68.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="68.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -5052,1403 +6603,2223 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B343" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
+      <c r="A344" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
-      <c r="A344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>686</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
-      <c r="A345" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>686</v>
+      <c r="A345" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
-      <c r="A346" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>686</v>
+      <c r="A346" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
-      <c r="A347" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>686</v>
+      <c r="A347" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
-      <c r="A348" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>686</v>
+      <c r="A348" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
-      <c r="A349" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>686</v>
+      <c r="A349" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
-      <c r="A350" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>686</v>
+      <c r="A350" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
-      <c r="A351" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>686</v>
+      <c r="A351" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
-      <c r="A352" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>686</v>
+      <c r="A352" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
-      <c r="A353" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>686</v>
+      <c r="A353" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
-      <c r="A354" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>686</v>
+      <c r="A354" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
-      <c r="A355" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>686</v>
+      <c r="A355" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
-      <c r="A356" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>686</v>
+      <c r="A356" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
-      <c r="A357" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>686</v>
+      <c r="A357" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
-      <c r="A358" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>686</v>
+      <c r="A358" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
-      <c r="A359" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>686</v>
+      <c r="A359" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
-      <c r="A360" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>686</v>
+      <c r="A360" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
-      <c r="A361" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>686</v>
+      <c r="A361" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
-      <c r="A362" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>686</v>
+      <c r="A362" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
-      <c r="A363" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>686</v>
+      <c r="A363" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
-      <c r="A364" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>686</v>
+      <c r="A364" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>726</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
-      <c r="A365" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>686</v>
+      <c r="A365" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
-      <c r="A366" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>686</v>
+      <c r="A366" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
-      <c r="A367" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>686</v>
+      <c r="A367" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>732</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
-      <c r="A368" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>686</v>
+      <c r="A368" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>734</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
-      <c r="A369" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>686</v>
+      <c r="A369" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
-      <c r="A370" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>686</v>
+      <c r="A370" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>738</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
-      <c r="A371" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>686</v>
+      <c r="A371" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
-      <c r="A372" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>686</v>
+      <c r="A372" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
-      <c r="A373" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>686</v>
+      <c r="A373" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
-      <c r="A374" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>686</v>
+      <c r="A374" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>746</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
-      <c r="A375" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>686</v>
+      <c r="A375" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
-      <c r="A376" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>686</v>
+      <c r="A376" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
-      <c r="A377" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>686</v>
+      <c r="A377" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
-      <c r="A378" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>686</v>
+      <c r="A378" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
-      <c r="A379" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>686</v>
+      <c r="A379" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
-      <c r="A380" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>686</v>
+      <c r="A380" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
-      <c r="A381" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>686</v>
+      <c r="A381" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
-      <c r="A382" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>686</v>
+      <c r="A382" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
-      <c r="A383" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>686</v>
+      <c r="A383" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>764</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
-      <c r="A384" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>686</v>
+      <c r="A384" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
-      <c r="A385" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>686</v>
+      <c r="A385" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
-      <c r="A386" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>686</v>
+      <c r="A386" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>770</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
-      <c r="A387" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>686</v>
+      <c r="A387" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
-      <c r="A388" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>686</v>
+      <c r="A388" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
-      <c r="A389" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>686</v>
+      <c r="A389" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
-      <c r="A390" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>686</v>
+      <c r="A390" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
-      <c r="A391" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>686</v>
+      <c r="A391" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>780</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
-      <c r="A392" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>686</v>
+      <c r="A392" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
-      <c r="A393" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>686</v>
+      <c r="A393" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>784</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
-      <c r="A394" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>686</v>
+      <c r="A394" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>786</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
-      <c r="A395" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>686</v>
+      <c r="A395" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
-      <c r="A396" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>686</v>
+      <c r="A396" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
-      <c r="A397" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>686</v>
+      <c r="A397" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>792</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
-      <c r="A398" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>686</v>
+      <c r="A398" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
-      <c r="A399" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>686</v>
+      <c r="A399" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
-      <c r="A400" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>686</v>
+      <c r="A400" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>798</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
-      <c r="A401" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>686</v>
+      <c r="A401" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>800</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
-      <c r="A402" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>686</v>
+      <c r="A402" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>802</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
-      <c r="A403" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>686</v>
+      <c r="A403" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
-      <c r="A404" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>686</v>
+      <c r="A404" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>806</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
-      <c r="A405" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>686</v>
+      <c r="A405" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>808</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
-      <c r="A406" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>686</v>
+      <c r="A406" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>810</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
-      <c r="A407" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>686</v>
+      <c r="A407" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>812</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
-      <c r="A408" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>686</v>
+      <c r="A408" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>814</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
-      <c r="A409" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>686</v>
+      <c r="A409" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
-      <c r="A410" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>686</v>
+      <c r="A410" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
-      <c r="A411" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>686</v>
+      <c r="A411" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
-      <c r="A412" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>686</v>
+      <c r="A412" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
-      <c r="A413" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>686</v>
+      <c r="A413" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>824</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
-      <c r="A414" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>686</v>
+      <c r="A414" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>826</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
-      <c r="A415" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>686</v>
+      <c r="A415" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
-      <c r="A416" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>686</v>
+      <c r="A416" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
-      <c r="A417" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>686</v>
+      <c r="A417" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>832</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
-      <c r="A418" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>686</v>
+      <c r="A418" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
-      <c r="A419" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>686</v>
+      <c r="A419" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>836</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
-      <c r="A420" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>686</v>
+      <c r="A420" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
-      <c r="A421" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>686</v>
+      <c r="A421" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
-      <c r="A422" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>686</v>
+      <c r="A422" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>842</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
-      <c r="A423" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>686</v>
+      <c r="A423" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>844</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
-      <c r="A424" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>686</v>
+      <c r="A424" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
-      <c r="A425" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>686</v>
+      <c r="A425" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>848</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
-      <c r="A426" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>686</v>
+      <c r="A426" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
-      <c r="A427" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>686</v>
+      <c r="A427" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
-      <c r="A428" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>686</v>
+      <c r="A428" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
-      <c r="A429" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>686</v>
+      <c r="A429" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>856</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
-      <c r="A430" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>686</v>
+      <c r="A430" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
-      <c r="A431" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>686</v>
+      <c r="A431" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>860</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
-      <c r="A432" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>686</v>
+      <c r="A432" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>862</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
-      <c r="A433" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>686</v>
+      <c r="A433" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>864</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
+      <c r="A434" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
-      <c r="A435" s="1"/>
-      <c r="B435" s="1"/>
+      <c r="A435" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
-      <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
+      <c r="A436" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
+      <c r="A437" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
-      <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
+      <c r="A438" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
-      <c r="A439" s="1"/>
-      <c r="B439" s="1"/>
+      <c r="A439" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
+      <c r="A440" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
-      <c r="A441" s="1"/>
-      <c r="B441" s="1"/>
+      <c r="A441" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
-      <c r="A442" s="1"/>
-      <c r="B442" s="1"/>
+      <c r="A442" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
-      <c r="A443" s="1"/>
-      <c r="B443" s="1"/>
+      <c r="A443" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
-      <c r="A444" s="1"/>
-      <c r="B444" s="1"/>
+      <c r="A444" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
-      <c r="A445" s="1"/>
-      <c r="B445" s="1"/>
+      <c r="A445" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
+      <c r="A446" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
-      <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
+      <c r="A447" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
-      <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
+      <c r="A448" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
-      <c r="A449" s="1"/>
-      <c r="B449" s="1"/>
+      <c r="A449" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
-      <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
+      <c r="A450" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
-      <c r="A451" s="1"/>
-      <c r="B451" s="1"/>
+      <c r="A451" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
+      <c r="A452" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
-      <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
+      <c r="A453" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
-      <c r="A454" s="1"/>
-      <c r="B454" s="1"/>
+      <c r="A454" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
-      <c r="A455" s="1"/>
-      <c r="B455" s="1"/>
+      <c r="A455" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
-      <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
+      <c r="A456" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
-      <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
+      <c r="A457" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
-      <c r="A458" s="1"/>
-      <c r="B458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
-      <c r="A459" s="1"/>
-      <c r="B459" s="1"/>
+      <c r="A459" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
-      <c r="A460" s="1"/>
-      <c r="B460" s="1"/>
+      <c r="A460" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
-      <c r="A461" s="1"/>
-      <c r="B461" s="1"/>
+      <c r="A461" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
-      <c r="A462" s="1"/>
-      <c r="B462" s="1"/>
+      <c r="A462" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
-      <c r="A463" s="1"/>
-      <c r="B463" s="1"/>
+      <c r="A463" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
-      <c r="A464" s="1"/>
-      <c r="B464" s="1"/>
+      <c r="A464" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
-      <c r="A465" s="1"/>
-      <c r="B465" s="1"/>
+      <c r="A465" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
-      <c r="A466" s="1"/>
-      <c r="B466" s="1"/>
+      <c r="A466" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
-      <c r="A467" s="1"/>
-      <c r="B467" s="1"/>
+      <c r="A467" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
-      <c r="A468" s="1"/>
-      <c r="B468" s="1"/>
+      <c r="A468" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
-      <c r="A469" s="1"/>
-      <c r="B469" s="1"/>
+      <c r="A469" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
-      <c r="A470" s="1"/>
-      <c r="B470" s="1"/>
+      <c r="A470" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
-      <c r="A471" s="1"/>
-      <c r="B471" s="1"/>
+      <c r="A471" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
-      <c r="A472" s="1"/>
-      <c r="B472" s="1"/>
+      <c r="A472" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
-      <c r="A473" s="1"/>
-      <c r="B473" s="1"/>
+      <c r="A473" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
-      <c r="A474" s="1"/>
-      <c r="B474" s="1"/>
+      <c r="A474" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
-      <c r="A475" s="1"/>
-      <c r="B475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
-      <c r="A476" s="1"/>
-      <c r="B476" s="1"/>
+      <c r="A476" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
-      <c r="A477" s="1"/>
-      <c r="B477" s="1"/>
+      <c r="A477" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
-      <c r="A478" s="1"/>
-      <c r="B478" s="1"/>
+      <c r="A478" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
-      <c r="A479" s="1"/>
-      <c r="B479" s="1"/>
+      <c r="A479" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
-      <c r="A480" s="1"/>
-      <c r="B480" s="1"/>
+      <c r="A480" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
-      <c r="A481" s="1"/>
-      <c r="B481" s="1"/>
+      <c r="A481" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
-      <c r="A482" s="1"/>
-      <c r="B482" s="1"/>
+      <c r="A482" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
+      <c r="A483" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
-      <c r="A484" s="1"/>
-      <c r="B484" s="1"/>
+      <c r="A484" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
-      <c r="A485" s="1"/>
-      <c r="B485" s="1"/>
+      <c r="A485" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
-      <c r="A486" s="1"/>
-      <c r="B486" s="1"/>
+      <c r="A486" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
-      <c r="A487" s="1"/>
-      <c r="B487" s="1"/>
+      <c r="A487" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
-      <c r="A488" s="1"/>
-      <c r="B488" s="1"/>
+      <c r="A488" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
-      <c r="A489" s="1"/>
-      <c r="B489" s="1"/>
+      <c r="A489" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
-      <c r="A490" s="1"/>
-      <c r="B490" s="1"/>
+      <c r="A490" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
-      <c r="A491" s="1"/>
-      <c r="B491" s="1"/>
+      <c r="A491" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
-      <c r="A492" s="1"/>
-      <c r="B492" s="1"/>
+      <c r="A492" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
-      <c r="A493" s="1"/>
-      <c r="B493" s="1"/>
+      <c r="A493" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
-      <c r="A494" s="1"/>
-      <c r="B494" s="1"/>
+      <c r="A494" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
-      <c r="A495" s="1"/>
-      <c r="B495" s="1"/>
+      <c r="A495" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
-      <c r="A496" s="1"/>
-      <c r="B496" s="1"/>
+      <c r="A496" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
-      <c r="A497" s="1"/>
-      <c r="B497" s="1"/>
+      <c r="A497" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
-      <c r="A498" s="1"/>
-      <c r="B498" s="1"/>
+      <c r="A498" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
-      <c r="A499" s="1"/>
-      <c r="B499" s="1"/>
+      <c r="A499" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
-      <c r="A500" s="1"/>
-      <c r="B500" s="1"/>
+      <c r="A500" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
-      <c r="A501" s="1"/>
-      <c r="B501" s="1"/>
+      <c r="A501" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
-      <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
+      <c r="A502" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
-      <c r="A503" s="1"/>
-      <c r="B503" s="1"/>
+      <c r="A503" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
-      <c r="A504" s="1"/>
-      <c r="B504" s="1"/>
+      <c r="A504" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
-      <c r="A505" s="1"/>
-      <c r="B505" s="1"/>
+      <c r="A505" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
-      <c r="A506" s="1"/>
-      <c r="B506" s="1"/>
+      <c r="A506" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
-      <c r="A507" s="1"/>
-      <c r="B507" s="1"/>
+      <c r="A507" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
-      <c r="A508" s="1"/>
-      <c r="B508" s="1"/>
+      <c r="A508" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
-      <c r="A509" s="1"/>
-      <c r="B509" s="1"/>
+      <c r="A509" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
-      <c r="A510" s="1"/>
-      <c r="B510" s="1"/>
+      <c r="A510" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
-      <c r="A511" s="1"/>
-      <c r="B511" s="1"/>
+      <c r="A511" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
-      <c r="A512" s="1"/>
-      <c r="B512" s="1"/>
+      <c r="A512" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
-      <c r="A513" s="1"/>
-      <c r="B513" s="1"/>
+      <c r="A513" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
-      <c r="A514" s="1"/>
-      <c r="B514" s="1"/>
+      <c r="A514" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
-      <c r="A515" s="1"/>
-      <c r="B515" s="1"/>
+      <c r="A515" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
-      <c r="A516" s="1"/>
-      <c r="B516" s="1"/>
+      <c r="A516" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
-      <c r="A517" s="1"/>
-      <c r="B517" s="1"/>
+      <c r="A517" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
-      <c r="A518" s="1"/>
-      <c r="B518" s="1"/>
+      <c r="A518" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
-      <c r="A519" s="1"/>
-      <c r="B519" s="1"/>
+      <c r="A519" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
-      <c r="A520" s="1"/>
-      <c r="B520" s="1"/>
+      <c r="A520" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
-      <c r="A521" s="1"/>
-      <c r="B521" s="1"/>
+      <c r="A521" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
-      <c r="A522" s="1"/>
-      <c r="B522" s="1"/>
+      <c r="A522" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
-      <c r="A523" s="1"/>
-      <c r="B523" s="1"/>
+      <c r="A523" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
-      <c r="A524" s="1"/>
-      <c r="B524" s="1"/>
+      <c r="A524" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
-      <c r="A525" s="1"/>
-      <c r="B525" s="1"/>
+      <c r="A525" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
-      <c r="A526" s="1"/>
-      <c r="B526" s="1"/>
+      <c r="A526" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
-      <c r="A527" s="1"/>
-      <c r="B527" s="1"/>
+      <c r="A527" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
-      <c r="A528" s="1"/>
-      <c r="B528" s="1"/>
+      <c r="A528" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
-      <c r="A529" s="1"/>
-      <c r="B529" s="1"/>
+      <c r="A529" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
-      <c r="A530" s="1"/>
-      <c r="B530" s="1"/>
+      <c r="A530" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
-      <c r="A531" s="1"/>
-      <c r="B531" s="1"/>
+      <c r="A531" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
-      <c r="A532" s="1"/>
-      <c r="B532" s="1"/>
+      <c r="A532" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
-      <c r="A533" s="1"/>
-      <c r="B533" s="1"/>
+      <c r="A533" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
-      <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
+      <c r="A534" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
-      <c r="A535" s="1"/>
-      <c r="B535" s="1"/>
+      <c r="A535" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
-      <c r="A536" s="1"/>
-      <c r="B536" s="1"/>
+      <c r="A536" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
-      <c r="A537" s="1"/>
-      <c r="B537" s="1"/>
+      <c r="A537" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
-      <c r="A538" s="1"/>
-      <c r="B538" s="1"/>
+      <c r="A538" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
-      <c r="A539" s="1"/>
-      <c r="B539" s="1"/>
+      <c r="A539" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
-      <c r="A540" s="1"/>
-      <c r="B540" s="1"/>
+      <c r="A540" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
-      <c r="A541" s="1"/>
-      <c r="B541" s="1"/>
+      <c r="A541" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
-      <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
+      <c r="A542" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
-      <c r="A543" s="1"/>
-      <c r="B543" s="1"/>
+      <c r="A543" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
-      <c r="A544" s="1"/>
-      <c r="B544" s="1"/>
+      <c r="A544" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
-      <c r="A545" s="1"/>
-      <c r="B545" s="1"/>
+      <c r="A545" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
-      <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
+      <c r="A546" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
-      <c r="A547" s="1"/>
-      <c r="B547" s="1"/>
+      <c r="A547" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
-      <c r="A548" s="1"/>
-      <c r="B548" s="1"/>
+      <c r="A548" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
-      <c r="A549" s="1"/>
-      <c r="B549" s="1"/>
+      <c r="A549" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
-      <c r="A550" s="1"/>
-      <c r="B550" s="1"/>
+      <c r="A550" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
-      <c r="A551" s="1"/>
-      <c r="B551" s="1"/>
+      <c r="A551" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
-      <c r="A552" s="1"/>
-      <c r="B552" s="1"/>
+      <c r="A552" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
-      <c r="A553" s="1"/>
-      <c r="B553" s="1"/>
+      <c r="A553" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
-      <c r="A554" s="1"/>
-      <c r="B554" s="1"/>
+      <c r="A554" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
-      <c r="A555" s="1"/>
-      <c r="B555" s="1"/>
+      <c r="A555" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
-      <c r="A556" s="1"/>
-      <c r="B556" s="1"/>
+      <c r="A556" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
-      <c r="A557" s="1"/>
-      <c r="B557" s="1"/>
+      <c r="A557" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
-      <c r="A558" s="1"/>
-      <c r="B558" s="1"/>
+      <c r="A558" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
-      <c r="A559" s="1"/>
-      <c r="B559" s="1"/>
+      <c r="A559" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
-      <c r="A560" s="1"/>
-      <c r="B560" s="1"/>
+      <c r="A560" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
-      <c r="A561" s="1"/>
-      <c r="B561" s="1"/>
+      <c r="A561" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
-      <c r="A562" s="1"/>
-      <c r="B562" s="1"/>
+      <c r="A562" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
-      <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
+      <c r="A563" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
-      <c r="A564" s="1"/>
-      <c r="B564" s="1"/>
+      <c r="A564" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
-      <c r="A565" s="1"/>
-      <c r="B565" s="1"/>
+      <c r="A565" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
-      <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
+      <c r="A566" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
-      <c r="A567" s="1"/>
-      <c r="B567" s="1"/>
+      <c r="A567" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
-      <c r="A568" s="1"/>
-      <c r="B568" s="1"/>
+      <c r="A568" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
-      <c r="A569" s="1"/>
-      <c r="B569" s="1"/>
+      <c r="A569" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
-      <c r="A570" s="1"/>
-      <c r="B570" s="1"/>
+      <c r="A570" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
-      <c r="A571" s="1"/>
-      <c r="B571" s="1"/>
+      <c r="A571" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
+      <c r="A572" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
+      <c r="A573" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
+      <c r="A574" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
+      <c r="A575" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
+      <c r="A576" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
+      <c r="A577" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
+      <c r="A578" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
+      <c r="A579" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
+      <c r="A580" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
+      <c r="A581" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
+      <c r="A582" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
+      <c r="A583" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
+      <c r="A584" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
+      <c r="A585" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
+      <c r="A586" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
+      <c r="A587" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
+      <c r="A588" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
+      <c r="A589" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
+      <c r="A590" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
+      <c r="A591" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
+      <c r="A592" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
+      <c r="A593" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
+      <c r="A594" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
+      <c r="A595" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
+      <c r="A596" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
+      <c r="A597" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
+      <c r="A598" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
+      <c r="A599" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
+      <c r="A600" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
+      <c r="A601" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
+      <c r="A602" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
+      <c r="A603" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="823">
   <si>
     <t>job_name</t>
   </si>
@@ -22,2680 +22,2464 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.msg_ums__supplier_incentive_ab_properties_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ums/supplier_incentive_ab_properties</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__model_job_status_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/model_job_status_log</t>
-  </si>
-  <si>
-    <t>silver.msg_growth__gm_facebook_product_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth/gm_facebook_product_summary</t>
-  </si>
-  <si>
-    <t>silver.payment_communication__suspected_user_account_detail_updates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_communication/suspected_user_account_detail_updates</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__select_variant_type_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/select_variant_type_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_university_home_page_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_university_home_page</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_contact_permission_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_contact_permission_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_how_to_refer_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_how_to_refer_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_find_ifsc_popup_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_find_ifsc_popup_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__scratch_card_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__raise_refund_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/raise_refund_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_optin_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_optin_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_catalog_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_change_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_link_copied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_link_copied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reinstall_login_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reinstall_login_accepted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_contact_permission_popup_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_contact_permission_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__call_customer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/call_customer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__anonymous_user_discovery_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_user_discovery</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_timer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_timer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_email_us_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_email_us_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__last_used_category_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/last_used_category_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_details_ssr_failure_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_details_ssr_failure</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_loot_plp_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_plp_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_offer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_offer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__join_group_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/join_group_clicked</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__recommendation_service_product_recommendation_rejected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/recommendation_service_product_recommendation_rejected</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_google_ad_event_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_google_ad_event_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_top_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_top_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__primary_filter_cleared_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_cleared</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_incentives_home_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentives_home_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_creator_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_ended_cta_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_ended_cta_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_modal_opens_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_modal_opens</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_name_entered_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_name_entered_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_total_changed_bottom_sheet_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_total_changed_bottom_sheet_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_swiped_down_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_swiped_down</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_more_insights_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_more_insights_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_catalog_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_catalog</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__graph_timeline_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/graph_timeline_clicked</t>
-  </si>
-  <si>
-    <t>silver.advertisement__vg_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/vg_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__switch_product_changed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/switch_product_changed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_3pl_status_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_3pl_status_change_log_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_university_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_university_video_watched</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_plp_pit_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_pit_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_growth__user_login_blocked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth/user_login_blocked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_live_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_started</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_cancel_confirmation_bottomsheet_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_cancel_confirmation_bottomsheet</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_pickup_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_pickup</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_box_used_wdrp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_box_used_wdrp</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_catalog_view_all_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_view_all_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_live_category_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_pill_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_pill_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__adherence_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/adherence_metric</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__view_refund_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/view_refund_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_store_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_store_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.ads_credit__campaign_credit_allocated_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ads_credit/campaign_credit_allocated</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_onboarding_flow_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_onboarding_flow_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__customer_map_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/customer_map_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_must_see_tab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_must_see_tab_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__search_typing_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/search_typing_started</t>
-  </si>
-  <si>
-    <t>silver.gamification__gamification_user_challenge_reward_tracker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/gamification_user_challenge_reward_tracker</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__channel_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/channel</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__supplier_support_ticket_queued_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/supplier_support_ticket_queued</t>
-  </si>
-  <si>
-    <t>silver.msg_ums__supplier_leave_track_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ums/supplier_leave_track</t>
-  </si>
-  <si>
-    <t>silver.campaign_performance__advertisement_rds_campaign_performance_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/campaign_performance/advertisement_rds_campaign_performance</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_slider_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_slider_used</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_product_card_video_option_badge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_video_option_badge_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__shipsy_consignment_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/shipsy_consignment_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cart_updated_popup_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cart_updated_popup_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__not_invited_referrals_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/not_invited_referrals_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_social_proofing_message_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_social_proofing_message_clicked_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__offer_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/offer_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_self_support_feedback_submitted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_self_support_feedback_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_clicked</t>
-  </si>
-  <si>
-    <t>silver.ab__experiments_cdc_history_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/experiments_cdc_history</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_invite_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_invite_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_modal_close_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_modal_close</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__remind_me_notification_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/remind_me_notification</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_clicked_custom_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_clicked_custom</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_more_products_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_more_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__supplier_ticket_feedback_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/supplier_ticket_feedback</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_post_tag_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_post_tag_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__blocked_duplicate_tab_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/blocked_duplicate_tab_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__unservicable_page_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/unservicable_page_loaded</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__manifest_self_pickup_service_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/manifest_self_pickup_service_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_gratification_modal_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_gratification_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edited_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edited_accepted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_collections_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_collections_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__call_champion_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/call_champion_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__refund_summary_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/refund_summary_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__share_screenshot_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/share_screenshot_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_fod_popup_cross_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_cross_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_weekly_sale_top_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_weekly_sale_top_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_other_feature_link_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_other_feature_link_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_creator_internet_speed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_internet_speed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_templates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_templates</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_loot_deals_top_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_loot_deals_top_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__resume_upload_popup_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/resume_upload_popup_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealers_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealers</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_return_confirmation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_return_confirmation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_box_used_mp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_box_used_mp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_user_type_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_user_type_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_view_claims_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_view_claims_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__early_payments_banner_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/early_payments_banner_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mixpanel_payment_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mixpanel_payment_failed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__filter_back_pressed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/filter_back_pressed</t>
-  </si>
-  <si>
-    <t>silver.msg_prism__pagerduty_log_entries_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_prism/pagerduty_log_entries</t>
-  </si>
-  <si>
-    <t>silver.inhouse_rte_v2__anonymous_product_shared_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_rte_v2/anonymous_product_shared</t>
-  </si>
-  <si>
-    <t>silver.community__reel_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/reel</t>
-  </si>
-  <si>
-    <t>silver.community__key_frame_reel_mapping_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/key_frame_reel_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__add_variant_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/add_variant_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_recommendations_tab_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_recommendations_tab_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_animation_appears_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_animation_appears</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__address_form_selective_friction_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/address_form_selective_friction</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__hp_top_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_top_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_accept_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_accept_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_how_it_works_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_how_it_works_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_end_live_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_end_live_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__support_clicked_upload_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/support_clicked_upload_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__meesho_price_edited_npp_bulk_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/meesho_price_edited_npp_bulk</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l2_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l2_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__need_assistance_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/need_assistance_clicked</t>
-  </si>
-  <si>
-    <t>silver.community__community_user_comment_like_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_user_comment_like_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_submitted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_submitted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__referral_program_enabled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/referral_program_enabled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__super_store_wallet_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/super_store_wallet_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_past_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_past_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_fees_section_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_fees_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_viewed</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_offer_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_offer_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_accepted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__self_support_sign_up_success_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/self_support_sign_up_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_offer_bottom_sheet_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_offer_bottom_sheet_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_product_card_widget_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_reject_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_reject_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_addresses_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_addresses</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__show_more_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/show_more_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__all_offers_page_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/all_offers_page_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__size_chart_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/size_chart_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_app_open_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_app_open</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__referral_banner_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/referral_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__find_hsn_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/find_hsn_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__reg_help_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/reg_help_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_variant_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_variant_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_closed</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__model_stats_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/model_stats</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmsio__review_cart_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmsio/review_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_added_address_in_vernac_script_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_added_address_in_vernac_script</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_recommedation_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_recommedation_accepted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_clicked_google_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_clicked_google</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_details_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_details_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.msg_packaging__packet_info_data_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_packaging/packet_info_data</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_upload_photo_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_upload_photo_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_payment_mode_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_payment_mode_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_rejected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_rejected</t>
-  </si>
-  <si>
-    <t>silver.ctqct_v2__ds_feed_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ctqct_v2/ds_feed_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_ff_real_estate_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__budget_entered_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/budget_entered_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_onboarding_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_watched</t>
-  </si>
-  <si>
-    <t>silver.prism_ui__users_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/prism_ui/users</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_play_button_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_play_button</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_video_watched</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_connect_to_wifi_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_connect_to_wifi_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_swipe_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_swipe</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_page_load_time_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_page_load_time</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_recommedation_edited_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_recommedation_edited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_calculator_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_calculator_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_upload_image_modal_interactions_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_upload_image_modal_interactions</t>
-  </si>
-  <si>
-    <t>silver.cart__blocked_user_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cart/blocked_user</t>
-  </si>
-  <si>
-    <t>silver.farmiso__customer_sub_order_ratings_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/customer_sub_order_ratings</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__draft_popup_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/draft_popup_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_pre_buzz_sale_strip_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_pre_buzz_sale_strip_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__your_category_discarded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_discarded</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_ds_feeds_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_ds_feeds_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_action_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_action_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__create_new_request_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/create_new_request_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_call_customer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_call_customer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_add_to_cart_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_add_to_cart_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_facebook_ad_event_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_facebook_ad_event_summary</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l1_subtab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_subtab_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_prism__pagerduty_incidents_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_prism/pagerduty_incidents</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whatsapp_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whatsapp_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_search_performed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_search_performed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_feedback_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_feedback_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_login_page_initiated_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_login_page_initiated_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_file_uploaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_file_uploaded</t>
-  </si>
-  <si>
-    <t>silver.default__intent_rule_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/intent_rule_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_closed</t>
-  </si>
-  <si>
-    <t>silver.advertisement__catalog_upload_ad_nudge_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/catalog_upload_ad_nudge</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_self_support_sign_up_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_self_support_sign_up_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_emoji_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_emoji_used</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__merchandise_video_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueue_error_refreshfcmtokenworker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueue_error_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__tracking_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/tracking_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.gamification__bidding_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/bidding_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_upload_discard_template_generation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_upload_discard_template_generation</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webviews_address_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webviews_address_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_reco_check_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_reco_check_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_feedback_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_feedback_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mongo_shipments__pin_attributes_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mongo_shipments/pin_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__product_price_perception_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/product_price_perception</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__offer_banner_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/offer_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_update_app_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_update_app_page_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_product_card_widget_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_order_placed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_order_placed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_duration_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_duration_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__get_directions_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/get_directions_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_group_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_group_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_option_final_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_option_final</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__all_offers_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/all_offers_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__complete_now_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/complete_now_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_sound_on_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_sound_on</t>
-  </si>
-  <si>
-    <t>silver.merchandising__banners_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising/banners</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_product_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reinstall_login_change_number_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reinstall_login_change_number_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_loot_pdp_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_pdp_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__character_limit_exceeded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/character_limit_exceeded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_pinned_next_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_pinned_next_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_sound_off_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_sound_off</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__tutorial_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/tutorial_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_dismissed_google_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_dismissed_google</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_gameplay_choice_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_gameplay_choice</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_post_stream_analytics_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_post_stream_analytics_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_choice_selected_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_choice_selected_web</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__share_shop_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/share_shop_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_place_order_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_place_order_failed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.merchandising_dev__widget_group_document_temp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising_dev/widget_group_document_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommendations_tab_price_details_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendations_tab_price_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__edit_address_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/edit_address_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__consignment_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/consignment_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_file_downloaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_file_downloaded</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__generic_sscat_file_upload_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/generic_sscat_file_upload</t>
-  </si>
-  <si>
-    <t>silver.farmiso__refund_cancellation_at_sku_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/refund_cancellation_at_sku</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_coming_soon_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_coming_soon_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.community__community_blocked_users_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_blocked_users</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__diwali_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/diwali_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__merchandising_widget_group_document_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/merchandising_widget_group_document</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__cmb_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/cmb_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_products_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_products</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_07_07_22</t>
-  </si>
-  <si>
-    <t>silver.msg_price__marketplace_deals_create_error_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/marketplace_deals_create_error</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__wg_location_audience_map_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/wg_location_audience_map</t>
-  </si>
-  <si>
-    <t>silver.msg_price__image_index_and_match_failures_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/image_index_and_match_failures</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_atc_buy_now_drawer_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_atc_buy_now_drawer_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_info_step_final_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_info_step_final</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_summary_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_summary_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_add_on_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_add_on_section_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_response_file_downloaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_response_file_downloaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_decks_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_decks_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__gif_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/gif_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_pinned_prev_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_pinned_prev_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__user_state_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/user_state_change_log</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_session_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_session</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__pipeline_append_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/pipeline_append_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_buy_now_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_change_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_back_button_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_back_button_click</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_failed_bottomsheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_bottomsheet_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_add_to_cart_size_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_size_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueue_error_appstrackingworker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueue_error_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__call_me_back_failure_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/call_me_back_failure_details</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__supplier_event_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/supplier_event_metadata</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_update_app_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_update_app_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_child_offer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_child_offer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_viewed_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_viewed_web</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__ds_brp_approval_data_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/ds_brp_approval_data</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_download_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_started</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__user_activation_probability_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/user_activation_probability</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_continue_shopping_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_continue_shopping_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_switch_to_wifi_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_switch_to_wifi_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_coachmark_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_coachmark_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_app_killed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_app_killed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_started</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__pipeline_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/pipeline_new</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__smart_campaign_submitted_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/smart_campaign_submitted_events</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_gameplay_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_gameplay_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__widget_audience_map_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/widget_audience_map</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__unidentified_awbs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/unidentified_awbs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_price_update_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_price_update_clicked</t>
-  </si>
-  <si>
-    <t>silver.address__vernacular_address_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/address/vernacular_address</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_watch_replay_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_watch_replay_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_redemption_hard_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_hard_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_landing_watch_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_landing_watch_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_filter_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__fraud_reseller_block_tracking_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/fraud_reseller_block_tracking_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_creation_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_creation_page_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_recall_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_recall_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_tags_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_tags</t>
-  </si>
-  <si>
-    <t>silver.farmiso__customer_virtual_product_sub_order_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/customer_virtual_product_sub_order_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_commerce_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_commerce_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_back_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_back_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_option_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_option_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__clicked_on_new_catalog_booster_campaign_type_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/clicked_on_new_catalog_booster_campaign_type</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__finance_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/finance_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_gateway__early_payment_eligible_supplier_logs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_gateway/early_payment_eligible_supplier_logs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_feedback_exit_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_feedback_exit_used</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_search_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__smart_campaign_paused_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/smart_campaign_paused_events</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__stream_quality_analysis_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/stream_quality_analysis</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_ended_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_ended</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_nps_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_nps_metric</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_removed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__helpline_number_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/helpline_number_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_earn_callout_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_callout_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_pdp_reco_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_pdp_reco_scrolled</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__sx_otp_rejected_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/sx_otp_rejected_events</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__reco_shortlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/reco_shortlisted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_live_error_occurred_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_error_occurred</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_change_location_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_change_location_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_viewed_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_viewed_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.farmiso__discovery_dealer_social_groups_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/discovery_dealer_social_groups</t>
-  </si>
-  <si>
-    <t>silver.pow__pow_live_website_date_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/pow_live_website_date</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_liked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_liked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_feedback_exit_used_temp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_feedback_exit_used_temp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_commission_details_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_commission_details_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_choice_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_choice_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_nps_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_nps_metric</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_recording_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_recording</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cancel_order_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_order_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_button_clicked_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_button_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_bank_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_bank_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_onboarding_video_skipped_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_skipped</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_stock_counter_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_stock_counter_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_dismissed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_dismissed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__widget_group_location_document_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/widget_group_location_document_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_fod_popup_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__contact_us_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/contact_us_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__datalake_configurations_upsert_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/datalake_configurations_upsert</t>
-  </si>
-  <si>
-    <t>silver.pow__product_count_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/product_count</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_parent_offer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_parent_offer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__dont_cancel_return_confirmation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/dont_cancel_return_confirmation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__champion_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/champion_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_live_category_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_show_more_same_category_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_show_more_same_category_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_resumed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_resumed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_resell_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_resell_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whom_to_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_watched</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_buy_now_continue_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_buy_now_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ss_ftux_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ss_ftux_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_gift_opened_state_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_gift_opened_state_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_search_on_map_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_on_map_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__search_term_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/search_term_click</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_try_again_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_try_again_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_paused_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_paused</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__campaign_live_supplement_budget_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/campaign_live_supplement_budget</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__reco_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/reco_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_calculator_rule_info_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_calculator_rule_info_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__live_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/live_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_image_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_image_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__event_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/event_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__pdp_bottom_sheet_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/pdp_bottom_sheet_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_close_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_close</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ss_ftux_displayed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ss_ftux_displayed</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__event_append_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/event_append_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ads_onboarding_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ads_onboarding_page_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_live_stream_share_page_open_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_live_stream_share_page_open_failed</t>
-  </si>
-  <si>
-    <t>silver.advertisement_rds__ds_feeds_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement_rds/ds_feeds</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_swiped_up_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_swiped_up</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_pick_leaderboard_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_pick_leaderboard_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__warehouse_error_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/warehouse_error</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_game_started_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_game_started_web</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_add_to_cart_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_my_referrals_faq_visited_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_my_referrals_faq_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_contact_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_contact_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_video_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_video_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.incentives__communicator_service_logs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/incentives/communicator_service_logs_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_join_tomorrow_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_join_tomorrow_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ctl_navigation_tab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ctl_navigation_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_streak_popup_view_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_streak_popup_view</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__product_shortlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/product_shortlisted</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__product_uploaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/product_uploaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_cta_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_cta</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_scratched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_scratched</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_share_store_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_share_store_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_winner_buy_now_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_winner_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.growth__image_optimise_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/image_optimise_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_streak_popup_action_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_streak_popup_action</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_real_estate_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_Landing_page_upcoming_stream_card_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_Landing_page_upcoming_stream_card_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_pick_page_game_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_pick_page_game_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_get_more_help_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_get_more_help_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_choice_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_choice</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__latch_on_recommendation_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__availability_status_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/availability_status</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_text_search_high_visibility_order_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_text_search_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_anonymous_user_audit_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_anonymous_user_audit</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_web_view_shown_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_web_view_shown</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_show_more_products_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_show_more_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__create_first_campaign_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/create_first_campaign_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_commerce_notification_template_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_template</t>
-  </si>
-  <si>
-    <t>silver.payments_integration__virtual_bank_account_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payments_integration/virtual_bank_account_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_now_clicked_in_all_offers_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_now_clicked_in_all_offers</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_viewed_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_viewed_new</t>
-  </si>
-  <si>
-    <t>silver.ctqct_v2__scheduler_info_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ctqct_v2/scheduler_info</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_bid_submitted_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_bid_submitted_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__horizontal_scroll_done_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/horizontal_scroll_done</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_view_other_videos_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_view_other_videos_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_widgets_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_widgets</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_autocorrected_queries_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_autocorrected_queries</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__re_product_added_by_offer_widget_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/re_product_added_by_offer_widget</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whom_to_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_wishlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_wishlisted</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_earnings_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_earnings</t>
-  </si>
-  <si>
-    <t>silver.cis__ds_brand_logo_image_for_qc_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/ds_brand_logo_image_for_qc</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_selected_language_on_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_selected_language_on_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ftux_for_earn_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ftux_for_earn_clicked</t>
+    <t>silver.inhouse_android__pow_youtube_page_view_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pow_youtube_page_view</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__latch_on_panel_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/latch_on_panel_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_cmb_on_address_screen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_cmb_on_address_screen</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_unliked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_unliked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_opt_in_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_opt_in_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_add_to_cart_continue_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_continue_on_cmb_on_address_screen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_continue_on_cmb_on_address_screen</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_code_sent_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_code_sent</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__switch_price_savings_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/switch_price_savings_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__edit_flow_wdrp_info_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_wdrp_info_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_scratch_card_option_selected_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_option_selected_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__cvo_offer_applied_pop_up_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/cvo_offer_applied_pop_up_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_share_contact_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_share_contact_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_psvm_update_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_psvm_update_error</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_scratch_card_option_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_option_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_go_to_live_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_go_to_live_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__recommendation_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/recommendation_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_apply_offer_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_apply_offer_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__uom_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/uom_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__streamer_tnc_action_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/streamer_tnc_action</t>
+  </si>
+  <si>
+    <t>silver.gamification__auction_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/auction</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_page_view_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_page_view_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_product_list_shown_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_product_list_shown</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_pdp_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_pdp_clicked</t>
+  </si>
+  <si>
+    <t>silver.gamification__loyalty_rewards_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/loyalty_rewards</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__offer_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/offer_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.order_service__supply_order_mapping_1_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_service/supply_order_mapping_1</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_scratch_card_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_plp_fod_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_fod_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__gamification_deck_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/gamification_deck_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__terms_and_conditions_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/terms_and_conditions_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_pdp_video_badge_option_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_video_badge_option_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__availability_yes_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/availability_yes_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_leaderboard_catalog_cta_clicked_web_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_leaderboard_catalog_cta_clicked_web</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_catalog_view_all_exited_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_view_all_exited</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__basic_return_one_item_atc_alert_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/basic_return_one_item_atc_alert_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ff_product_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ff_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_rejected_by_dealer_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_rejected_by_dealer_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_onboarding_video_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.file_payout__supplier_payment_files_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/file_payout/supplier_payment_files</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_success_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_success</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__event_destinations_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/event_destinations_new</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_whatsapp_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_whatsapp_templates</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_high_visibility_order_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.communicator__payments_communicator_sms_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/payments_communicator_sms_templates</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__gamification_back_button_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/gamification_back_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_notification_campaign_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_campaign</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_upcoming_bids_fetched_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_upcoming_bids_fetched</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_rewards_page_viewed_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_rewards_page_viewed_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_pdp_reviews_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_pdp_reviews_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_banners_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_banners</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__follower_notification_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/follower_notification</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__latch_on_recommendation_shortlisted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_shortlisted</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_clp_high_visibility_order_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_clp_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_addresses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_addresses</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pit_pop_up_cross_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_pop_up_cross</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__view_all_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__capacity_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/capacity_value</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_text_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_text</t>
+  </si>
+  <si>
+    <t>silver.advertisement__campaign_budget_consent_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/campaign_budget_consent_log</t>
+  </si>
+  <si>
+    <t>silver.ab__planes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/planes</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_rewards_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_rewards_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_pdp_buy_now_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_pdp_buy_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_product_wishlisted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_product_wishlisted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ff_real_estate_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__latch_on_recommendation_downloaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_downloaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_card_autoplay_triggered_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_card_autoplay_triggered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_scratch_card_scratched_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_scratched_new</t>
+  </si>
+  <si>
+    <t>silver.packaging__packets_info_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/packaging/packets_info</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__cancel_not_allowed_open_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_not_allowed_open_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_submitted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_submitted</t>
+  </si>
+  <si>
+    <t>silver.referral__anonymous_referrals_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/anonymous_referrals</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_single_feed_landing_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_single_feed_landing_viewed</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_aud_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version_aud</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__deal_card_scrolled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/deal_card_scrolled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_other_share_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_other_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_pdp_add_to_cart_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_pdp_add_to_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__central_commitment_master_ingestion_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/central_commitment_master_ingestion_event_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__prod_reco_recommendations_tab_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/prod_reco_recommendations_tab_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_changed_phone_num_on_cmb_on_address_screen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_changed_phone_num_on_cmb_on_address_screen</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delivery_fee_strip_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_fee_strip_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ftux_for_burn_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ftux_for_burn_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_search_result_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_result_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__offer_detailed_info_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/offer_detailed_info_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_product_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_product_failed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_play_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_play_error</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payments_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payments</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_pdp_reviews_viewmore_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_pdp_reviews_viewmore_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__offer_detailed_info_closed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/offer_detailed_info_closed</t>
+  </si>
+  <si>
+    <t>silver.merchandising__widget_group_location_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/widget_group_location_audience_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_download_meesho_app_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_download_meesho_app_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reward_screen_shown_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reward_screen_shown</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_ff_real_estate_scrolled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_product_chosen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_product_chosen</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_choice_selected_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_choice_selected_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__availability_no_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/availability_no_clicked</t>
+  </si>
+  <si>
+    <t>silver.cis__duplicate_product_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/duplicate_product</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_category_filter_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_category_filter_selected</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_groups</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__proof_of_delivery_upload_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/proof_of_delivery_upload_details</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__manifest_self_pickup_tracking_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/manifest_self_pickup_tracking_events</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__account_section_bbs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/account_section_bbs_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__msp_attendance_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/msp_attendance</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_delays_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_delays</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_gif_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_gif_used</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_inapp_popup_dismissed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_inapp_popup_dismissed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_add_more_items_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_add_more_items_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_game_started_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_game_started_new</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__commitment_program_details_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/commitment_program_details_event</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_referral_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_referral_mappings</t>
+  </si>
+  <si>
+    <t>silver.farmiso__reviews_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/reviews</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_pick_page_game_cta_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_pick_page_game_cta_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancellation_allowed_go_back_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancellation_allowed_go_back</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_added_to_cart_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_added_to_cart</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__estimated_delivery_date_widget_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/estimated_delivery_date_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_banner_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_banner_mappings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_without_order_whatsapp_share_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_without_order_whatsapp_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_bazaar_slot_widget_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_slot_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__place_order_button_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/place_order_button_loaded</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_wallet_transactions_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_wallet_transactions</t>
+  </si>
+  <si>
+    <t>silver.communicator__communicator_sms_template_provider_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/communicator_sms_template_provider_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__pre_order_validation_check_fail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/pre_order_validation_check_fail</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_product_shared_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_product_shared</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__unavaliability_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/unavaliability_reasons</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_onboarding_video_mute_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_mute</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_accepted_rts_orders_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_accepted_rts_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_order_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_order_failed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__price_recommendation_bulk_recommendation_file_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/price_recommendation_bulk_recommendation_file</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__proof_of_delivery_url_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/proof_of_delivery_url_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_closed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_closed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_filter_applied_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancellation_not_allowed_okay_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancellation_not_allowed_okay</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_discount_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_discount</t>
+  </si>
+  <si>
+    <t>silver.farmsio__product_translations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmsio/product_translations</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_map</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_activity_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_activity_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_bottom_sheet_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_hvf_types_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_hvf_types</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_category_chosen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_category_chosen</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__referral_l2_page_balance_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/referral_l2_page_balance_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_bottom_sheet_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_email_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_templates</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__mov_audio_started_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/mov_audio_started</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_whatsapp_share_video_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_whatsapp_share_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__deal_card_scrolled_manual_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/deal_card_scrolled_manual</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_reasons_classification_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_reasons_classification_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_lead_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_lead_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__dice_roll_started_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/dice_roll_started</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_pdp_burn_video_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_burn_video_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__recommendations_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/recommendations_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_whom_to_video_language_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_language_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__mov_audio_ended_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/mov_audio_ended</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_tab_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_tab_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_opportunity_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_opportunity_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_ff_real_estate_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__qpd_l2_go_to_inventory_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l2_go_to_inventory_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_horizontal_product_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_horizontal_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_tnc_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_tnc_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_suppliers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_suppliers</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_saw_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_saw_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__discard_campaign_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/discard_campaign_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_tag_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_tag_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_without_order_view_all_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_without_order_view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_reward_page_scratch_card_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_reward_page_scratch_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_screen_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__referral_l2_page_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/referral_l2_page_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__pr_bulk_download_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_error</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_groups</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_addresses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_addresses</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_label_values_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_label_values</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_onboarding_video_unmute_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_unmute</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_viewed_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_viewed_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__i_have_arrived_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/i_have_arrived_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_buynow_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_buynow_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_group_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_group_maps</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_product_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_bottom_sheet_final_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_bottom_sheet_final</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__prod_reco_accepted_tab_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/prod_reco_accepted_tab_viewed</t>
+  </si>
+  <si>
+    <t>silver.packaging__packets_info_v2_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/packaging/packets_info_v2</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_search_by_catalog_id_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_search_by_catalog_id</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__open_in_maps_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/open_in_maps_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__success_to_get_user_fine_location_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/success_to_get_user_fine_location</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_gameplay_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_gameplay_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_bank_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_bank_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__interested_user_community_buying_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/interested_user_community_buying_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_submit_look_page_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_submit_look_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_submit_look_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_submit_look_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_video_watched_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_video_watched</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_upcoming_section_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_upcoming_section_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__supplier_visit_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/supplier_visit</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_created_look_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_created_look_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_submit_look_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_submit_look_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_leaderboard_catalog_cta_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_leaderboard_catalog_cta_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_widget_mapping_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_widget_mapping_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_link_generation_status_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_link_generation_status</t>
+  </si>
+  <si>
+    <t>silver.farmiso__home_page_section_rankings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/home_page_section_rankings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_closed_without_saving_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_closed_without_saving</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_template_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_template_preset</t>
+  </si>
+  <si>
+    <t>silver.advertisement__sscat_campaign_config_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/sscat_campaign_config_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_widget_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_widget_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__confirm_delivery_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/confirm_delivery_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__earn_smartcoins_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/earn_smartcoins_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__chat_analytics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/chat_analytics</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_pin_codes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.ctqct_v2__ds_feed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ctqct_v2/ds_feed</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__mma_consent_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/mma_consent_event</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_pincode_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_pincode_mappings</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_widget_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_widget_mapping</t>
+  </si>
+  <si>
+    <t>silver.meesholink__oms_supplier_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/meesholink/oms_supplier_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_copy_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_copy_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_link_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_link_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payment_refund_request_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payment_refund_request</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_images_scrolled_report_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_images_scrolled_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_filter_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_filter_used</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_wallets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_wallets</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__super_store_wallet_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/super_store_wallet_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_group_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_group_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_view_all_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_view_all_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_recommendations_interacted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_recommendations_interacted</t>
+  </si>
+  <si>
+    <t>silver.farmiso__landing_page_navigation_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/landing_page_navigation_mappings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_created_look_page_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_created_look_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_already_disabled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_already_disabled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_view_all_exited_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_view_all_exited</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_sms_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_templates</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_inventory_pricing_sync_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_inventory_pricing_sync_error</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_discount_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_discount</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_cashback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_cashback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_exit_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_exit_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_reward_page_scratch_card_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_reward_page_scratch_card_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__supplier_register_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/supplier_register</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_user_block_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_user_block</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_widget_app_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_widget_app_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__learning_video_watched_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/learning_video_watched_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__dressup_gameplay_back_button_choice_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/dressup_gameplay_back_button_choice</t>
+  </si>
+  <si>
+    <t>silver.price__price_sub_sub_category_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_sub_sub_category_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_cashback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_cashback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__project_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/project_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_video_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_home_page_tooltip_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_home_page_tooltip_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_confirmed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_confirmed</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_labels_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_labels</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_campaign_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_campaign_preset</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__unable_to_deliver_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/unable_to_deliver_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_sort_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_sort_used</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_continue_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_continue_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_sales_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_sales_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_opted_event_catalog_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_opted_event_catalog</t>
+  </si>
+  <si>
+    <t>silver.mq_db__producers_conf_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/producers_conf</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_code_fail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_code_fail</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_indexing_rule_histories_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_indexing_rule_histories</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_submit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_submit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mq_db__consumers_conf_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/consumers_conf</t>
+  </si>
+  <si>
+    <t>silver.farmiso__taxonomy_category_facility_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/taxonomy_category_facility_mappings</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__look_shared_type_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/look_shared_type</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__how_it_works_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/how_it_works_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__how_it_works_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/how_it_works_loaded</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_real_estate_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_real_estate</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_selected_language_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_selected_language_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_tnc_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_tnc_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__picklist_downloaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/picklist_downloaded_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__gen_ai_cx_chat_closure_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/gen_ai_cx_chat_closure_details</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_sscat_campaign_config_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_sscat_campaign_config</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_sscat_map_update_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_sscat_map_update_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_cashsalesback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_cashsalesback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cancel_return_or_exchange_bottom_sheet_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cancel_return_or_exchange_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_opted_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_opted_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delivery_confirmation_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_confirmation_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_resell_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_resell_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator__communicator_fcm_notification_aggregated_delivery_metrics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator/communicator_fcm_notification_aggregated_delivery_metrics</t>
+  </si>
+  <si>
+    <t>silver.mq_db__messaging_queue_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/messaging_queue</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_slp_v2_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_slp_v2_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_discount_added_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_discount_added</t>
+  </si>
+  <si>
+    <t>silver.price__currency_exchange_rate_periodic_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/currency_exchange_rate_periodic</t>
+  </si>
+  <si>
+    <t>silver.msg_supply_service__post_order_in_app_user_ratings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supply_service/post_order_in_app_user_ratings</t>
+  </si>
+  <si>
+    <t>silver.mq_db__applications_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/applications</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_experiment_audiences_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_experiment_audiences_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__dressup_gameplay_back_button_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/dressup_gameplay_back_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_edit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_edit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.feed__mid_feed_filter_label_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/mid_feed_filter_label_value</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__real_estate_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/real_estate_preset</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__smart_card_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/smart_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_price__chat_support_cs_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/chat_support_cs</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_banner_mapping_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_banner_mapping_log</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__sscat_image_guidelines_upload_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/sscat_image_guidelines_upload_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_share_page_open_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_share_page_open_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_error</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_select_all_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_select_all_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_tags_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_tags</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_variations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_variations</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_call_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_call_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_restart_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_restart</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__earnings_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/earnings_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__virtual_product_listing_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/virtual_product_listing_mappings</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_banner_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_banner_mapping</t>
+  </si>
+  <si>
+    <t>silver.gamification__prism_gamification_challenges_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/prism_gamification_challenges</t>
+  </si>
+  <si>
+    <t>silver.farmiso__dealer_scores_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/dealer_scores</t>
+  </si>
+  <si>
+    <t>silver.gamification__spin_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/spin_audience_map</t>
+  </si>
+  <si>
+    <t>silver.community__community_product_posts_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_product_posts</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facilities_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facilities</t>
+  </si>
+  <si>
+    <t>silver.app_support__cx_support_tickets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/app_support/cx_support_tickets_schema_change</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_reward_options_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_reward_options</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_inapp_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_inapp_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.feed__mid_feed_filter_label_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/mid_feed_filter_label</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata_log</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_challenge_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_challenge_audience_map</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_high_visibility_filter_presets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_high_visibility_filter_presets</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__hubs_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/hubs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__share_tooltip_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/share_tooltip_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_psm_update_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_psm_update_error</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_rocket_deals_link_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_rocket_deals_link_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__earnings_popup_continue_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/earnings_popup_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.infosec__homepage_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/infosec/homepage_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__non_attempt_confirmed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/non_attempt_confirmed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__cities_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/cities_new</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_preset_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_preset_map</t>
+  </si>
+  <si>
+    <t>silver.infosec__website_launch_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/infosec/website_launch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_changed_phone_num_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_changed_phone_num_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.epg_api_records__api_call_records_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg_api_records/api_call_records_test</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_continue_with_call_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_continue_with_call_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_profile_looks_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_profile_looks_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__seller_fm_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/seller_fm_mapping_schema_change</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_offer_audience_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_offer_audience</t>
+  </si>
+  <si>
+    <t>silver.msg_gateway__suppliers_tds_data_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_gateway/suppliers_tds_data</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__brp_ds_image_processing_feedback_loop_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/brp_ds_image_processing_feedback_loop</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__collection_views_report_clone_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/collection_views_report_clone_test</t>
+  </si>
+  <si>
+    <t>silver.meesholink__oms_client_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/meesholink/oms_client_details</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_self_support_resolution_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_self_support_resolution_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__reattempt_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/reattempt_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__webp_regex_match_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/webp_regex_match_failed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_templates</t>
+  </si>
+  <si>
+    <t>silver.msg_image_similarity_service__draft_image_embedding_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_image_similarity_service/draft_image_embedding</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_product_map_flat_final_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_flat_final</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_taxonomy_categories_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_categories</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_phone_share_banner_visible_ab_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_phone_share_banner_visible_ab</t>
+  </si>
+  <si>
+    <t>silver.app_support__cx_support_conversations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/app_support/cx_support_conversations</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_offers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_offers</t>
+  </si>
+  <si>
+    <t>silver.msg_growth__user_login_ivr_call_info_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth/user_login_ivr_call_info</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__holiday_list_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/holiday_list</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_influencers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_influencers</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__pincode_lm_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/pincode_lm_mapping</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__links_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/links</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_saved_look_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_saved_look_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_profile_looks_page_look_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_profile_looks_page_look_clicked</t>
+  </si>
+  <si>
+    <t>silver.offer_platform__client_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/offer_platform/client</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_views_report_final_proto_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_proto_test</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_adjectives_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_adjectives</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_web_single_upload_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_web_single_upload</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_user_offer_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_user_offer_details</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__promotion_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/promotion_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_continue_in_review_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_continue_in_review_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_slp_v2_pop_up_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_slp_v2_pop_up_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria</t>
+  </si>
+  <si>
+    <t>silver.loyalty__event_detail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/event_detail</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__fm_mms_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/fm_mms_mapping</t>
+  </si>
+  <si>
+    <t>silver.mq_db__producers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/producers</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator__communicator_child_campaign_edit_change_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator/communicator_child_campaign_edit_change_log</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_feed_type_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_feed_type_maps</t>
+  </si>
+  <si>
+    <t>silver.epg_api_records__http_callback_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg_api_records/http_callback_log</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__lm_mms_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/lm_mms_mapping</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tiers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tiers</t>
+  </si>
+  <si>
+    <t>silver.community__community_topics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topics</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_banner_clicked_1_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_banner_clicked_1</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badges_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badges</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_groups</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_incentives_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_incentives</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_webp_regex_match_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_webp_regex_match_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reattempt_delivery_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reattempt_delivery_clicked</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_criterias_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_criterias</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__non_attempt_reason_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/non_attempt_reason_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__supplier_on_hold_orders_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/supplier_on_hold_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_details_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_details_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plans_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plans</t>
+  </si>
+  <si>
+    <t>silver.farmiso__survey_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/survey_reasons</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__shipsy_piece_consignment_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/shipsy_piece_consignment_events</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__terms_and_conditions_revision_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/terms_and_conditions_revision</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_group_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_group_details</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__exclusions_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/exclusions</t>
+  </si>
+  <si>
+    <t>silver.price__supplier_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_user_type_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_user_type_maps</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__mma_consent_details_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/mma_consent_details_events</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_feed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_feed</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_audiences_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_audiences</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badge_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badge_groups</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria_value</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_fraud_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_fraud_reasons</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_latest_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_latest</t>
+  </si>
+  <si>
+    <t>silver.referral__re_audience_badge_referral_plan_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_audience_badge_referral_plan_map</t>
+  </si>
+  <si>
+    <t>silver.price__deals_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/deals</t>
+  </si>
+  <si>
+    <t>silver.manifest__order_snapshot_insert_failure_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/manifest/order_snapshot_insert_failure_event</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_description_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes_description</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_countries_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_countries</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_moderation_statuses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_moderation_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_media_statuses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_media_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_content_types_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_content_types</t>
   </si>
   <si>
     <t/>
@@ -6347,1539 +6131,1539 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
-      <c r="A412" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>823</v>
+      <c r="A412" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
-      <c r="A413" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>825</v>
+      <c r="A413" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
-      <c r="A414" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>827</v>
+      <c r="A414" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
-      <c r="A415" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>829</v>
+      <c r="A415" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
-      <c r="A416" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>831</v>
+      <c r="A416" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
-      <c r="A417" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>833</v>
+      <c r="A417" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
-      <c r="A418" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>835</v>
+      <c r="A418" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
-      <c r="A419" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>837</v>
+      <c r="A419" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
-      <c r="A420" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>839</v>
+      <c r="A420" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
-      <c r="A421" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>841</v>
+      <c r="A421" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
-      <c r="A422" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>843</v>
+      <c r="A422" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
-      <c r="A423" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>845</v>
+      <c r="A423" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
-      <c r="A424" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>847</v>
+      <c r="A424" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
-      <c r="A425" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>849</v>
+      <c r="A425" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
-      <c r="A426" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>851</v>
+      <c r="A426" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
-      <c r="A427" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>853</v>
+      <c r="A427" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
-      <c r="A428" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>855</v>
+      <c r="A428" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
-      <c r="A429" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>857</v>
+      <c r="A429" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
-      <c r="A430" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>859</v>
+      <c r="A430" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
-      <c r="A431" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>861</v>
+      <c r="A431" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
-      <c r="A432" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>863</v>
+      <c r="A432" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
-      <c r="A433" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>865</v>
+      <c r="A433" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
-      <c r="A434" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>867</v>
+      <c r="A434" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
-      <c r="A435" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>869</v>
+      <c r="A435" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
-      <c r="A436" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>871</v>
+      <c r="A436" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
-      <c r="A437" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>873</v>
+      <c r="A437" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
-      <c r="A438" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>875</v>
+      <c r="A438" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
-      <c r="A439" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>877</v>
+      <c r="A439" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
-      <c r="A440" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>879</v>
+      <c r="A440" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
-      <c r="A441" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>881</v>
+      <c r="A441" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
-      <c r="A442" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>883</v>
+      <c r="A442" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
-      <c r="A443" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>885</v>
+      <c r="A443" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
-      <c r="A444" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>887</v>
+      <c r="A444" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
-      <c r="A445" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>889</v>
+      <c r="A445" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
-      <c r="A446" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>891</v>
+      <c r="A446" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
-      <c r="A447" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>893</v>
+      <c r="A447" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="715">
   <si>
     <t>job_name</t>
   </si>
@@ -22,3004 +22,2143 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.msg_ums__supplier_incentive_ab_properties_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ums/supplier_incentive_ab_properties</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__model_job_status_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/model_job_status_log</t>
-  </si>
-  <si>
-    <t>silver.msg_growth__gm_facebook_product_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth/gm_facebook_product_summary</t>
-  </si>
-  <si>
-    <t>silver.payment_communication__suspected_user_account_detail_updates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payment_communication/suspected_user_account_detail_updates</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__select_variant_type_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/select_variant_type_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_university_home_page_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_university_home_page</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_contact_permission_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_contact_permission_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_how_to_refer_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_how_to_refer_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_find_ifsc_popup_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_find_ifsc_popup_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__scratch_card_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__raise_refund_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/raise_refund_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_optin_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_optin_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_catalog_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_change_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_link_copied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_link_copied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reinstall_login_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reinstall_login_accepted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_contact_permission_popup_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_contact_permission_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__call_customer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/call_customer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__anonymous_user_discovery_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_user_discovery</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_timer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_timer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_email_us_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_email_us_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__last_used_category_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/last_used_category_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_details_ssr_failure_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_details_ssr_failure</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_loot_plp_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_plp_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_offer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_offer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__join_group_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/join_group_clicked</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__recommendation_service_product_recommendation_rejected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/recommendation_service_product_recommendation_rejected</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_google_ad_event_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_google_ad_event_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_top_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_top_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__primary_filter_cleared_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_cleared</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_incentives_home_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentives_home_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_creator_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_ended_cta_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_ended_cta_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_modal_opens_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_modal_opens</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_name_entered_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_name_entered_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_total_changed_bottom_sheet_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_total_changed_bottom_sheet_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_swiped_down_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_swiped_down</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_more_insights_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_more_insights_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_catalog_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_catalog</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__graph_timeline_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/graph_timeline_clicked</t>
-  </si>
-  <si>
-    <t>silver.advertisement__vg_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/vg_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__switch_product_changed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/switch_product_changed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_3pl_status_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_3pl_status_change_log_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_university_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_university_video_watched</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_plp_pit_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_pit_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_growth__user_login_blocked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth/user_login_blocked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_live_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_started</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_cancel_confirmation_bottomsheet_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_cancel_confirmation_bottomsheet</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_pickup_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_pickup</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_box_used_wdrp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_box_used_wdrp</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_catalog_view_all_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_view_all_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_live_category_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_pill_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_pill_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__adherence_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/adherence_metric</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__view_refund_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/view_refund_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_store_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_store_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.ads_credit__campaign_credit_allocated_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ads_credit/campaign_credit_allocated</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_onboarding_flow_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_onboarding_flow_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__customer_map_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/customer_map_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_must_see_tab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_must_see_tab_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__search_typing_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/search_typing_started</t>
-  </si>
-  <si>
-    <t>silver.gamification__gamification_user_challenge_reward_tracker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/gamification_user_challenge_reward_tracker</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__channel_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/channel</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__supplier_support_ticket_queued_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/supplier_support_ticket_queued</t>
-  </si>
-  <si>
-    <t>silver.msg_ums__supplier_leave_track_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ums/supplier_leave_track</t>
-  </si>
-  <si>
-    <t>silver.campaign_performance__advertisement_rds_campaign_performance_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/campaign_performance/advertisement_rds_campaign_performance</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_slider_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_slider_used</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_product_card_video_option_badge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_video_option_badge_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__shipsy_consignment_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/shipsy_consignment_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cart_updated_popup_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cart_updated_popup_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__not_invited_referrals_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/not_invited_referrals_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_social_proofing_message_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_social_proofing_message_clicked_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__offer_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/offer_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_self_support_feedback_submitted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_self_support_feedback_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_clicked</t>
-  </si>
-  <si>
-    <t>silver.ab__experiments_cdc_history_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ab/experiments_cdc_history</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_invite_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_invite_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_modal_close_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_modal_close</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__remind_me_notification_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/remind_me_notification</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_clicked_custom_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_clicked_custom</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_more_products_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_more_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__supplier_ticket_feedback_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/supplier_ticket_feedback</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_post_tag_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_post_tag_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__blocked_duplicate_tab_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/blocked_duplicate_tab_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__unservicable_page_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/unservicable_page_loaded</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__manifest_self_pickup_service_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/manifest_self_pickup_service_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_gratification_modal_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_gratification_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edited_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edited_accepted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_collections_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_collections_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__call_champion_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/call_champion_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__refund_summary_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/refund_summary_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__share_screenshot_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/share_screenshot_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_fod_popup_cross_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_cross_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_weekly_sale_top_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_weekly_sale_top_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_other_feature_link_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_other_feature_link_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_creator_internet_speed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_internet_speed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_templates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_templates</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_loot_deals_top_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_loot_deals_top_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__resume_upload_popup_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/resume_upload_popup_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealers_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealers</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_return_confirmation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_return_confirmation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_edit_box_used_mp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_edit_box_used_mp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_user_type_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_user_type_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_view_claims_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_view_claims_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__central_filter_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/central_filter_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__early_payments_banner_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/early_payments_banner_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mixpanel_payment_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mixpanel_payment_failed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__filter_back_pressed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/filter_back_pressed</t>
-  </si>
-  <si>
-    <t>silver.msg_prism__pagerduty_log_entries_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_prism/pagerduty_log_entries</t>
-  </si>
-  <si>
-    <t>silver.inhouse_rte_v2__anonymous_product_shared_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_rte_v2/anonymous_product_shared</t>
-  </si>
-  <si>
-    <t>silver.community__reel_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/reel</t>
-  </si>
-  <si>
-    <t>silver.community__key_frame_reel_mapping_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/key_frame_reel_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_filter_applied_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__add_variant_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/add_variant_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_recommendations_tab_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_recommendations_tab_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_animation_appears_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_animation_appears</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__address_form_selective_friction_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/address_form_selective_friction</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__hp_top_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_top_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_accept_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_accept_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_how_it_works_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_how_it_works_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_end_live_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_end_live_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__support_clicked_upload_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/support_clicked_upload_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__meesho_price_edited_npp_bulk_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/meesho_price_edited_npp_bulk</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l2_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l2_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__need_assistance_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/need_assistance_clicked</t>
-  </si>
-  <si>
-    <t>silver.community__community_user_comment_like_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_user_comment_like_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_submitted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_submitted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__referral_program_enabled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/referral_program_enabled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__super_store_wallet_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/super_store_wallet_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_past_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_past_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_fees_section_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_fees_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_viewed</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_offer_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_offer_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_accepted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__self_support_sign_up_success_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/self_support_sign_up_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_offer_bottom_sheet_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_offer_bottom_sheet_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_product_card_widget_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_reject_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_reject_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_addresses_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_addresses</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_stream_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_stream_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__show_more_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/show_more_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__all_offers_page_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/all_offers_page_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__size_chart_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/size_chart_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_app_open_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_app_open</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__referral_banner_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/referral_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__find_hsn_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/find_hsn_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__reg_help_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/reg_help_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_variant_clicked_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_variant_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_closed</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__model_stats_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/model_stats</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmsio__review_cart_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmsio/review_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_added_address_in_vernac_script_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_added_address_in_vernac_script</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_recommedation_accepted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_recommedation_accepted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_clicked_google_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_clicked_google</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_details_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_details_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.msg_packaging__packet_info_data_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_packaging/packet_info_data</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_upload_photo_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_upload_photo_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_payment_mode_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_payment_mode_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparison_flow_rejected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparison_flow_rejected</t>
-  </si>
-  <si>
-    <t>silver.ctqct_v2__ds_feed_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ctqct_v2/ds_feed_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_ff_real_estate_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__budget_entered_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/budget_entered_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_onboarding_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_watched</t>
-  </si>
-  <si>
-    <t>silver.prism_ui__users_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/prism_ui/users</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_play_button_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_play_button</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_video_watched</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_connect_to_wifi_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_connect_to_wifi_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_swipe_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_swipe</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_page_load_time_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_page_load_time</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_recommedation_edited_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_recommedation_edited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_calculator_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_calculator_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_upload_image_modal_interactions_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_upload_image_modal_interactions</t>
-  </si>
-  <si>
-    <t>silver.cart__blocked_user_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cart/blocked_user</t>
-  </si>
-  <si>
-    <t>silver.farmiso__customer_sub_order_ratings_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/customer_sub_order_ratings</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__draft_popup_interacted_mweb_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/draft_popup_interacted_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_pre_buzz_sale_strip_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_pre_buzz_sale_strip_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__your_category_discarded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_discarded</t>
-  </si>
-  <si>
-    <t>silver.default__advertisement_rds_ds_feeds_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/advertisement_rds_ds_feeds_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_action_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_action_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__create_new_request_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/create_new_request_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_call_customer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_call_customer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_add_to_cart_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_add_to_cart_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_facebook_ad_event_summary_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_facebook_ad_event_summary</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l1_subtab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_subtab_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_prism__pagerduty_incidents_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_prism/pagerduty_incidents</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whatsapp_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whatsapp_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_search_performed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_search_performed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_feedback_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_feedback_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_login_page_initiated_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_login_page_initiated_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_file_uploaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_file_uploaded</t>
-  </si>
-  <si>
-    <t>silver.default__intent_rule_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/intent_rule_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_closed</t>
-  </si>
-  <si>
-    <t>silver.advertisement__catalog_upload_ad_nudge_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement/catalog_upload_ad_nudge</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_self_support_sign_up_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_self_support_sign_up_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_emoji_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_emoji_used</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__merchandise_video_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueue_error_refreshfcmtokenworker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueue_error_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__tracking_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/tracking_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.gamification__bidding_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/bidding_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_upload_discard_template_generation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_upload_discard_template_generation</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webviews_address_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webviews_address_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__npp_price_reco_check_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/npp_price_reco_check_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_feedback_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_feedback_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mongo_shipments__pin_attributes_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mongo_shipments/pin_attributes</t>
-  </si>
-  <si>
-    <t>silver.farmiso__product_price_perception_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/product_price_perception</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__offer_banner_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/offer_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_update_app_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_update_app_page_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_product_card_widget_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_order_placed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_order_placed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_duration_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_duration_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__get_directions_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/get_directions_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_product_group_maps_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_product_group_maps</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_option_final_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_option_final</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__all_offers_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/all_offers_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__complete_now_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/complete_now_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_sound_on_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_sound_on</t>
-  </si>
-  <si>
-    <t>silver.merchandising__banners_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising/banners</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_product_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reinstall_login_change_number_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reinstall_login_change_number_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_loot_pdp_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_pdp_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__character_limit_exceeded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/character_limit_exceeded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_pinned_next_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_pinned_next_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_sound_off_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_sound_off</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__tutorial_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/tutorial_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_dismissed_google_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_dismissed_google</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_gameplay_choice_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_gameplay_choice</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_post_stream_analytics_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_post_stream_analytics_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_choice_selected_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_choice_selected_web</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__share_shop_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/share_shop_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_place_order_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_place_order_failed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.merchandising_dev__widget_group_document_temp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising_dev/widget_group_document_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommendations_tab_price_details_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendations_tab_price_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__edit_address_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/edit_address_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__consignment_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/consignment_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_file_downloaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_file_downloaded</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__generic_sscat_file_upload_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/generic_sscat_file_upload</t>
-  </si>
-  <si>
-    <t>silver.farmiso__refund_cancellation_at_sku_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/refund_cancellation_at_sku</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_coming_soon_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_coming_soon_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.community__community_blocked_users_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_blocked_users</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__diwali_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/diwali_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__merchandising_widget_group_document_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/merchandising_widget_group_document</t>
-  </si>
-  <si>
-    <t>silver.agent_dashboard__cmb_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/agent_dashboard/cmb_details</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_products_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_products</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_07_07_22</t>
-  </si>
-  <si>
-    <t>silver.msg_price__marketplace_deals_create_error_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/marketplace_deals_create_error</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__wg_location_audience_map_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/wg_location_audience_map</t>
-  </si>
-  <si>
-    <t>silver.msg_price__image_index_and_match_failures_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/image_index_and_match_failures</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_atc_buy_now_drawer_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_atc_buy_now_drawer_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_info_step_final_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_info_step_final</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_summary_page_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_summary_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_add_on_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_add_on_section_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_edit_response_file_downloaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_edit_response_file_downloaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_decks_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_decks_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__gif_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/gif_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_pinned_prev_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_pinned_prev_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__user_state_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/user_state_change_log</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_session_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_session</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__pipeline_append_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/pipeline_append_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_buy_now_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_change_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_change_log</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__visual_search_intro_page_back_button_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/visual_search_intro_page_back_button_click</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_failed_bottomsheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_bottomsheet_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_add_to_cart_size_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_size_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueue_error_appstrackingworker_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueue_error_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__call_me_back_failure_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/call_me_back_failure_details</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__supplier_event_metadata_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/supplier_event_metadata</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_update_app_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_update_app_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_download_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_child_offer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_child_offer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_viewed_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_viewed_web</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__ds_brp_approval_data_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/ds_brp_approval_data</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_download_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_started</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__user_activation_probability_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/user_activation_probability</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_continue_shopping_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_continue_shopping_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_switch_to_wifi_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_switch_to_wifi_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_coachmark_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_coachmark_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_remind_me_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_remind_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_app_killed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_app_killed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_started_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_started</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__pipeline_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/pipeline_new</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__smart_campaign_submitted_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/smart_campaign_submitted_events</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_gameplay_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_gameplay_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__widget_audience_map_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/widget_audience_map</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__unidentified_awbs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/unidentified_awbs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__bulk_price_update_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/bulk_price_update_clicked</t>
-  </si>
-  <si>
-    <t>silver.address__vernacular_address_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/address/vernacular_address</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_watch_replay_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_watch_replay_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_redemption_hard_nudge_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_hard_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_landing_watch_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_landing_watch_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_filter_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__fraud_reseller_block_tracking_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/fraud_reseller_block_tracking_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_creation_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_creation_page_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_recall_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_recall_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.community__community_v2_tags_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/community/community_v2_tags</t>
-  </si>
-  <si>
-    <t>silver.farmiso__customer_virtual_product_sub_order_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/customer_virtual_product_sub_order_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_commerce_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_commerce_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_back_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_back_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_option_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_option_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__clicked_on_new_catalog_booster_campaign_type_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/clicked_on_new_catalog_booster_campaign_type</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__finance_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/finance_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_gateway__early_payment_eligible_supplier_logs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_gateway/early_payment_eligible_supplier_logs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_feedback_exit_used_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_feedback_exit_used</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_search_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__smart_campaign_paused_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/smart_campaign_paused_events</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__stream_quality_analysis_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/stream_quality_analysis</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_ended_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_ended</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_nps_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_nps_metric</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_element_removed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_element_removed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__helpline_number_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/helpline_number_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_earn_callout_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_callout_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_pdp_reco_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_pdp_reco_scrolled</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__sx_otp_rejected_events_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/sx_otp_rejected_events</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__reco_shortlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/reco_shortlisted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_live_error_occurred_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_error_occurred</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_change_location_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_change_location_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_viewed_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_viewed_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.farmiso__discovery_dealer_social_groups_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/discovery_dealer_social_groups</t>
-  </si>
-  <si>
-    <t>silver.pow__pow_live_website_date_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/pow_live_website_date</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_liked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_liked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_feedback_exit_used_temp_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_feedback_exit_used_temp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_commission_details_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_commission_details_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_choice_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_choice_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__pr_bulk_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_nps_metric_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_nps_metric</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_recording_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_recording</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cancel_order_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_order_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_button_clicked_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_button_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_bank_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_bank_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_onboarding_video_skipped_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_skipped</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_stock_counter_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_stock_counter_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feature_onboarding_dismissed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feature_onboarding_dismissed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_merchandising__widget_group_location_document_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_merchandising/widget_group_location_document_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_fod_popup_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__contact_us_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/contact_us_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prod__datalake_configurations_upsert_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prod/datalake_configurations_upsert</t>
-  </si>
-  <si>
-    <t>silver.pow__product_count_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/pow/product_count</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_stream_parent_offer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_stream_parent_offer</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__dont_cancel_return_confirmation_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/dont_cancel_return_confirmation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__champion_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/champion_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_live_category_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_show_more_same_category_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_show_more_same_category_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_resumed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_resumed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_resell_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_resell_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whom_to_video_watched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_watched</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_buy_now_continue_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_buy_now_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ss_ftux_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ss_ftux_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_incentive_to_watch_gift_opened_state_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_incentive_to_watch_gift_opened_state_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_search_on_map_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_on_map_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__search_term_click_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/search_term_click</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verification_sheet_try_again_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verification_sheet_try_again_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_paused_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_paused</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__campaign_live_supplement_budget_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/campaign_live_supplement_budget</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__reco_upload_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/reco_upload_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_calculator_rule_info_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_calculator_rule_info_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__live_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/live_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_image_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_image_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__event_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/event_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__pdp_bottom_sheet_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/pdp_bottom_sheet_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_close_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_close</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ss_ftux_displayed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ss_ftux_displayed</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__event_append_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/event_append_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ads_onboarding_page_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ads_onboarding_page_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_live_stream_share_page_open_failed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_live_stream_share_page_open_failed</t>
-  </si>
-  <si>
-    <t>silver.advertisement_rds__ds_feeds_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/advertisement_rds/ds_feeds</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_swiped_up_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_swiped_up</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_pick_leaderboard_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_pick_leaderboard_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__warehouse_error_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/warehouse_error</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_game_started_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_game_started_web</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_add_to_cart_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_my_referrals_faq_visited_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_my_referrals_faq_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_contact_share_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_contact_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_video_section_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_video_section_clicked</t>
-  </si>
-  <si>
-    <t>silver.incentives__communicator_service_logs_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/incentives/communicator_service_logs_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_join_tomorrow_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_join_tomorrow_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_splash_screen_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_splash_screen_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ctl_navigation_tab_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ctl_navigation_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_streak_popup_view_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_streak_popup_view</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__product_shortlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/product_shortlisted</t>
-  </si>
-  <si>
-    <t>silver.recommendation_service__product_uploaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/recommendation_service/product_uploaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_cta_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_cta</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_scratched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_scratched</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_share_store_interacted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_share_store_interacted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_winner_buy_now_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_winner_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.growth__image_optimise_details_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/image_optimise_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_page_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_search_slp_pop_up_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_search_slp_pop_up_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_win_state_streak_popup_action_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_win_state_streak_popup_action</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_real_estate_scrolled_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_Landing_page_upcoming_stream_card_closed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_Landing_page_upcoming_stream_card_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_pick_page_game_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_pick_page_game_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_get_more_help_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_get_more_help_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_feed_selection_choice_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_feed_selection_choice</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__latch_on_recommendation_card_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__availability_status_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/availability_status</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_text_search_high_visibility_order_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_text_search_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.referral__referral_anonymous_user_audit_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/referral/referral_anonymous_user_audit</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_web_view_shown_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_web_view_shown</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_show_more_products_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_show_more_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__create_first_campaign_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/create_first_campaign_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_commerce_notification_template_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_template</t>
-  </si>
-  <si>
-    <t>silver.payments_integration__virtual_bank_account_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/payments_integration/virtual_bank_account_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_now_clicked_in_all_offers_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_now_clicked_in_all_offers</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_viewed_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_viewed_new</t>
-  </si>
-  <si>
-    <t>silver.ctqct_v2__scheduler_info_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ctqct_v2/scheduler_info</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_bid_submitted_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_bid_submitted_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_farmiso__horizontal_scroll_done_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_farmiso/horizontal_scroll_done</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_view_other_videos_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_view_other_videos_clicked</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_widgets_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_widgets</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_autocorrected_queries_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_autocorrected_queries</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__re_product_added_by_offer_widget_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/re_product_added_by_offer_widget</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_whom_to_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_pdp_wishlisted_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_pdp_wishlisted</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_dealer_earnings_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_dealer_earnings</t>
-  </si>
-  <si>
-    <t>silver.cis__ds_brand_logo_image_for_qc_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/cis/ds_brand_logo_image_for_qc</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_selected_language_on_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_selected_language_on_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ftux_for_earn_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ftux_for_earn_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pow_youtube_page_view_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pow_youtube_page_view</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__latch_on_panel_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/latch_on_panel_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_clicked_on_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_unliked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_unliked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_commerce_opt_in_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_commerce_opt_in_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_add_to_cart_continue_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_add_to_cart_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_clicked_on_continue_on_cmb_on_address_screen_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_continue_on_cmb_on_address_screen</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_code_sent_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_code_sent</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__switch_price_savings_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/switch_price_savings_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_flow_wdrp_info_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_wdrp_info_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_option_selected_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_option_selected_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cvo_offer_applied_pop_up_loaded_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cvo_offer_applied_pop_up_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_share_contact_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_share_contact_selected</t>
-  </si>
-  <si>
-    <t>silver.msg_price__marketplace_psvm_update_error_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/marketplace_psvm_update_error</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_option_selected_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_option_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_go_to_live_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_go_to_live_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_incentive__recommendation_event_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_incentive/recommendation_event</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_cvo_apply_offer_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_apply_offer_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__uom_cta_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/uom_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__streamer_tnc_action_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/streamer_tnc_action</t>
-  </si>
-  <si>
-    <t>silver.gamification__auction_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/auction</t>
-  </si>
-  <si>
-    <t>silver.display_ads__campaign_log_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/display_ads/campaign_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mr_page_view_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_page_view_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_trending_product_list_shown_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_product_list_shown</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_pdp_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_pdp_clicked</t>
-  </si>
-  <si>
-    <t>silver.gamification__loyalty_rewards_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/gamification/loyalty_rewards</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_home_notification_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__offer_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/offer_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.order_service__supply_order_mapping_1_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_service/supply_order_mapping_1</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_scratch_card_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_plp_fod_banner_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_fod_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_deck_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_deck_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__terms_and_conditions_opened_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/terms_and_conditions_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_video_badge_option_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_video_badge_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__availability_yes_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/availability_yes_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__tot_leaderboard_catalog_cta_clicked_web_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/tot_leaderboard_catalog_cta_clicked_web</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_catalog_view_all_exited_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_view_all_exited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__basic_return_one_item_atc_alert_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/basic_return_one_item_atc_alert_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_product_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_rejected_by_dealer_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_rejected_by_dealer_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_onboarding_video_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.file_payout__supplier_payment_files_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/file_payout/supplier_payment_files</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__otp_verif_success_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_success</t>
-  </si>
-  <si>
-    <t>silver.metastore_prismv3__event_destinations_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/metastore_prismv3/event_destinations_new</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_whatsapp_templates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_whatsapp_templates</t>
-  </si>
-  <si>
-    <t>silver.feed__feed_collection_high_visibility_order_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/feed/feed_collection_high_visibility_order</t>
-  </si>
-  <si>
-    <t>silver.communicator__payments_communicator_sms_templates_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/communicator/payments_communicator_sms_templates</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__gamification_back_button_clicked_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/gamification_back_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.live_commerce__live_commerce_notification_campaign_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/live_commerce/live_commerce_notification_campaign</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_upcoming_bids_fetched_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_upcoming_bids_fetched</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__game_rewards_page_viewed_new_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/game_rewards_page_viewed_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reels_pdp_reviews_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reels_pdp_reviews_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_home_notification_viewed_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_viewed</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_banners_27dec</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_banners</t>
+    <t>silver.live_commerce__follower_notification_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/follower_notification</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__latch_on_recommendation_shortlisted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_shortlisted</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_clp_high_visibility_order_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_clp_high_visibility_order</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_customer_addresses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_customer_addresses</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_pit_pop_up_cross_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_pop_up_cross</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__view_all_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__capacity_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/capacity_value</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_text_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_text</t>
+  </si>
+  <si>
+    <t>silver.advertisement__campaign_budget_consent_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/campaign_budget_consent_log</t>
+  </si>
+  <si>
+    <t>silver.ab__planes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/planes</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_rewards_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_rewards_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_pdp_buy_now_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_pdp_buy_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_product_wishlisted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_product_wishlisted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ff_real_estate_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__latch_on_recommendation_downloaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/latch_on_recommendation_downloaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_card_autoplay_triggered_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_card_autoplay_triggered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_scratch_card_scratched_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_scratch_card_scratched_new</t>
+  </si>
+  <si>
+    <t>silver.packaging__packets_info_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/packaging/packets_info</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__cancel_not_allowed_open_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_not_allowed_open_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_catalogs_submitted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_catalogs_submitted</t>
+  </si>
+  <si>
+    <t>silver.referral__anonymous_referrals_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/anonymous_referrals</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_single_feed_landing_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_single_feed_landing_viewed</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_aud_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version_aud</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__deal_card_scrolled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/deal_card_scrolled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_other_share_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_other_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_pdp_add_to_cart_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_pdp_add_to_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__central_commitment_master_ingestion_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/central_commitment_master_ingestion_event_schema_change_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__prod_reco_recommendations_tab_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/prod_reco_recommendations_tab_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_changed_phone_num_on_cmb_on_address_screen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_changed_phone_num_on_cmb_on_address_screen</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delivery_fee_strip_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_fee_strip_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ftux_for_burn_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ftux_for_burn_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_search_result_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_result_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.price__product_supplier_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/product_supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__offer_detailed_info_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/offer_detailed_info_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_product_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_product_failed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_play_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_play_error</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payments_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payments</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_pdp_reviews_viewmore_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_pdp_reviews_viewmore_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__offer_detailed_info_closed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/offer_detailed_info_closed</t>
+  </si>
+  <si>
+    <t>silver.merchandising__widget_group_location_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/merchandising/widget_group_location_audience_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_download_meesho_app_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_download_meesho_app_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reward_screen_shown_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reward_screen_shown</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_ff_real_estate_scrolled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_scrolled</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_product_chosen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_product_chosen</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_choice_selected_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_choice_selected_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__availability_no_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/availability_no_clicked</t>
+  </si>
+  <si>
+    <t>silver.cis__duplicate_product_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/duplicate_product</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_category_filter_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_category_filter_selected</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_product_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_product_groups</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__proof_of_delivery_upload_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/proof_of_delivery_upload_details</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__manifest_self_pickup_tracking_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/manifest_self_pickup_tracking_events</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__account_section_bbs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/account_section_bbs_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__msp_attendance_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/msp_attendance</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_delays_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_delays</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_gif_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_gif_used</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_inapp_popup_dismissed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_inapp_popup_dismissed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_add_more_items_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_add_more_items_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_game_started_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_game_started_new</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__commitment_program_details_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/commitment_program_details_event</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_referral_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_referral_mappings</t>
+  </si>
+  <si>
+    <t>silver.farmiso__reviews_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/reviews</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_pick_page_game_cta_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_pick_page_game_cta_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancellation_allowed_go_back_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancellation_allowed_go_back</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_added_to_cart_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_added_to_cart</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__estimated_delivery_date_widget_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/estimated_delivery_date_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_banner_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_banner_mappings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_without_order_whatsapp_share_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_without_order_whatsapp_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_bazaar_slot_widget_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_slot_widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__place_order_button_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/place_order_button_loaded</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_wallet_transactions_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_wallet_transactions</t>
+  </si>
+  <si>
+    <t>silver.communicator__communicator_sms_template_provider_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/communicator/communicator_sms_template_provider_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__pre_order_validation_check_fail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/pre_order_validation_check_fail</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_product_shared_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_product_shared</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__unavaliability_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/unavaliability_reasons</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_onboarding_video_mute_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_mute</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_accepted_rts_orders_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_accepted_rts_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_order_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_order_failed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.recommendation_service__price_recommendation_bulk_recommendation_file_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/recommendation_service/price_recommendation_bulk_recommendation_file</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__proof_of_delivery_url_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/proof_of_delivery_url_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_closed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_closed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_filter_applied_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__order_cancellation_not_allowed_okay_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancellation_not_allowed_okay</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_discount_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_discount</t>
+  </si>
+  <si>
+    <t>silver.farmsio__product_translations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmsio/product_translations</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_map</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_activity_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_activity_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_bottom_sheet_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_bottom_sheet_viewed</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_hvf_types_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_hvf_types</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__refund_calculation_bottom_sheet_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/refund_calculation_bottom_sheet_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_category_chosen_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_category_chosen</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__referral_l2_page_balance_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/referral_l2_page_balance_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_bottom_sheet_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_email_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_templates</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__mov_audio_started_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/mov_audio_started</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_whatsapp_share_video_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_whatsapp_share_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__deal_card_scrolled_manual_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/deal_card_scrolled_manual</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__return_reasons_classification_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/return_reasons_classification_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_lead_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_lead_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__dice_roll_started_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/dice_roll_started</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__loyalty_pdp_burn_video_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_burn_video_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__recommendations_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/recommendations_loaded</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_whom_to_video_language_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_whom_to_video_language_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__mov_audio_ended_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/mov_audio_ended</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_tab_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_tab_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__crm_opportunity_data_export_api_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/crm_opportunity_data_export_api_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_ff_real_estate_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_ff_real_estate_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__qpd_l2_go_to_inventory_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l2_go_to_inventory_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_horizontal_product_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_horizontal_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_tnc_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_tnc_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_suppliers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_suppliers</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_saw_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_saw_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__discard_campaign_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/discard_campaign_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_tag_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_tag_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_without_order_view_all_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_without_order_view_all_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_reward_page_scratch_card_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_reward_page_scratch_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.cis__sub_sub_category_template_version_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/cis/sub_sub_category_template_version</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_screen_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__referral_l2_page_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/referral_l2_page_loaded</t>
+  </si>
+  <si>
+    <t>silver.inhouse_supplier_web__pr_bulk_download_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_supplier_web/pr_bulk_download_error</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_groups</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_addresses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_addresses</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_label_values_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_label_values</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_onboarding_video_unmute_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_onboarding_video_unmute</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_viewed_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_viewed_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_home_notification_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_home_notification_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__i_have_arrived_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/i_have_arrived_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_buynow_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_buynow_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_widget_group_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_widget_group_maps</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_product_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_product_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_cvo_bottom_sheet_final_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cvo_bottom_sheet_final</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__prod_reco_accepted_tab_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/prod_reco_accepted_tab_viewed</t>
+  </si>
+  <si>
+    <t>silver.packaging__packets_info_v2_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/packaging/packets_info_v2</t>
+  </si>
+  <si>
+    <t>silver.default__advertisement_rds_feed_file_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/advertisement_rds_feed_file_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_search_by_catalog_id_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_search_by_catalog_id</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__open_in_maps_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/open_in_maps_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__success_to_get_user_fine_location_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/success_to_get_user_fine_location</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_gameplay_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_gameplay_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_supplier_bank_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_supplier_bank_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__interested_user_community_buying_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/interested_user_community_buying_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_submit_look_page_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_submit_look_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_submit_look_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_submit_look_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_video_watched_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_video_watched</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_upcoming_section_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_upcoming_section_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__supplier_visit_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/supplier_visit</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_created_look_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_created_look_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_dressup_submit_look_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_dressup_submit_look_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__tot_leaderboard_catalog_cta_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/tot_leaderboard_catalog_cta_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_widget_mapping_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_widget_mapping_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_link_generation_status_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_link_generation_status</t>
+  </si>
+  <si>
+    <t>silver.farmiso__home_page_section_rankings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/home_page_section_rankings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_closed_without_saving_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_closed_without_saving</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_template_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_template_preset</t>
+  </si>
+  <si>
+    <t>silver.advertisement__sscat_campaign_config_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/sscat_campaign_config_log</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_widget_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_widget_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__confirm_delivery_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/confirm_delivery_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__earn_smartcoins_banner_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/earn_smartcoins_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__chat_analytics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/chat_analytics</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_pin_codes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_pin_codes</t>
+  </si>
+  <si>
+    <t>silver.ctqct_v2__ds_feed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ctqct_v2/ds_feed</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__mma_consent_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/mma_consent_event</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_pincode_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_pincode_mappings</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_widget_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_widget_mapping</t>
+  </si>
+  <si>
+    <t>silver.meesholink__oms_supplier_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/meesholink/oms_supplier_details</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_copy_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_copy_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_link_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_link_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_payment_refund_request_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_payment_refund_request</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_images_scrolled_report_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_images_scrolled_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_filter_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_filter_used</t>
+  </si>
+  <si>
+    <t>silver.farmiso__customer_wallets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/customer_wallets</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__super_store_wallet_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/super_store_wallet_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facility_widget_group_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facility_widget_group_map</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_view_all_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_view_all_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__product_recommendations_interacted_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/product_recommendations_interacted</t>
+  </si>
+  <si>
+    <t>silver.farmiso__landing_page_navigation_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/landing_page_navigation_mappings</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_created_look_page_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_created_look_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_already_disabled_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_already_disabled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_trending_view_all_exited_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_trending_view_all_exited</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_sms_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_templates</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_inventory_pricing_sync_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_inventory_pricing_sync_error</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_discount_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_discount</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_cashback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_cashback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_exit_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_exit_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__game_reward_page_scratch_card_clicked_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/game_reward_page_scratch_card_clicked_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__supplier_register_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/supplier_register</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_user_block_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_user_block</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__share_widget_app_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/share_widget_app_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_social_sellers__learning_video_watched_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_social_sellers/learning_video_watched_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__dressup_gameplay_back_button_choice_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/dressup_gameplay_back_button_choice</t>
+  </si>
+  <si>
+    <t>silver.price__price_sub_sub_category_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_sub_sub_category_metadata</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_cashback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_cashback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.metastore_prismv3__project_new_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/metastore_prismv3/project_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_video_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_video_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_home_page_tooltip_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_home_page_tooltip_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_confirmed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_confirmed</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_filter_labels_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_filter_labels</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__notification_campaign_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/notification_campaign_preset</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__unable_to_deliver_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/unable_to_deliver_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_sort_used_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_sort_used</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_continue_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_continue_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_show_sales_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_show_sales_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_opted_event_catalog_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_opted_event_catalog</t>
+  </si>
+  <si>
+    <t>silver.mq_db__producers_conf_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/producers_conf</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__otp_verif_code_fail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/otp_verif_code_fail</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_indexing_rule_histories_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_indexing_rule_histories</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_submit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_submit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mq_db__consumers_conf_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/consumers_conf</t>
+  </si>
+  <si>
+    <t>silver.farmiso__taxonomy_category_facility_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/taxonomy_category_facility_mappings</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__look_shared_type_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/look_shared_type</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__how_it_works_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/how_it_works_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__how_it_works_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/how_it_works_loaded</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_commerce_real_estate_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_commerce_real_estate</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_selected_language_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_selected_language_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_tnc_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_tnc_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__picklist_downloaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/picklist_downloaded_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__gen_ai_cx_chat_closure_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/gen_ai_cx_chat_closure_details</t>
+  </si>
+  <si>
+    <t>silver.advertisement__advertisement_sscat_campaign_config_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/advertisement_sscat_campaign_config</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__product_sscat_map_update_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/product_sscat_map_update_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__mr_hide_cashsalesback_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/mr_hide_cashsalesback_details_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cancel_return_or_exchange_bottom_sheet_loaded_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cancel_return_or_exchange_bottom_sheet_loaded</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_opted_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_opted_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delivery_confirmation_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_confirmation_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_male_referral_resell_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_male_referral_resell_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator__communicator_fcm_notification_aggregated_delivery_metrics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator/communicator_fcm_notification_aggregated_delivery_metrics</t>
+  </si>
+  <si>
+    <t>silver.mq_db__messaging_queue_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/messaging_queue</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_slp_v2_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_slp_v2_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_discount_added_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_discount_added</t>
+  </si>
+  <si>
+    <t>silver.price__currency_exchange_rate_periodic_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/currency_exchange_rate_periodic</t>
+  </si>
+  <si>
+    <t>silver.msg_supply_service__post_order_in_app_user_ratings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supply_service/post_order_in_app_user_ratings</t>
+  </si>
+  <si>
+    <t>silver.mq_db__applications_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/applications</t>
+  </si>
+  <si>
+    <t>silver.ab__ab_experiment_audiences_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ab/ab_experiment_audiences_map</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__dressup_gameplay_back_button_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/dressup_gameplay_back_button_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_edit_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_edit_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_clicked_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_clicked_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.feed__mid_feed_filter_label_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/mid_feed_filter_label_value</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__real_estate_preset_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/real_estate_preset</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__smart_card_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/smart_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_price__chat_support_cs_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/chat_support_cs</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_banner_mapping_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_banner_mapping_log</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__sscat_image_guidelines_upload_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/sscat_image_guidelines_upload_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_share_page_open_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_share_page_open_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_selection_edit_streaming_order_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_selection_edit_streaming_order_error</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_commerce_catalog_selection_select_all_catalogs_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_commerce_catalog_selection_select_all_catalogs_clicked</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_tags_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_tags</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_variations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_variations</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_call_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_call_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_replay_restart_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_restart</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__earnings_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/earnings_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__virtual_product_listing_mappings_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/virtual_product_listing_mappings</t>
+  </si>
+  <si>
+    <t>silver.display_ads__campaign_banner_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/display_ads/campaign_banner_mapping</t>
+  </si>
+  <si>
+    <t>silver.gamification__prism_gamification_challenges_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/prism_gamification_challenges</t>
+  </si>
+  <si>
+    <t>silver.farmiso__dealer_scores_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/dealer_scores</t>
+  </si>
+  <si>
+    <t>silver.gamification__spin_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/spin_audience_map</t>
+  </si>
+  <si>
+    <t>silver.community__community_product_posts_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_product_posts</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_facilities_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_facilities</t>
+  </si>
+  <si>
+    <t>silver.app_support__cx_support_tickets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/app_support/cx_support_tickets_schema_change</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_reward_options_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_reward_options</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_inapp_popup_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_inapp_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.feed__mid_feed_filter_label_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/mid_feed_filter_label</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata_log</t>
+  </si>
+  <si>
+    <t>silver.gamification__gamification_challenge_audience_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/gamification/gamification_challenge_audience_map</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_high_visibility_filter_presets_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_high_visibility_filter_presets</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__hubs_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/hubs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__share_tooltip_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/share_tooltip_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_price__marketplace_psm_update_error_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_price/marketplace_psm_update_error</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_rocket_deals_link_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_rocket_deals_link_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_farmiso__earnings_popup_continue_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_farmiso/earnings_popup_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.infosec__homepage_opened_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/infosec/homepage_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__non_attempt_confirmed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/non_attempt_confirmed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__cities_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/cities_new</t>
+  </si>
+  <si>
+    <t>silver.feed__feed_collection_preset_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/feed/feed_collection_preset_map</t>
+  </si>
+  <si>
+    <t>silver.infosec__website_launch_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/infosec/website_launch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_changed_phone_num_on_cmb_on_address_screen_tmp_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_changed_phone_num_on_cmb_on_address_screen_tmp</t>
+  </si>
+  <si>
+    <t>silver.epg_api_records__api_call_records_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg_api_records/api_call_records_test</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_continue_with_call_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_continue_with_call_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_profile_looks_page_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_profile_looks_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__seller_fm_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/seller_fm_mapping_schema_change</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__supplier_offer_audience_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/supplier_offer_audience</t>
+  </si>
+  <si>
+    <t>silver.msg_gateway__suppliers_tds_data_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_gateway/suppliers_tds_data</t>
+  </si>
+  <si>
+    <t>silver.advertisement__supplier_sscat_metadata_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/advertisement/supplier_sscat_metadata</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__brp_ds_image_processing_feedback_loop_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/brp_ds_image_processing_feedback_loop</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__collection_views_report_clone_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/collection_views_report_clone_test</t>
+  </si>
+  <si>
+    <t>silver.meesholink__oms_client_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/meesholink/oms_client_details</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_self_support_resolution_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_self_support_resolution_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.farmiso__reattempt_response_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/reattempt_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__webp_regex_match_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/webp_regex_match_failed</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_discovery_share_templates_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_discovery_share_templates</t>
+  </si>
+  <si>
+    <t>silver.msg_image_similarity_service__draft_image_embedding_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_image_similarity_service/draft_image_embedding</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_product_map_flat_final_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_flat_final</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_taxonomy_categories_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_taxonomy_categories</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_phone_share_banner_visible_ab_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_phone_share_banner_visible_ab</t>
+  </si>
+  <si>
+    <t>silver.app_support__cx_support_conversations_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/app_support/cx_support_conversations</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_offers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_offers</t>
+  </si>
+  <si>
+    <t>silver.msg_growth__user_login_ivr_call_info_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth/user_login_ivr_call_info</t>
+  </si>
+  <si>
+    <t>silver.payment_aggregator__holiday_list_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/payment_aggregator/holiday_list</t>
+  </si>
+  <si>
+    <t>silver.referral__referral_influencers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/referral_influencers</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__pincode_lm_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/pincode_lm_mapping</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__links_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/links</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_saved_look_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_saved_look_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__games_profile_looks_page_look_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/games_profile_looks_page_look_clicked</t>
+  </si>
+  <si>
+    <t>silver.offer_platform__client_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/offer_platform/client</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_views_report_final_proto_test_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_proto_test</t>
+  </si>
+  <si>
+    <t>silver.community__community_system_flag_words_adjectives_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_system_flag_words_adjectives</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_web_single_upload_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_web_single_upload</t>
+  </si>
+  <si>
+    <t>silver.farmiso__farmiso_user_offer_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/farmiso_user_offer_details</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_incentive__promotion_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_incentive/promotion_event</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_continue_in_review_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_continue_in_review_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__visual_search_slp_v2_pop_up_cta_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/visual_search_slp_v2_pop_up_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria</t>
+  </si>
+  <si>
+    <t>silver.loyalty__event_detail_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/loyalty/event_detail</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__fm_mms_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/fm_mms_mapping</t>
+  </si>
+  <si>
+    <t>silver.mq_db__producers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mq_db/producers</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator__communicator_child_campaign_edit_change_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator/communicator_child_campaign_edit_change_log</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_feed_type_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_feed_type_maps</t>
+  </si>
+  <si>
+    <t>silver.epg_api_records__http_callback_log_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg_api_records/http_callback_log</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__lm_mms_mapping_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/lm_mms_mapping</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tiers_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tiers</t>
+  </si>
+  <si>
+    <t>silver.community__community_topics_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topics</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__post_order_share_banner_clicked_1_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/post_order_share_banner_clicked_1</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badges_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badges</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_groups</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_incentives_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_incentives</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_webp_regex_match_failed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_webp_regex_match_failed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reattempt_delivery_clicked_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reattempt_delivery_clicked</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plan_tier_criterias_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plan_tier_criterias</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__non_attempt_reason_selected_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/non_attempt_reason_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__supplier_on_hold_orders_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/supplier_on_hold_orders</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__catalog_details_viewed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_details_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_plans_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_plans</t>
+  </si>
+  <si>
+    <t>silver.farmiso__survey_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/survey_reasons</t>
+  </si>
+  <si>
+    <t>silver.msg_superstore__shipsy_piece_consignment_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_superstore/shipsy_piece_consignment_events</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__terms_and_conditions_revision_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/terms_and_conditions_revision</t>
+  </si>
+  <si>
+    <t>silver.farmiso__offer_group_details_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/farmiso/offer_group_details</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__exclusions_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/exclusions</t>
+  </si>
+  <si>
+    <t>silver.price__supplier_attributes_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/supplier_attributes</t>
+  </si>
+  <si>
+    <t>silver.community__community_topic_user_type_maps_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_topic_user_type_maps</t>
+  </si>
+  <si>
+    <t>silver.msg_bulletin__mma_consent_details_events_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_bulletin/mma_consent_details_events</t>
+  </si>
+  <si>
+    <t>silver.live_commerce__live_stream_catalog_feed_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/live_commerce/live_stream_catalog_feed</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_audiences_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_audiences</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_badge_groups_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_badge_groups</t>
+  </si>
+  <si>
+    <t>silver.price__price_cart_criteria_value_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_cart_criteria_value</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_fraud_reasons_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_fraud_reasons</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_latest_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_latest</t>
+  </si>
+  <si>
+    <t>silver.referral__re_audience_badge_referral_plan_map_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_audience_badge_referral_plan_map</t>
+  </si>
+  <si>
+    <t>silver.price__deals_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/deals</t>
+  </si>
+  <si>
+    <t>silver.manifest__order_snapshot_insert_failure_event_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/manifest/order_snapshot_insert_failure_event</t>
+  </si>
+  <si>
+    <t>silver.referral__re_referral_attributes_description_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/referral/re_referral_attributes_description</t>
+  </si>
+  <si>
+    <t>silver.price__price_currency_exchange_rate_countries_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/price/price_currency_exchange_rate_countries</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_moderation_statuses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_moderation_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_media_statuses_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_media_statuses</t>
+  </si>
+  <si>
+    <t>silver.community__community_v2_content_types_27dec</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/community/community_v2_content_types</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -3056,9 +2195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3372,8 +2514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="68.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="68.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -6233,1155 +5375,1155 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
-      <c r="A358" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>715</v>
+      <c r="A358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
-      <c r="A359" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>717</v>
+      <c r="A359" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
-      <c r="A360" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>719</v>
+      <c r="A360" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
-      <c r="A361" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>721</v>
+      <c r="A361" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
-      <c r="A362" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>723</v>
+      <c r="A362" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
-      <c r="A363" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>725</v>
+      <c r="A363" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
-      <c r="A364" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>727</v>
+      <c r="A364" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
-      <c r="A365" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>729</v>
+      <c r="A365" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
-      <c r="A366" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>731</v>
+      <c r="A366" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
-      <c r="A367" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>733</v>
+      <c r="A367" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
-      <c r="A368" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>735</v>
+      <c r="A368" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
-      <c r="A369" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>737</v>
+      <c r="A369" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
-      <c r="A370" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>739</v>
+      <c r="A370" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
-      <c r="A371" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>741</v>
+      <c r="A371" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
-      <c r="A372" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>743</v>
+      <c r="A372" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
-      <c r="A373" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>745</v>
+      <c r="A373" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
-      <c r="A374" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>747</v>
+      <c r="A374" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
-      <c r="A375" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>749</v>
+      <c r="A375" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
-      <c r="A376" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>751</v>
+      <c r="A376" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
-      <c r="A377" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>753</v>
+      <c r="A377" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
-      <c r="A378" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>755</v>
+      <c r="A378" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
-      <c r="A379" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>757</v>
+      <c r="A379" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
-      <c r="A380" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>759</v>
+      <c r="A380" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
-      <c r="A381" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>761</v>
+      <c r="A381" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
-      <c r="A382" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>763</v>
+      <c r="A382" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
-      <c r="A383" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>765</v>
+      <c r="A383" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
-      <c r="A384" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>767</v>
+      <c r="A384" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
-      <c r="A385" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>769</v>
+      <c r="A385" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
-      <c r="A386" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>771</v>
+      <c r="A386" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
-      <c r="A387" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>773</v>
+      <c r="A387" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
-      <c r="A388" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>775</v>
+      <c r="A388" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
-      <c r="A389" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>777</v>
+      <c r="A389" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
-      <c r="A390" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>779</v>
+      <c r="A390" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
-      <c r="A391" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>781</v>
+      <c r="A391" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
-      <c r="A392" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>783</v>
+      <c r="A392" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
-      <c r="A393" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>785</v>
+      <c r="A393" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
-      <c r="A394" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>787</v>
+      <c r="A394" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
-      <c r="A395" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>789</v>
+      <c r="A395" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
-      <c r="A396" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>791</v>
+      <c r="A396" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
-      <c r="A397" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>793</v>
+      <c r="A397" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
-      <c r="A398" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>795</v>
+      <c r="A398" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
-      <c r="A399" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>797</v>
+      <c r="A399" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
-      <c r="A400" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>799</v>
+      <c r="A400" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
-      <c r="A401" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>801</v>
+      <c r="A401" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
-      <c r="A402" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>803</v>
+      <c r="A402" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
-      <c r="A403" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>805</v>
+      <c r="A403" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
-      <c r="A404" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>807</v>
+      <c r="A404" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
-      <c r="A405" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>809</v>
+      <c r="A405" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
-      <c r="A406" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>811</v>
+      <c r="A406" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
-      <c r="A407" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>813</v>
+      <c r="A407" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
-      <c r="A408" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>815</v>
+      <c r="A408" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
-      <c r="A409" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>817</v>
+      <c r="A409" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
-      <c r="A410" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>819</v>
+      <c r="A410" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
-      <c r="A411" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>821</v>
+      <c r="A411" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
-      <c r="A412" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>823</v>
+      <c r="A412" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
-      <c r="A413" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>825</v>
+      <c r="A413" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
-      <c r="A414" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>827</v>
+      <c r="A414" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
-      <c r="A415" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>829</v>
+      <c r="A415" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
-      <c r="A416" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>831</v>
+      <c r="A416" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
-      <c r="A417" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>833</v>
+      <c r="A417" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
-      <c r="A418" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>835</v>
+      <c r="A418" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
-      <c r="A419" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>837</v>
+      <c r="A419" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
-      <c r="A420" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>839</v>
+      <c r="A420" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
-      <c r="A421" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>841</v>
+      <c r="A421" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
-      <c r="A422" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>843</v>
+      <c r="A422" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
-      <c r="A423" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>845</v>
+      <c r="A423" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
-      <c r="A424" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>847</v>
+      <c r="A424" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
-      <c r="A425" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>849</v>
+      <c r="A425" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
-      <c r="A426" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>851</v>
+      <c r="A426" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
-      <c r="A427" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>853</v>
+      <c r="A427" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
-      <c r="A428" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>855</v>
+      <c r="A428" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
-      <c r="A429" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>857</v>
+      <c r="A429" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
-      <c r="A430" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>859</v>
+      <c r="A430" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
-      <c r="A431" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>861</v>
+      <c r="A431" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
-      <c r="A432" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>863</v>
+      <c r="A432" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
-      <c r="A433" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>865</v>
+      <c r="A433" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
-      <c r="A434" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>867</v>
+      <c r="A434" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
-      <c r="A435" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>869</v>
+      <c r="A435" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
-      <c r="A436" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>871</v>
+      <c r="A436" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
-      <c r="A437" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>873</v>
+      <c r="A437" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
-      <c r="A438" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>875</v>
+      <c r="A438" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
-      <c r="A439" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>877</v>
+      <c r="A439" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
-      <c r="A440" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>879</v>
+      <c r="A440" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
-      <c r="A441" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>881</v>
+      <c r="A441" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
-      <c r="A442" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>883</v>
+      <c r="A442" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
-      <c r="A443" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>885</v>
+      <c r="A443" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
-      <c r="A444" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>887</v>
+      <c r="A444" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
-      <c r="A445" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>889</v>
+      <c r="A445" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
-      <c r="A446" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>891</v>
+      <c r="A446" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
-      <c r="A447" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>893</v>
+      <c r="A447" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
-      <c r="A448" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>895</v>
+      <c r="A448" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
-      <c r="A449" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>897</v>
+      <c r="A449" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
-      <c r="A450" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>899</v>
+      <c r="A450" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
-      <c r="A451" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>901</v>
+      <c r="A451" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
-      <c r="A452" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>903</v>
+      <c r="A452" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
-      <c r="A453" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>905</v>
+      <c r="A453" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
-      <c r="A454" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>907</v>
+      <c r="A454" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
-      <c r="A455" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>909</v>
+      <c r="A455" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
-      <c r="A456" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>911</v>
+      <c r="A456" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
-      <c r="A457" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>913</v>
+      <c r="A457" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
-      <c r="A458" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>915</v>
+      <c r="A458" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
-      <c r="A459" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>917</v>
+      <c r="A459" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
-      <c r="A460" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>919</v>
+      <c r="A460" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
-      <c r="A461" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>921</v>
+      <c r="A461" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
-      <c r="A462" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>923</v>
+      <c r="A462" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
-      <c r="A463" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>925</v>
+      <c r="A463" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
-      <c r="A464" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>927</v>
+      <c r="A464" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
-      <c r="A465" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>929</v>
+      <c r="A465" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
-      <c r="A466" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>931</v>
+      <c r="A466" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
-      <c r="A467" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>933</v>
+      <c r="A467" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
-      <c r="A468" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>935</v>
+      <c r="A468" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
-      <c r="A469" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>937</v>
+      <c r="A469" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
-      <c r="A470" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>939</v>
+      <c r="A470" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
-      <c r="A471" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>941</v>
+      <c r="A471" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
-      <c r="A472" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>943</v>
+      <c r="A472" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
-      <c r="A473" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>945</v>
+      <c r="A473" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
-      <c r="A474" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>947</v>
+      <c r="A474" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
-      <c r="A475" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>949</v>
+      <c r="A475" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
-      <c r="A476" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>951</v>
+      <c r="A476" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
-      <c r="A477" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>953</v>
+      <c r="A477" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
-      <c r="A478" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>955</v>
+      <c r="A478" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
-      <c r="A479" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>957</v>
+      <c r="A479" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
-      <c r="A480" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>959</v>
+      <c r="A480" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
-      <c r="A481" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>961</v>
+      <c r="A481" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
-      <c r="A482" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>963</v>
+      <c r="A482" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
-      <c r="A483" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>965</v>
+      <c r="A483" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
-      <c r="A484" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>967</v>
+      <c r="A484" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
-      <c r="A485" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>969</v>
+      <c r="A485" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
-      <c r="A486" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>971</v>
+      <c r="A486" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
-      <c r="A487" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>973</v>
+      <c r="A487" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
-      <c r="A488" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>975</v>
+      <c r="A488" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
-      <c r="A489" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>977</v>
+      <c r="A489" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
-      <c r="A490" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>979</v>
+      <c r="A490" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
-      <c r="A491" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>981</v>
+      <c r="A491" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
-      <c r="A492" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>983</v>
+      <c r="A492" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
-      <c r="A493" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>985</v>
+      <c r="A493" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
-      <c r="A494" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>987</v>
+      <c r="A494" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
-      <c r="A495" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>989</v>
+      <c r="A495" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
-      <c r="A496" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>991</v>
+      <c r="A496" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
-      <c r="A497" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>993</v>
+      <c r="A497" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
-      <c r="A498" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>995</v>
+      <c r="A498" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
-      <c r="A499" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>997</v>
+      <c r="A499" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
-      <c r="A500" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>999</v>
+      <c r="A500" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
-      <c r="A501" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1001</v>
+      <c r="A501" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -22,7 +22,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>gold.search_session_catalog_position_27dec</t>
+    <t>gold.search_session_catalog_position_27dec_first</t>
   </si>
   <si>
     <t>search_session_catalog_position</t>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="200">
   <si>
     <t>job_name</t>
   </si>
@@ -22,592 +22,595 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__catalog_views_report_final_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_2021_04_10</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records</t>
-  </si>
-  <si>
-    <t>silver.inhouse__notification_delivered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/notification_delivered</t>
-  </si>
-  <si>
-    <t>silver.ad__catalogs_served_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
-  </si>
-  <si>
-    <t>silver.ML_Platform__fy_rt_iop_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__model_proxy_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__pdp_rt_iop_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__fraud_response_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__marketplace_competition_metrics_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/marketplace_competition_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_clicked</t>
-  </si>
-  <si>
-    <t>silver.order_service__order_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/order_service/order_events</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__fy_rt_candidate_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/fy_rt_candidate_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_views_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_views_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_feed__catalogs_served_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_opened_main_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_opened_main_2021_04_20</t>
-  </si>
-  <si>
-    <t>silver.ums__ums_anonymous_user_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ums/ums_anonymous_user_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__screen_visited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_fcm_records_v2_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_fcm_records_v2</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__image_loading_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/image_loading_failed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__product_page_scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/product_page_scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_open_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_open</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_mobile_ads_initialized_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_mobile_ads_initialized</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_anonymous_fcm_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_anonymous_fcm_records</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_image_swiped_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_image_swiped_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.ML_Platform__fy_ad_relevance_feed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ML_Platform/fy_ad_relevance_feed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__plp_products_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/plp_products_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__reviews_media_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/reviews_media_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_session_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_session</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_requests_proto_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_typing_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_typing_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_notification_delivered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_notification_delivered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feed_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feed_state_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_card_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_card_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_user_app_tracking_3_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_results_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_results_shown</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_result_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_result_details</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_oc_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping_oc</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_details_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__feed_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/feed_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_pretype_suggestion_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_pretype_suggestion_shown_2021_04_15</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_pdp_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__prism_clevertap_notification_sent_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/prism_clevertap_notification_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_open_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_session_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_session</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_added_to_wishlist_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_added_to_wishlist</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_sessions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_sessions</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_performance_metrics_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_performance_metrics</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__fy_relevance_feed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/fy_relevance_feed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__category_views_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/category_views_report</t>
-  </si>
-  <si>
-    <t>silver.msg_competitor__competitor_data_ingestion_log_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_competitor/competitor_data_ingestion_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__screen_visited_test_dbc_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_widget_views_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_views_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_typed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_typed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__code_received_401_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/code_received_401</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_suggestion_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_suggestion_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_audience__audience_entity_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_audience/audience_entity_map_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__banner_views_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/banner_views</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__duplicate_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/duplicate_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_share_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_share_map_08_23</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__orders_tab_clicked_sync_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/orders_tab_clicked_sync</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_feed_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_feed_state_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adclicks_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adclicks</t>
-  </si>
-  <si>
-    <t>silver.msg_ct_qct_service__ctqct_v2_re_catalogs_served_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ct_qct_service/ctqct_v2_re_catalogs_served</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_clicked_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__video_review_progress_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/video_review_progress</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ad_widget_views_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ad_widget_views</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_product_offer_map_log_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_product_offer_map_log</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hvf_impression_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hvf_impression_report_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__widget_views_report_clone_test_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20_clone_test</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_opened</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__non_native_ad_requests_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/non_native_ad_requests_events</t>
-  </si>
-  <si>
-    <t>silver.supply__order_timeline_3_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/order_timeline_3</t>
-  </si>
-  <si>
-    <t>silver.ad__interaction_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/interaction_events</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__catalog_tracking_sse_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/catalog_tracking_sse</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__fcm_token_refreshed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/fcm_token_refreshed</t>
-  </si>
-  <si>
-    <t>silver.msg_bulletin__non_native_ad_catalogs_served_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_bulletin/non_native_ad_catalogs_served</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_video_player_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_video_player_state</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__orders_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/orders_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_details_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_details_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_offer_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_offer</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__anonymous_user_apps_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/anonymous_user_apps</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__installed_apps_tracking_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/installed_apps_tracking</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_notification_records_proto_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records_proto</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_plp_products_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_plp_products_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_for_you_catalogs_served_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalogs_served_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_pageview_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_pageview_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_result_details_internal_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_result_details_internal_2021_04_22</t>
-  </si>
-  <si>
-    <t>silver.inhouse__user_location_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/user_location</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__facebook_ad_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/facebook_ad_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__for_you_scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/for_you_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__shield_sdk_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/shield_sdk_details</t>
+    <t>silver.inhouse_android__anonymous_image_loading_failed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_image_loading_failed</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__gm_analytics_data_event_summary_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/gm_analytics_data_event_summary</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__category_tile_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/category_tile_clicked</t>
+  </si>
+  <si>
+    <t>silver.ad__requests_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ad/requests_events</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_product_map_audit_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_audit</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__add_to_cart_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_sms_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_records</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_pdp_card_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_pdp_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__cronet_init_success_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/cronet_init_success</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__ds_demand_prediction_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_query_catalog_mapping_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__review_video_play_pause_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse__notifications_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/notifications_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__buy_now_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/buy_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pow_pdp_page_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pow_pdp_page_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__daily_disk_space_analysis_temp_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_app_session_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_session</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_sessions_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_sessions</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__filter_value_selection_changed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed_repartition</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_top_nav_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_top_nav_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_sms_requests_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_requests</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wm_completed_appstrackingworker_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wm_completed_appstrackingworker</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__notification_store_notifications_viewed_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/notification_store_notifications_viewed_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__voice_icon_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/voice_icon_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__visual_search_details_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_details</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_product_card_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__catalog_upsert_event_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/catalog_upsert_event</t>
+  </si>
+  <si>
+    <t>silver.msg_fraud_response__user_cod_block_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_fraud_response/user_cod_block</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_lp_product_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_product_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__vs_results_shown_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/vs_results_shown_repartition</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_removed_from_wishlist_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_removed_from_wishlist</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ad_requested_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ad_requested</t>
+  </si>
+  <si>
+    <t>silver.shipment__tracking_2k19_new_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipment/tracking_2k19_new</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_widget_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_analytics__anonymous_app_open_pre_signup_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_analytics/anonymous_app_open_pre_signup</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__user_product_wishlist_map_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/user_product_wishlist_map</t>
+  </si>
+  <si>
+    <t>silver.epg_api_records__api_call_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/epg_api_records/api_call_records_new</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_load_failed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_load_failed</t>
+  </si>
+  <si>
+    <t>silver.msg_feedservice__clp_catalog_mapping_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feedservice/clp_catalog_mapping</t>
+  </si>
+  <si>
+    <t>silver.inhouse__pow_pdp_page_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/pow_pdp_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_email_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_records</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__see_all_updates_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/see_all_updates_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_share_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_share_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__cart_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/cart_viewed</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_reseller_contacts_3_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_3</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__add_to_cart_continue_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_continue_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_banner_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__buy_now_continue_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/buy_now_continue_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.kafka_ext__inventory_change_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/kafka_ext/inventory_change_2021_04_15</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_fcm_token_refreshed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_fcm_token_refreshed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__vs_image_selected_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/vs_image_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_shared_report_test1_etl_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_shared_report_test1_etl_2021_04_16</t>
+  </si>
+  <si>
+    <t>silver.shipments__shipment_tracking_dump_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/shipments/shipment_tracking_dump</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__pdp_webview_celere_event_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/pdp_webview_celere_event</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_embedding_catalog_mapping_oc_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_embedding_catalog_mapping_oc</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__batch_share_metrics_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/batch_share_metrics</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__user_saw_address_selection_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/user_saw_address_selection</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_process_created_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_process_created</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__vs_camera_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/vs_camera_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_size_selected_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_size_selected</t>
+  </si>
+  <si>
+    <t>silver.msg_campaign__catalog_day_performance_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_campaign/catalog_day_performance_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sp_orders_tab_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_orders_tab_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_opened_android_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_opened_android</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_exit_android_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_android</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_search_results_shown_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_search_results_shown</t>
+  </si>
+  <si>
+    <t>silver.default__communicator_whatsapp_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/default/communicator_whatsapp_records</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__vss_indexing_data_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/vss_indexing_data</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__deliver_to_this_address_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/deliver_to_this_address_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__user_catalog_wishlist_map_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/user_catalog_wishlist_map_2021_06_07</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__wishlist_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/wishlist_opened</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_ad_click_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_ad_click</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__banner_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/banner_clicked_2021_04_21</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_email_requests_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_requests</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_page_widget_product_strip_scrolled_android_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_product_strip_scrolled_android</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_track_widget_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_track_widget_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__supplier_notification_sent_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_sent</t>
+  </si>
+  <si>
+    <t>silver.inhouse__adwishlists_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/adwishlists</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_popup_dismissed_sync_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_popup_dismissed_sync</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ff_real_estate_sunsetted_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_sunsetted</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_home_page_widget_viewed_android_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_viewed_android</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_share_comes_for_final_text_batch_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_for_final_text_batch</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_share_comes_back_after_batch_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_back_after_batch</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_saw_trust_block_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_saw_trust_block</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_search_typed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_search_typed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__order_placed_screen_shown_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/order_placed_screen_shown_partition_fix_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__payment_method_selected_juspay_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/payment_method_selected_juspay_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_wm_started_appstrackingworker_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_started_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.msg_supply_service__poc_triggered_pn_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supply_service/poc_triggered_pn_events_2022_12_28</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__native_permission_popup_action_done_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/native_permission_popup_action_done</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__superstore_back_button_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/superstore_back_button</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__category_tab_selected_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/category_tab_selected</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__continue_in_payment_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/continue_in_payment_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_search_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_search_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__rating_popup_opened_sync_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/rating_popup_opened_sync</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__anonymous_wm_completed_appstrackingworker_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_completed_appstrackingworker</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_app_installed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_installed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__account_tab_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/account_tab_clicked</t>
   </si>
   <si>
     <t/>
@@ -1164,5426 +1167,5426 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
@@ -6612,26 +6615,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="121">
   <si>
     <t>job_name</t>
   </si>
@@ -22,595 +22,358 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.inhouse_android__anonymous_image_loading_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_image_loading_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_growth_service__gm_analytics_data_event_summary_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_growth_service/gm_analytics_data_event_summary</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__category_tile_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/category_tile_clicked</t>
-  </si>
-  <si>
-    <t>silver.ad__requests_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ad/requests_events</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_optin__supplier_optin_product_map_audit_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_audit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__add_to_cart_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_sms_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_records</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_pdp_card_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_pdp_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cronet_init_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cronet_init_success</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__ds_demand_prediction_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/ds_demand_prediction</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_catalog_mapping_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_open_pre_signup_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__review_video_play_pause_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/review_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__notifications_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/notifications_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__buy_now_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_pdp_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_pdp_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__daily_disk_space_analysis_temp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis_temp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_session_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_session</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_sessions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_sessions</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__filter_value_selection_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed_repartition</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_top_nav_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_top_nav_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_sms_requests_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_sms_requests</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_completed_appstrackingworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_completed_appstrackingworker</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/filter_value_selection_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__notification_store_notifications_viewed_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/notification_store_notifications_viewed_report</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__voice_icon_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/voice_icon_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ds_image_insights__visual_search_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_details</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_product_card_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_product_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__catalog_upsert_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/catalog_upsert_event</t>
-  </si>
-  <si>
-    <t>silver.msg_fraud_response__user_cod_block_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_fraud_response/user_cod_block</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_lp_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_lp_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_results_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_results_shown_repartition</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_removed_from_wishlist_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_removed_from_wishlist</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ad_requested_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ad_requested</t>
-  </si>
-  <si>
-    <t>silver.shipment__tracking_2k19_new_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipment/tracking_2k19_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_widget_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_analytics__anonymous_app_open_pre_signup_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_analytics/anonymous_app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_product_wishlist_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_product_wishlist_map</t>
-  </si>
-  <si>
-    <t>silver.epg_api_records__api_call_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/epg_api_records/api_call_records_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_load_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_load_failed</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__clp_catalog_mapping_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/clp_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.inhouse__pow_pdp_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/pow_pdp_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_email_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_records</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__see_all_updates_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/see_all_updates_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__cart_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/cart_viewed</t>
-  </si>
-  <si>
-    <t>silver.tracking__tracking_reseller_contacts_3_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/tracking/tracking_reseller_contacts_3</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__add_to_cart_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/add_to_cart_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__buy_now_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/buy_now_continue_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.kafka_ext__inventory_change_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/kafka_ext/inventory_change_2021_04_15</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_fcm_token_refreshed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_fcm_token_refreshed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_image_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_image_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_shared_report_test1_etl_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_shared_report_test1_etl_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_tracking_dump_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_tracking_dump</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_celere_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_celere_event</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_embedding_catalog_mapping_oc_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_embedding_catalog_mapping_oc</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__batch_share_metrics_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/batch_share_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_address_selection_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_address_selection</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_process_created_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_process_created</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__vs_camera_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/vs_camera_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_size_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_size_selected</t>
-  </si>
-  <si>
-    <t>silver.msg_campaign__catalog_day_performance_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_campaign/catalog_day_performance_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_orders_tab_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_orders_tab_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_opened_android_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_opened_android</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_android_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_search_results_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_search_results_shown</t>
-  </si>
-  <si>
-    <t>silver.default__communicator_whatsapp_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/default/communicator_whatsapp_records</t>
-  </si>
-  <si>
-    <t>silver.ml_platform__vss_indexing_data_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/ml_platform/vss_indexing_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__deliver_to_this_address_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/deliver_to_this_address_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__user_catalog_wishlist_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/user_catalog_wishlist_map_2021_06_07</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wishlist_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wishlist_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_ad_click_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_ad_click</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/banner_clicked_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_email_requests_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_email_requests</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_product_strip_scrolled_android_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_product_strip_scrolled_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_track_widget_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_track_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_notification_sent_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adwishlists_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adwishlists</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_popup_dismissed_sync_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_popup_dismissed_sync</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_real_estate_sunsetted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_sunsetted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_viewed_android_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_viewed_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_comes_for_final_text_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_for_final_text_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_share_comes_back_after_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_saw_trust_block_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_saw_trust_block</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_search_typed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_search_typed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__order_placed_screen_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/order_placed_screen_shown_partition_fix_schema_change</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__payment_method_selected_juspay_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/payment_method_selected_juspay_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_started_appstrackingworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_started_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.msg_supply_service__poc_triggered_pn_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supply_service/poc_triggered_pn_events_2022_12_28</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__native_permission_popup_action_done_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/native_permission_popup_action_done</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__superstore_back_button_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/superstore_back_button</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__category_tab_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/category_tab_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__continue_in_payment_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/continue_in_payment_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_search_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_popup_opened_sync_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_popup_opened_sync</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_completed_appstrackingworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_completed_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_app_installed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_app_installed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_tab_clicked</t>
+    <t>silver.mixpanel_android__catalog_views_report_final_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_views_report_2021_04_10</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_requests_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_records</t>
+  </si>
+  <si>
+    <t>silver.inhouse__notification_delivered_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/notification_delivered</t>
+  </si>
+  <si>
+    <t>silver.ad__catalogs_served_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ad/catalogs_served_2022_02_11</t>
+  </si>
+  <si>
+    <t>silver.ML_Platform__fy_rt_iop_logs_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ML_Platform/fy_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__model_proxy_logs_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/model_proxy_logs</t>
+  </si>
+  <si>
+    <t>silver.ml_platform__pdp_rt_iop_logs_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ml_platform/pdp_rt_iop_logs</t>
+  </si>
+  <si>
+    <t>silver.msg_fraud_response__fraud_response_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_fraud_response/fraud_response</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__daily_disk_space_analysis_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/daily_disk_space_analysis</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__pdp_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/pdp_viewed</t>
+  </si>
+  <si>
+    <t>silver.msg_genesys__marketplace_competition_metrics_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_genesys/marketplace_competition_metrics</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_clicked</t>
+  </si>
+  <si>
+    <t>silver.order_service__order_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/order_service/order_events</t>
+  </si>
+  <si>
+    <t>silver.msg_feedservice__fy_rt_candidate_logs_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feedservice/fy_rt_candidate_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_catalog_views_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_views_report_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_feed__catalogs_served_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feed/catalogs_served_report</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_opened_main_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_opened_main_2021_04_20</t>
+  </si>
+  <si>
+    <t>silver.ums__ums_anonymous_user_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ums/ums_anonymous_user_repartition</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__screen_visited_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/screen_visited_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_fcm_records_v2_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_fcm_records_v2</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__image_loading_failed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/image_loading_failed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__product_page_scrolled_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/product_page_scrolled</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_open_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_open</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__programmatic_ad_mobile_ads_initialized_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_mobile_ads_initialized</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_views_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_views_report_2021_04_20</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_anonymous_fcm_records_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_anonymous_fcm_records</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__product_screen_image_swiped_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/product_screen_image_swiped_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.ML_Platform__fy_ad_relevance_feed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/ML_Platform/fy_ad_relevance_feed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__plp_products_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/plp_products_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__reviews_media_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/reviews_media_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__app_session_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/app_session</t>
+  </si>
+  <si>
+    <t>silver.msg_communicator_service__communicator_notification_requests_proto_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_communicator_service/communicator_notification_requests_proto</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_typing_details_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_typing_details</t>
+  </si>
+  <si>
+    <t>silver.inhouse__anonymous_notification_delivered_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/anonymous_notification_delivered</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__feed_state_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/feed_state_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__shop_card_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/shop_card_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.tracking__tracking_user_app_tracking_3_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/tracking/tracking_user_app_tracking_3</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_results_shown_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_results_shown</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__visual_search_result_details_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_result_details</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_query_catalog_mapping_oc_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_query_catalog_mapping_oc</t>
+  </si>
+  <si>
+    <t>silver.msg_search__search_details_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_search/search_details_schema_change</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__feed_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/feed_opened</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_pretype_suggestion_shown_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_pretype_suggestion_shown_2021_04_15</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__search_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/search_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_pdp_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_pdp_viewed_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_clevertap__prism_clevertap_notification_sent_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_clevertap/prism_clevertap_notification_sent</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_open_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_open</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__widget_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/widget_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_session_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_session</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__catalog_added_to_wishlist_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/catalog_added_to_wishlist</t>
+  </si>
+  <si>
+    <t>silver.msg_ds_image_insights__visual_search_sessions_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ds_image_insights/visual_search_sessions</t>
+  </si>
+  <si>
+    <t>silver.inhouse__app_performance_metrics_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse/app_performance_metrics</t>
+  </si>
+  <si>
+    <t>silver.msg_feedservice__fy_relevance_feed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_feedservice/fy_relevance_feed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__category_views_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/category_views_report</t>
+  </si>
+  <si>
+    <t>silver.msg_competitor__competitor_data_ingestion_log_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_competitor/competitor_data_ingestion_log</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__screen_visited_test_dbc_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/screen_visited_test</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_widget_views_report_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_widget_views_report_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__anonymous_product_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_clicked</t>
   </si>
   <si>
     <t/>
@@ -1167,5426 +930,5426 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>122</v>
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
+      <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
+      <c r="A64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
+      <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>132</v>
+      <c r="A67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
+      <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>136</v>
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>138</v>
+      <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>140</v>
+      <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>142</v>
+      <c r="A72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>144</v>
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
+      <c r="A74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>148</v>
+      <c r="A75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>150</v>
+      <c r="A76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>152</v>
+      <c r="A77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>154</v>
+      <c r="A78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>156</v>
+      <c r="A79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>158</v>
+      <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
+      <c r="A81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
+      <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
+      <c r="A83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>166</v>
+      <c r="A84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>168</v>
+      <c r="A85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
+      <c r="A86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>172</v>
+      <c r="A87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>174</v>
+      <c r="A88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>176</v>
+      <c r="A89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>178</v>
+      <c r="A90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>180</v>
+      <c r="A91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>182</v>
+      <c r="A92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>184</v>
+      <c r="A93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>186</v>
+      <c r="A94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>188</v>
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>190</v>
+      <c r="A96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>192</v>
+      <c r="A97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>194</v>
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>196</v>
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>198</v>
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
       <c r="A423" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
       <c r="A424" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
       <c r="A425" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
       <c r="A426" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
       <c r="A427" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
       <c r="A428" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
       <c r="A429" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
       <c r="A430" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
       <c r="A431" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
       <c r="A432" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
       <c r="A433" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
       <c r="A434" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
       <c r="A435" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
       <c r="A436" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
       <c r="A437" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
       <c r="A438" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
       <c r="A439" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
       <c r="A440" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
       <c r="A441" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
       <c r="A442" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
       <c r="A443" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
       <c r="A444" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
       <c r="A445" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
       <c r="A446" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
       <c r="A447" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
       <c r="A448" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
       <c r="A449" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
       <c r="A450" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
       <c r="A451" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
       <c r="A452" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
       <c r="A453" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
       <c r="A454" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
       <c r="A455" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
       <c r="A456" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
       <c r="A457" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
       <c r="A458" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
       <c r="A459" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
       <c r="A460" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
       <c r="A461" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
       <c r="A462" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
       <c r="A463" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
       <c r="A464" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
       <c r="A465" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
       <c r="A466" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
       <c r="A467" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
       <c r="A468" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
       <c r="A469" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
       <c r="A470" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
       <c r="A471" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
       <c r="A472" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
       <c r="A473" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
       <c r="A474" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
       <c r="A475" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
       <c r="A476" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
       <c r="A477" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
       <c r="A478" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
       <c r="A479" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
       <c r="A480" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
       <c r="A481" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25">
       <c r="A482" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25">
       <c r="A483" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25">
       <c r="A484" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25">
       <c r="A485" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25">
       <c r="A486" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25">
       <c r="A487" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25">
       <c r="A488" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25">
       <c r="A489" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25">
       <c r="A490" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25">
       <c r="A491" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25">
       <c r="A492" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25">
       <c r="A493" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25">
       <c r="A494" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25">
       <c r="A495" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25">
       <c r="A496" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25">
       <c r="A497" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25">
       <c r="A498" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25">
       <c r="A499" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25">
       <c r="A500" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25">
       <c r="A501" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25">
       <c r="A502" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25">
       <c r="A503" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25">
       <c r="A504" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25">
       <c r="A505" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25">
       <c r="A506" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25">
       <c r="A507" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25">
       <c r="A508" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25">
       <c r="A509" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25">
       <c r="A510" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25">
       <c r="A511" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25">
       <c r="A512" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25">
       <c r="A513" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25">
       <c r="A514" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25">
       <c r="A515" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25">
       <c r="A516" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25">
       <c r="A517" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25">
       <c r="A518" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25">
       <c r="A519" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25">
       <c r="A520" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25">
       <c r="A521" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25">
       <c r="A522" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25">
       <c r="A523" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25">
       <c r="A524" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25">
       <c r="A525" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25">
       <c r="A526" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25">
       <c r="A527" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25">
       <c r="A528" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25">
       <c r="A529" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25">
       <c r="A530" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25">
       <c r="A531" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25">
       <c r="A532" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25">
       <c r="A533" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25">
       <c r="A534" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25">
       <c r="A535" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25">
       <c r="A536" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25">
       <c r="A537" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25">
       <c r="A538" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25">
       <c r="A539" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25">
       <c r="A540" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25">
       <c r="A541" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25">
       <c r="A542" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25">
       <c r="A543" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25">
       <c r="A544" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25">
       <c r="A545" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25">
       <c r="A546" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25">
       <c r="A547" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25">
       <c r="A548" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25">
       <c r="A549" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25">
       <c r="A550" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25">
       <c r="A551" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25">
       <c r="A552" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25">
       <c r="A553" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25">
       <c r="A554" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25">
       <c r="A555" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25">
       <c r="A556" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25">
       <c r="A557" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25">
       <c r="A558" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25">
       <c r="A559" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25">
       <c r="A560" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25">
       <c r="A561" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25">
       <c r="A562" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25">
       <c r="A563" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25">
       <c r="A564" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25">
       <c r="A565" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25">
       <c r="A566" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25">
       <c r="A567" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25">
       <c r="A568" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25">
       <c r="A569" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25">
       <c r="A570" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25">
       <c r="A571" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25">
       <c r="A572" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25">
       <c r="A573" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25">
       <c r="A574" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25">
       <c r="A575" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25">
       <c r="A576" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25">
       <c r="A577" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25">
       <c r="A578" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25">
       <c r="A579" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25">
       <c r="A580" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25">
       <c r="A581" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25">
       <c r="A582" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25">
       <c r="A583" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25">
       <c r="A584" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25">
       <c r="A585" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25">
       <c r="A586" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25">
       <c r="A587" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25">
       <c r="A588" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25">
       <c r="A589" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25">
       <c r="A590" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25">
       <c r="A591" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25">
       <c r="A592" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25">
       <c r="A593" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25">
       <c r="A594" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25">
       <c r="A595" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25">
       <c r="A596" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25">
       <c r="A597" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25">
       <c r="A598" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25">
       <c r="A599" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25">
       <c r="A600" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25">
       <c r="A601" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25">
       <c r="A602" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25">
       <c r="A603" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25">
       <c r="A604" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25">
       <c r="A605" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25">
       <c r="A606" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25">
       <c r="A607" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25">
       <c r="A608" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25">
       <c r="A609" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25">
       <c r="A610" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25">
       <c r="A611" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25">
       <c r="A612" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25">
       <c r="A613" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25">
       <c r="A614" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25">
       <c r="A615" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25">
       <c r="A616" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25">
       <c r="A617" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25">
       <c r="A618" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25">
       <c r="A619" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25">
       <c r="A620" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25">
       <c r="A621" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25">
       <c r="A622" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25">
       <c r="A623" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25">
       <c r="A624" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25">
       <c r="A625" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25">
       <c r="A626" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25">
       <c r="A627" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25">
       <c r="A628" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25">
       <c r="A629" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25">
       <c r="A630" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25">
       <c r="A631" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25">
       <c r="A632" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25">
       <c r="A633" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25">
       <c r="A634" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25">
       <c r="A635" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25">
       <c r="A636" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25">
       <c r="A637" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25">
       <c r="A638" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25">
       <c r="A639" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25">
       <c r="A640" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25">
       <c r="A641" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25">
       <c r="A642" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25">
       <c r="A643" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25">
       <c r="A644" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25">
       <c r="A645" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25">
       <c r="A646" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25">
       <c r="A647" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25">
       <c r="A648" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25">
       <c r="A649" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25">
       <c r="A650" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25">
       <c r="A651" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25">
       <c r="A652" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25">
       <c r="A653" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25">
       <c r="A654" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25">
       <c r="A655" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25">
       <c r="A656" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25">
       <c r="A657" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25">
       <c r="A658" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25">
       <c r="A659" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25">
       <c r="A660" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25">
       <c r="A661" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25">
       <c r="A662" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25">
       <c r="A663" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25">
       <c r="A664" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25">
       <c r="A665" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25">
       <c r="A666" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25">
       <c r="A667" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25">
       <c r="A668" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25">
       <c r="A669" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25">
       <c r="A670" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25">
       <c r="A671" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25">
       <c r="A672" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25">
       <c r="A673" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25">
       <c r="A674" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25">
       <c r="A675" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25">
       <c r="A676" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25">
       <c r="A677" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25">
       <c r="A678" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25">
       <c r="A679" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25">
       <c r="A680" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25">
       <c r="A681" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25">
       <c r="A682" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25">
       <c r="A683" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25">
       <c r="A684" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25">
       <c r="A685" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25">
       <c r="A686" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25">
       <c r="A687" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25">
       <c r="A688" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25">
       <c r="A689" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25">
       <c r="A690" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25">
       <c r="A691" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25">
       <c r="A692" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25">
       <c r="A693" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25">
       <c r="A694" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25">
       <c r="A695" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25">
       <c r="A696" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25">
       <c r="A697" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25">
       <c r="A698" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25">
       <c r="A699" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25">
       <c r="A700" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25">
       <c r="A701" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25">
       <c r="A702" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25">
@@ -6615,26 +6378,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25">
       <c r="A709" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25">
       <c r="A710" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25">
       <c r="A711" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/jobs_info.xlsx
+++ b/jobs_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1403">
   <si>
     <t>job_name</t>
   </si>
@@ -22,4201 +22,4204 @@
     <t>location</t>
   </si>
   <si>
-    <t>silver.mixpanel_android__glp_tiles_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_tiles_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__final_customer_amount_add_start_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_add_start_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__opened_ads_performance_page_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/opened_ads_performance_page</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_address_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_address_selected_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_section_meesho_credits_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_section_meesho_credits_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_feedback_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_feedback_submitted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__meeshologistics_order_metadata_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/meeshologistics_order_metadata</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__raise_ticket_page_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/raise_ticket_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__supply_psm_valid_change_automation_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/supply_psm_valid_change_automation_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__superstore_order_widget_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/superstore_order_widget_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__permission_rationale_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/permission_rationale_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__intro_dialog_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/intro_dialog_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__benefits_card_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/benefits_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_options_bottom_sheet_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_auth_successful_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_auth_successful</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_product_notify_me_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_product_notify_me_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_options_bottom_sheet_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_options_bottom_sheet_closed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_open_pre_signup_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_open_pre_signup</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_wm_enqueued_appstrackingworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_wm_enqueued_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_media_upload_initiated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_upload_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_resolution_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_resolution_cta_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_option_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.merchandising__catalog_collection_map_audit_fix_new_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/merchandising/catalog_collection_map_audit_fix_new</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__unconsented_orders_kaleyra_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/unconsented_orders_kaleyra_event</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__post_order_loyalty_animation_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/post_order_loyalty_animation_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_media_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_media_added</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_store_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_store_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ct_qct__supplier_store_performance_marketing_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ct_qct/supplier_store_performance_marketing</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_first_item_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_first_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_promotion_service__bonus_user_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_promotion_service/bonus_user_map</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_sscat_attribute_update_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_sscat_attribute_update_event</t>
-  </si>
-  <si>
-    <t>silver.s3_cost__summary_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/s3_cost/summary</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__delight_popup_olp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/delight_popup_olp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_clicked_catalog_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_catalog</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_Profile_Info_Modal_Gender_Filled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_Profile_Info_Modal_Gender_Filled_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.bulk_catalog__anonymous_catalog_shared_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/bulk_catalog/anonymous_catalog_shared_map</t>
-  </si>
-  <si>
-    <t>silver.msg_search__clp_catalog_mapping_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/clp_catalog_mapping</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_initial_plp_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_initial_plp_interacted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__recommendation_shown_v2_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/recommendation_shown_v2</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rating_screen_add_media_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rating_screen_add_media_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_shared_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_shared</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_nudge_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_profile_info_modal_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_profile_info_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.supplier_web__tab_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_web/tab_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__update_stock_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/update_stock_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__continue_return_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/continue_return_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_review_section_view_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_review_section_view</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_apply_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_apply_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__hao_clicked_product_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/hao_clicked_product</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__user_saw_unserviceable_address_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/user_saw_unserviceable_address</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__Inventory_button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/Inventory_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__webview_launch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/webview_launch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_middle_item_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_middle_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__merchandise_video_play_pause_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_applied_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse__adshares_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/adshares</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_voice_note_completed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_note_completed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__label_downloaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/label_downloaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_quartile_completed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_quartile_completed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_bottom_nav_exited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_exited_new</t>
-  </si>
-  <si>
-    <t>silver.inhouse_analytics__community_post_views_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_analytics/community_post_views</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_pdp_mounted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_mounted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_quartile_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_quartile</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__all_ticket_updates_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/all_ticket_updates</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_push_impressions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_push_impressions</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_redemption_nudge_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_redemption_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__delivery_screen_pincode_unserviceable_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/delivery_screen_pincode_unserviceable</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_check_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_images_scroll_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_images_scroll</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_auth_token_requested_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_auth_token_requested</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__user_authenticated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/user_authenticated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__challenge_page_opened_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/challenge_page_opened_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gpl_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gpl_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_ihao_created_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_created</t>
-  </si>
-  <si>
-    <t>silver.price__product_logistics_zone_charge_upsert_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/price/product_logistics_zone_charge_upsert</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__inapp_popup_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/inapp_popup_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_table_last_item_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_table_last_item_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_onboarding_video_play_pause_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_play_pause_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mrp_details_bottom_sheet_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_open_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mrp_details_bottom_sheet_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mrp_details_bottom_sheet_closed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_loot_deals_top_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_loot_deals_top_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_return_option_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_return_option_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_profile_info_modal_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_profile_info_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_modal_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_login_page_email_phone_input_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_login_page_email_phone_input</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__return_request_cancelled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/return_request_cancelled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_app_signup_otp_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_app_signup_otp_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__s3_export_app_open_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/s3_export_app_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_download_meesho_app_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_download_meesho_app_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_page_scroll_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_scroll_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__admin_panel_user_audit_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/admin_panel_user_audit_logs</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_ums__edit_product_diff_detail_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_ums/edit_product_diff_detail</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_similar_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_similar_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__inapp_popup_dismissed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/inapp_popup_dismissed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__pagination_used_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/pagination_used_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__add_address_in_review_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/add_address_in_review_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_screen_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__location_updated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/location_updated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__another_address_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/another_address_added</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_web_vitals_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_web_vitals</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_see_details_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_see_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__hp_top_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/hp_top_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_suggested_address_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_suggested_address_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__panel_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/panel_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_browse_item_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_browse_item_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_social_sellers__merchandise_video_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_social_sellers/merchandise_video_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_landing_page_visited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_landing_page_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_top_navigation_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_top_navigation_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_commission_details_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_commission_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__return_manifestation_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/return_manifestation</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__app_signup_mobile_otp_successful_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/app_signup_mobile_otp_successful</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__redemption_lever_checked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/redemption_lever_checked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_followers_screen_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_followers_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_add_to_cart_size_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_add_to_cart_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_share_comes_back_after_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_reopened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_reopened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__profile_language_selection_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/profile_language_selection_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_catalog_view_products_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_catalog_view_products_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pincode_location_input_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pincode_location_input</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_sort_v2_option_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_sort_v2_option_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_add_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_add_product_clicked_schema_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_recommendation_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_recommendation_viewed</t>
-  </si>
-  <si>
-    <t>silver.supplier_web__page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_web/page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_ds__ds_user_reimbursement_qc_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds/ds_user_reimbursement_qc</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_following_screen_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_following_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_reg_visit_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_reg_visit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step_2_category_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step_2_category_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__profile_info_language_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/profile_info_language_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_comment_sent_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_sent</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_sheet_triggered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_sheet_triggered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_view_all_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_view_all_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__user_added_for_location_permission_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/user_added_for_location_permission</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_buy_now_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_buy_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_yes_received_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_yes_received_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_dismissed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_dismissed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pdp_enlarge_image_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pdp_enlarge_image_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_comment_box_entered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_comment_box_entered</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__app_crashed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/app_crashed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__confirm_delivery_not_received_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/confirm_delivery_not_received_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_triggered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_triggered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_bottom_nav_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_bottom_nav_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_code_shared_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_code_shared</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_status_change_log_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_status_change_log</t>
-  </si>
-  <si>
-    <t>silver.msg_ds__ds_msg_transact_insight_api_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ds/ds_msg_transact_insight_api</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__customer_npr_registration_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/customer_npr_registration_details</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__manifestation_errors_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/manifestation_errors</t>
-  </si>
-  <si>
-    <t>silver.msg_reseller_pricing__reseller_pricing_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_reseller_pricing/reseller_pricing</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__location_fetch_initiation_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/location_fetch_initiation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_price_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_price_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_edit_request_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_request_submitted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_product_details_ssr_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_product_details_ssr_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__fa_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/fa_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_value_prop_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_value_prop_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_section_call_us_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_section_call_us_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_verify_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_verify_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pdp_ihao_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pdp_ihao_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_upload_homepage_actions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_homepage_actions</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__shipment_cancellations_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/shipment_cancellations</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__vs_image_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/vs_image_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_searchability_search_used_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_searchability_search_used</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_review_image_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_review_image_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_verify_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_verify_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_modal_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_modal_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_product_card_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_product_card_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__not_delivered_bottomsheet_ok_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/not_delivered_bottomsheet_ok_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dyhaoft_popup_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_popup_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__products_selected_done_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/products_selected_done_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueued_refreshfcmtokenworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueued_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__upi_details_verify_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/upi_details_verify_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_category_clicked_new_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_clicked_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__products_selected_for_fb_share_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/products_selected_for_fb_share</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_landing_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_landing_page_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_app_performance_metrics_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_app_performance_metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_Gratification_Modal_Viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_Gratification_Modal_Viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_page_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__delight_banner_odp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/delight_banner_odp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__language_selection_input_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/language_selection_input_changed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_submit_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_submit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_screen_pincode_check_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_screen_pincode_check_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__branded_packaging_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/branded_packaging_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_skip_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_skip_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__superstore_webview_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/superstore_webview_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse__farmiso_supplier_login_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/farmiso_supplier_login</t>
-  </si>
-  <si>
-    <t>silver.inhouse_rte_v2__catalog_share_comes_back_after_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_rte_v2/catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_social_sellers__second_quartile_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_social_sellers/second_quartile_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__become_meesho_supplier_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/become_meesho_supplier_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_widget_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_widget_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__meesho_price_value_edited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/meesho_price_value_edited</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__update_stock_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/update_stock_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_catalog_share_comes_back_after_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_catalog_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__dyhaoft_yes_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/dyhaoft_yes_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_friction_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__payment_method_change_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/payment_method_change_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_removed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_removed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__success_to_get_user_location_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/success_to_get_user_location</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__superstore_website_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/superstore_website_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__plp_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/plp_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_category_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_category_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_return_or_exchange_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_return_or_exchange_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/scrolled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_option_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_option_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__video_played_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/video_played</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_manifest_downloaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_manifest_downloaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__oneclick_banner_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/oneclick_banner_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__issue_page_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_video_quartile_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_video_quartile</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__exchange_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/exchange_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_friction_product_scrolled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_product_scrolled</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__location_error_popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/location_error_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_category_results_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_results</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_pending_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_pending_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_pre_buzz_sale_strip_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_pre_buzz_sale_strip_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_section_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_section_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__odr_instance_detail_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/odr_instance_detail</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__similar_catalogs_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/similar_catalogs_shown</t>
-  </si>
-  <si>
-    <t>silver.msg_offer_platform__offer_platform_global_user_offer_redemptions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_offer_platform/offer_platform_global_user_offer_redemptions</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_accepted_pending_orders_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_accepted_pending_orders</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_recall_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_recall_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_size_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__product_screen_pincode_check_error_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/product_screen_pincode_check_error</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__submit_catalog_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/submit_catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_clicked_on_pincode_speaker_icon_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_clicked_on_pincode_speaker_icon</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__final_customer_amount_prefilled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/final_customer_amount_prefilled_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.prism__follow_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/prism/follow_repartition</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_input_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_input_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__accepted_pending_orders_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/accepted_pending_orders</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__open_order_card_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/open_order_card_loaded_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__image_popup_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/image_popup_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__social_profile_followed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/social_profile_followed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_new_live_timer_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_new_live_timer_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__reverse_manifest_pool_allocation_type_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/reverse_manifest_pool_allocation_type</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fa_intro_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fa_intro_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_call_details_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_call_details_records</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_bottomsheet_close_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_bottomsheet_close_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_topic_navigation_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_topic_navigation_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_experience__was_this_helpful_user_feedback_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_experience/was_this_helpful_user_feedback</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__facebook_share_screen_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/facebook_share_screen_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__back_button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/back_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_exchange_not_available_bottom_sheet_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_exchange_not_available_bottom_sheet_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__logo_creator_logo_confirmed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/logo_creator_logo_confirmed_2021_04_16</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_exchange_size_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_exchange_size_added</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_self_support_get_help_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_self_support_get_help_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_loot_plp_nudge_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_loot_plp_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_error_thrown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_error_thrown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__sp_goto_login_page_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_goto_login_page_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__level_on_my_journey_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/level_on_my_journey_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_reviews_view_more_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_reviews_view_more_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__enter_referral_code_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/enter_referral_code_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__label_downloaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/label_downloaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_profile_info_modal_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_profile_info_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pow_continue_in_cart_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pow_continue_in_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_error_refreshfcmtokenworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_error_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_play_pause_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_play_pause_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fa_intro_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fa_intro_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__payment_place_order_clicked_backfill_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/payment_place_order_clicked_backfill</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_order_status_filter_tapped_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_order_status_filter_tapped_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_continue_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_view_levels_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_view_levels_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bulk_upload_category_template_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bulk_upload_category_template</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__catalog_upload_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/catalog_upload</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_earn_cart_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_earn_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__matching_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/matching_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__orders_filter_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/orders_filter_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_firebase_flow_initiated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_flow_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_atc_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_atc_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_basket_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_basket_loaded_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_feedservice__feed_filters_mapping_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_feedservice/feed_filters_mapping</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__story_terminated_state_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/story_terminated_state_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__promotions_tab_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/promotions_tab_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_followed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_followed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_location_permission_action_done_ss_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_location_permission_action_done_ss</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__self_support_voice_pause_icon_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/self_support_voice_pause_icon_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_prism__metrics_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_prism/metrics</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_place_order_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_place_order_success_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_communicator_service__communicator_fcm_records_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_communicator_service/communicator_fcm_records_2021_04_13</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__programmatic_ad_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/programmatic_ad_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_location_permission_viewed_ss_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_location_permission_viewed_ss</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_checkout_initiated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_checkout_initiated_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_edit_request_discarded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_request_discarded</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_ad_shared_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_ad_shared</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__user_edits_suggested_address_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/user_edits_suggested_address</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_exit_friction_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_exit_friction_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_share_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__action_cta_on_my_journey_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/action_cta_on_my_journey_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__sp_start_selling_button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_start_selling_button_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_onboarding_video_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_onboarding_video_closed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__shipment_manifestation_source_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/shipment_manifestation_source</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ad_campaign_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_campaign_submitted</t>
-  </si>
-  <si>
-    <t>silver.supplier_web__popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_web/popup_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__supplier_reviews_helpful_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/supplier_reviews_helpful_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__user_whitelisted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/user_whitelisted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__continue_in_review_clicked_backfill_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/continue_in_review_clicked_backfill</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__reactivation_reason_log_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/reactivation_reason_log_event</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ipp_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ipp_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_gratification_modal_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_gratification_modal_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__notice_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/notice_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__address_change_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/address_change_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest_service__fraud_order_cancellations_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest_service/fraud_order_cancellations_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__review_tips_video_play_pause_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/review_tips_video_play_pause</t>
-  </si>
-  <si>
-    <t>silver.msg_promotion_service__bonus_user_order_map_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_promotion_service/bonus_user_order_map</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_account_created_mixpanel_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_account_created_mixpanel</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_otp_submitted_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_otp_submitted_logs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_page_account_2_fill_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_page_account_2_fill</t>
-  </si>
-  <si>
-    <t>silver.msg_price__survey_submissions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/survey_submissions</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_calculator_seeked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_calculator_seeked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__point_table_faq_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/point_table_faq_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__issue_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ticket_details_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_details_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__my_tickets_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/my_tickets_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__manifest_downloaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/manifest_downloaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_score_popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_score_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_recommendation_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_recommendation_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_filter_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_filter_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__share_paste_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/share_paste_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_follow_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_follow_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__points_history_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/points_history_opened</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__customer_support_tickets_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/customer_support_tickets</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_optin__supplier_optin_assortment_detail_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_assortment_detail</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_gratification_modal_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_gratification_modal_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__leaderboard_details_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/leaderboard_details_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_language_popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_language_popup_viewed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_product_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_product_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_page_ifsc_fill_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_page_ifsc_fill</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_video_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommendation_edited_accepted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_edited_accepted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_code_submit_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_code_submit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__prism_fy_step3_place_order_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/prism_fy_step3_place_order_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_video_widget_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_widget_state</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__early_payments_component_seen_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/early_payments_component_seen</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_language_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_language_changed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_pdp_burn_video_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_burn_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_all_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_all_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_language_selection_input_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_language_selection_input_changed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_landing_video_quartile_completed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_video_quartile_completed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__product_image_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/product_image_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_signup_email_validation_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_signup_email_validation_logs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_time_spent_on_rocket_deals_lp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_time_spent_on_rocket_deals_lp</t>
-  </si>
-  <si>
-    <t>silver.inhouse__app_installed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/app_installed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__view_order_details_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/view_order_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_clevertap__supplier_notification_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_clevertap/supplier_notification_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_stopped_refreshfcmtokenworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_stopped_refreshfcmtokenworker</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__self_support_cmb_language_error_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/self_support_cmb_language_error</t>
-  </si>
-  <si>
-    <t>silver.msg_ct_qct_service__ct_qct_feed_experimentdata_activation_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ct_qct_service/ct_qct_feed_experimentdata_activation_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_learn_how_it_works_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_learn_how_it_works_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_pdp_earn_video_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_earn_video_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_appsflyer_link_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_appsflyer_link_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_upload_price_recommendation_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_price_recommendation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__become_meesho_supplier_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/become_meesho_supplier_page_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_tiles_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_tiles_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__orders_filtered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/orders_filtered</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_signup_password_validation_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_signup_password_validation_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__copy_suggested_text_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/copy_suggested_text_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/button_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_pdp_earn_video_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_pdp_earn_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__issue_category_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/issue_category_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_banner_views_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_banner_views</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__orders_device_intelligence_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/orders_device_intelligence</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_firebase_verification_successful_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_verification_successful</t>
-  </si>
-  <si>
-    <t>silver.Adminpanel__calling_supplier_from_admin_panel_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/Adminpanel/calling_supplier_from_admin_panel</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_play_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_play_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_hashtag_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_hashtag_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_profile_drop_down_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_profile_drop_down_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__add_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__selected_catalogs_for_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_catalogs_for_ad</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__entered_ad_campaign_name_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/entered_ad_campaign_name</t>
-  </si>
-  <si>
-    <t>silver.msg_external_payment_gateway__cod_block_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_external_payment_gateway/cod_block_event_fix_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__entered_budget_for_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/entered_budget_for_ad</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_optin__supplier_optin_filter_log_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_filter_log_new</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_login_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_login_success_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__my_tickets_page_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/my_tickets_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommendation_accepted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_accepted_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_price__product_portfolio_mappings_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/product_portfolio_mappings</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__estimated_delivery_date_widget_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/estimated_delivery_date_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__fe_identifier_data_er_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/fe_identifier_data_er</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_buy_now_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_buy_now_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_reco_tab_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_reco_tab_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_follow_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_follow_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ticket_details_page_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_details_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__single_upload_form_simplification_interactions_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/single_upload_form_simplification_interactions</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_main_filter_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_main_filter_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_search_term_entered_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_term_entered_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_category_navigation_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_category_navigation_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__label_download_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/label_download_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_option__supplier_optin_price_change_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_option/supplier_optin_price_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__redemption_lever_unchecked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/redemption_lever_unchecked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_upcoming_stream_card_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_stream_card_closed</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__cis_brand_compliance_gating_flagged_keywords_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/cis_brand_compliance_gating_flagged_keywords</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_insufficient_catalogs_requests_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_insufficient_catalogs_requests</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_video_continue_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_video_continue_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_reminder_set_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_reminder_set</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_lp_daily_deals_widget_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_lp_daily_deals_widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_score_play_again_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_score_play_again_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_verify_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_verify_success</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__search_feedback_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/search_feedback_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__superstore_order_widget_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/superstore_order_widget_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_location_fetch_success_ss_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_location_fetch_success_ss</t>
-  </si>
-  <si>
-    <t>silver.s3_npr__clickstream_data_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/s3_npr/npr_clickstream_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__campaign_loading_Page_for_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/campaign_loading_Page_for_ad</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cart_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cart_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_loading_started_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_loading_started</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_location_fetch_initiated_ss_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_location_fetch_initiated_ss</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__category_views_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/category_views</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_coach_mark_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_coach_mark_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_share_comes_back_after_batch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_share_comes_back_after_batch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_sort_option_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_sort_option_closed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_upcoming_filter_applied_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_filter_applied</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_started_playing_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_started_playing</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_product_shared_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_product_shared</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__app_signup_firebase_cancelled_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/app_signup_firebase_cancelled</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_flow_edit_slider_used_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_slider_used</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__all_products_clicked_upload_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/all_products_clicked_upload_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__exchange_only_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/exchange_only_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__search_feedback_banner_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/search_feedback_banner_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__quality_dashboard_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/quality_dashboard_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_upcoming_view_all_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_view_all_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_past_stream_card_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_past_stream_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_detail_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_detail_page_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_code_success_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_code_success_shown</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ftux_for_earn_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ftux_for_earn_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__pdp_bottom_sheet_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/pdp_bottom_sheet_loaded</t>
-  </si>
-  <si>
-    <t>silver.inhouse__farmiso_website_launch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/farmiso_website_launch</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__quality_dashboard_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/quality_dashboard_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_video_play_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_video_play_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__applied_ad_status_filter_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/applied_ad_status_filter</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_rocket_deals_landing_page_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_rocket_deals_landing_page_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_edit_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_edit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_level_drop_down_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_level_drop_down_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_goto_login_page_clicked_ac_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_goto_login_page_clicked_ac</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__unserviceable_discovery_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/unserviceable_discovery</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__add_product_image_clicked_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_image_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_watch_time_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_watch_time</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bank_details_add_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bank_details_add_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__your_category_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_overlay_nudge_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_overlay_nudge_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_add_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_add_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommendation_tab_catalog_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommendation_tab_catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_score_go_back_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_score_go_back_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__draft_status_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/draft_status_interacted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_landing_coins_history_button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_coins_history_button_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_screenshot_taken_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_screenshot_taken</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__add_product_images_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/add_product_images_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__upload_product_step_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/upload_product_step_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_video_started_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_video_started_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__NPP_Price_Recommedation_Generated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/NPP_Price_Recommedation_Generated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ticket_confirmation_page_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ticket_confirmation_page</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__upi_details_edit_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/upi_details_edit_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__selected_ad_budget_type_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_ad_budget_type</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__clicked_select_catalogs_for_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/clicked_select_catalogs_for_ad</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cancel_cta_clicked_on_cancel_return_or_exchange_bottom_sheet_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cancel_cta_clicked_on_cancel_return_or_exchange_bottom_sheet</t>
-  </si>
-  <si>
-    <t>silver.msg_price__npp_catalog_upload_sscat_shipping_fallback_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/npp_catalog_upload_sscat_shipping_fallback_event</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__story_restarted_from_terminated_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/story_restarted_from_terminated_state</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_view_levels_know_more_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_view_levels_know_more_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__earnings_main_page_visited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/earnings_main_page_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_become_meesho_supplier_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_become_meesho_supplier_page_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_swiped_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_swiped</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_stock_counter_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_stock_counter_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_campaign_tnc_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_campaign_tnc_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_language_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_language_changed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_fab_click_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_fab_click</t>
-  </si>
-  <si>
-    <t>silver.msg_price__marketplace_competition_error_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/marketplace_competition_error</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__sp_home_mobile_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/sp_home_mobile_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_code_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_code_failed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_search_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__continued_to_submit_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/continued_to_submit_ad</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__wm_enqueued_appstrackingworker_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/wm_enqueued_appstrackingworker</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sp_profile_drop_down_item_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sp_profile_drop_down_item_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__challenge_link_clicked_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/challenge_link_clicked_events</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_profile_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_profile_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__truecaller_rejected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/truecaller_rejected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__referral_faq_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/referral_faq_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__anonymous_user_authenticated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_user_authenticated</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_popup_cross_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_popup_cross_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_genesys__inbound_calls_complete_details_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_genesys/inbound_calls_complete_details</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_otp_trigger_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_otp_trigger_logs</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ad_budget_banner_changed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_budget_banner_changed</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__product_attribute_update_event_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/product_attribute_update_event</t>
-  </si>
-  <si>
-    <t>silver.farmiso__farmiso_whatsapp_share_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/farmiso/farmiso_whatsapp_share_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__exchange_request_created_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/exchange_request_created</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__selected_duration_for_ad_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/selected_duration_for_ad</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__loyalty_landing_video_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/loyalty_landing_video_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shopping_nps_rated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shopping_nps_rated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__shop_link_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/shop_link_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__next_button_clicked_on_returns_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/next_button_clicked_on_returns</t>
-  </si>
-  <si>
-    <t>silver.inhouse__farmiso_homepage_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/farmiso_homepage_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_reg_continue_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_reg_continue</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_app_crashed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_app_crashed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_video_play_milestone_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_video_play_milestone_2021_04_21</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__sender_details_name_add_start_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/sender_details_name_add_start_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__anonymous_webview_launch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_webview_launch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shopping_nps_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shopping_nps_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_flow_edit_box_used_wdrp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_box_used_wdrp</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_failed_card_olp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_card_olp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_category_clicked_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_category_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__rewards_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/rewards_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_share_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_share_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__see_all_friends_you_can_refer_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/see_all_friends_you_can_refer_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_promotion_service__bonus_redemption_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_promotion_service/bonus_redemption</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__shop_unfollowed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/shop_unfollowed_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_my_customers_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_my_customers_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_search_type_initiated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_search_type_initiated</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__Image_guidelines_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/Image_guidelines_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__address_status_update_banner_displayed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/address_status_update_banner_displayed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_add_name_initiated_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_add_name_initiated_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_gstin_details_fetch_logs_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_gstin_details_fetch_logs</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__edit_flow_edit_box_used_mp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/edit_flow_edit_box_used_mp</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_detail_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_detail_submitted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_plp_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_plp_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.search__search_review_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/search/search_review</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__mba_video_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/mba_video_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_page_widget_horizontal_scroll_android_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_page_widget_horizontal_scroll_android</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_cart_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_cart_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_landing_page_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_customer_name_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_customer_name_added_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_reco_button_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_reco_button_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__male_referral_screen_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/male_referral_screen_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_recall_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_recall_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_supplier_incentive__gen_ai_cx_instrumentation_data_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_supplier_incentive/gen_ai_cx_instrumentation_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__community_post_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/community_post_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pit_popup_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_popup_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_faq_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_faq_interacted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__order_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/order_failed</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_atc_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_price_comparison_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_price_comparison_clicked</t>
-  </si>
-  <si>
-    <t>silver.msg_ctqct__ctqct_v2_for_you_catalog_last_fetch_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_ctqct/ctqct_v2_for_you_catalog_last_fetch</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__sender_details_name_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/sender_details_name_added_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__your_category_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/your_category_selected</t>
-  </si>
-  <si>
-    <t>silver.growth__growth_appsflyer_performance_report_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/growth/growth_appsflyer_performance_report_2021_04_19</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__glp_streaks_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/glp_streaks_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_reco_visible_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_reco_visible</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_catalog_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_catalog_opened</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_pdp_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__save_catalog_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/save_catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_live_bids_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_live_bids_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_rte_v2__pow_continue_in_cart_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_rte_v2/pow_continue_in_cart_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__returns_unbundling_video_full_screen_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/returns_unbundling_video_full_screen_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_recommendations_tab_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_recommendations_tab_opened_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_closed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_closed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_video_state_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_state</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__address_screen_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/address_screen_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__anonymous_onboarding_video_play_milestone_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/anonymous_onboarding_video_play_milestone</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__exp_inbound_view_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/exp_inbound_view</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__view_details_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/view_details_clicked</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_ums_gstin_edit_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_ums_gstin_edit</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__invoice_download_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/invoice_download_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__onboarding_profile_screen_skipped_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/onboarding_profile_screen_skipped</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__share_tooltip_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/share_tooltip_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__business_dashboard_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/business_dashboard_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_shop_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_shop_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_value_prop_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_value_prop_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_ad_wishlisted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_ad_wishlisted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__scratch_card_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_forward_control_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_forward_control</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_atc_bottom_sheet_size_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_atc_bottom_sheet_size_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_video_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_video_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__transferprice_api_response_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/transferprice_api_response</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_unfollow_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_unfollow_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_upload_validation_modal_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_validation_modal_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_question_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_question_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_exit_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_exit</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_add_to_cart_success_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_add_to_cart_success</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__upload_attachment_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/upload_attachment</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l1_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__transferprice_api_called_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/transferprice_api_called</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__overview_page_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/overview_page_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__failed_to_get_user_location_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/failed_to_get_user_location</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__download_update_attachment_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/download_update_attachment</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__sender_details_change_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/sender_details_change_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_section_category_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_section_category_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_streak_popup_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_streak_popup_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_i_want_this_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_i_want_this_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_live_category_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_live_category_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_gateway__survey_data_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_gateway/survey_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__search_box_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/search_box_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_creator_catalog_pinned_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_pinned</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__ad_budget_exhausted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/ad_budget_exhausted</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__fe_identifier_data_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/fe_identifier_data</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gdp_streak_ok_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gdp_streak_ok_clicked</t>
-  </si>
-  <si>
-    <t>silver.supply__suppliers_pii_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supply/suppliers_pii</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__user_discovery_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/user_discovery</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_ticket_fields_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_ticket_fields_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_comparision_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_comparision_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__pdp_webview_pdp_size_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/pdp_webview_pdp_size_selected</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__view_status_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/view_status_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_replay_seek_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_replay_seek</t>
-  </si>
-  <si>
-    <t>silver.msg_price__price_recommendation_error_log_entity_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_price/price_recommendation_error_log_entity</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__account_section_email_us_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/account_section_email_us_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_pdp_more_products_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_pdp_more_products_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__retry_pickup_reallocation_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/retry_pickup_reallocation</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_loaded</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_panel_forgot_password_pageview_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_panel_forgot_password_pageview_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_search__search_query_top_semantic_score_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_search/search_query_top_semantic_score</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_product_card_widget_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_product_card_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__fraud_user_detection_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/fraud_user_detection</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_full_screen_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_full_screen_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__Back_button_clicked_catalog_upload_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/Back_button_clicked_catalog_upload_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__cancel_allowed_open_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/cancel_allowed_open</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sup_referral_my_referrals_visited_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_referral_my_referrals_visited</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_card_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_card_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_overlay_nudge_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_overlay_nudge_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__pending_referrals_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/pending_referrals_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__graph_time_scale_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/graph_time_scale_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__product_performance_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/product_performance_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__recommend_category_popup_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/recommend_category_popup_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__discard_catalog_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/discard_catalog_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__loyalty_landing_faq_cta_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_faq_cta_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__successful_referrals_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/successful_referrals_clicked</t>
-  </si>
-  <si>
-    <t>silver.shipments__shipment_tracking_2k19_FEIdentifer_dump_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/shipments/shipment_tracking_2k19_FEIdentifer_dump</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_tnc_menu_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_tnc_menu_interacted</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__rocket_deals_update_app_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/rocket_deals_update_app_page_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__scratch_card_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/scratch_card_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__bank_details_verified_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/bank_details_verified</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__address_popup_displayed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/address_popup_displayed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__NPP_Modal_shown_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/NPP_Modal_shown</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmsio__order_cancel_option_selected_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmsio/order_cancel_option_selected</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__reel_page_load_started_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/reel_page_load_started</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__rate_limited_events_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/rate_limited_events</t>
-  </si>
-  <si>
-    <t>silver.supplier_web__video_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_web/video_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_cancel_next_step_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancel_next_step</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_upload_clicked_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_upload_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.msg_superstore__user_unserviceable_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_superstore/user_unserviceable</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__lc_category_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_category_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__select_category_clicked_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/select_category_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_bottom_sheet_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_bottom_sheet_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__farmiso_customer_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_customer_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__anonymous_401_code_received_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/anonymous_401_code_received</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__price_calculator_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/price_calculator_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__forgot_password_email_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/forgot_password_email_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__sx_discoverability_tool_tip_interacted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_discoverability_tool_tip_interacted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__gender_selection_widget_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/gender_selection_widget_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__need_help_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/need_help_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__navigation_bar_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/navigation_bar_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_image_verified_successfully_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_image_verified_successfully</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__delete_product_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/delete_product_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_stream_card_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_stream_card_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__return_pickup_failed_card_odp_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/return_pickup_failed_card_odp</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ff_real_estate_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ff_real_estate_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__catalog_filter_reset_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/catalog_filter_reset_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__order_cancel_confirm_modal_action_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/order_cancel_confirm_modal_action</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__open_order_card_swiped_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/open_order_card_swiped_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__ftux_for_burn_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/ftux_for_burn_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse__anonymous_self_support_disposition_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse/anonymous_self_support_disposition_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__delivery_info_step_loaded_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/delivery_info_step_loaded</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__failed_bulk_upload_files_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/failed_bulk_upload_files</t>
-  </si>
-  <si>
-    <t>silver.central_web__cso_errors_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/central_web/cso_errors</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cronet_init_failed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cronet_init_failed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__catalog_edit_image_added_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/catalog_edit_image_added</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_home_bazaar_bottom_sheet_product_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_home_bazaar_bottom_sheet_product_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__gst_apply_now_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/gst_apply_now_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__a2hs_modal_dismissed_custom_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/a2hs_modal_dismissed_custom</t>
-  </si>
-  <si>
-    <t>silver.inhouse_supplier_web__qpd_l1_tab_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_supplier_web/qpd_l1_tab_clicked</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__cross_sell_bottom_sheet_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/cross_sell_bottom_sheet_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__primary_filter_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__clicked_create_new_ad_campaign_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/clicked_create_new_ad_campaign</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__anonymous_become_meesho_supplier_page_opened_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/anonymous_become_meesho_supplier_page_opened</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_past_video_backward_control_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_past_video_backward_control</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_stream_other_same_category_video_section_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_stream_other_same_category_video_section_viewed</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__continue_generic_upload_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/continue_generic_upload</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__supplier_incentive_banner_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentive_banner_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__courier_partner_page_viewed_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/courier_partner_page_viewed</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__bbs_bid_submitted_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/bbs_bid_submitted</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_supplier_web__submit_catalog_clicked_mweb_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_supplier_web/submit_catalog_clicked_mweb</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_farmiso__view_all_items_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_farmiso/view_all_items_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_video_ready_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_video_ready</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_meesho_web__mba_call_us_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_meesho_web/mba_call_us_clicked_partition_fix</t>
-  </si>
-  <si>
-    <t>silver.msg_manifest__return_reason_log_change_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/msg_manifest/return_reason_log_change</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__contact_permission_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/contact_permission_clicked</t>
-  </si>
-  <si>
-    <t>silver.mixpanel_android__live_stream_pit_pre_animation_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/mixpanel_android/live_stream_pit_pre_animation_clicked</t>
-  </si>
-  <si>
-    <t>silver.supplier_ums__supplier_signup_event_ab_properties_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/supplier_ums/supplier_signup_event_ab_properties</t>
-  </si>
-  <si>
-    <t>silver.inhouse_android__live_landing_page_sale_prebuzz_more_products_clicked_28dec_SCH</t>
-  </si>
-  <si>
-    <t>delta_lake/SILVER/inhouse_android/live_landing_page_sale_prebuzz_more_products_clicked</t>
+    <t>silver.mixpanel_farmiso__farmiso_product_added_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_product_added_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_optin__supplier_optin_product_map_sync_final_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_optin/supplier_optin_product_map_sync_final</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_catalogs_fetch_failed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_catalogs_fetch_failed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reinstall_login_screen_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reinstall_login_screen_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reel_page_load_completed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reel_page_load_completed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_new_live_timer_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_new_live_timer_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__ipp_pricing_panel_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/ipp_pricing_panel_opened</t>
+  </si>
+  <si>
+    <t>silver.msg_ums__mrp_validation_failure_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_ums/mrp_validation_failure</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__return_images_deleted_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/return_images_deleted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__image_removed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/image_removed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_creator_live_stream_transmission_stats_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_creator_live_stream_transmission_stats</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__reason_selected_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/reason_selected</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__upi_details_consent_check_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/upi_details_consent_check</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__contact_permission_popup_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/contact_permission_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__notification_permission_status_changed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/notification_permission_status_changed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_incentive_card_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_incentive_card_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__front_image_changed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/front_image_changed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__user_saw_invalid_address_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/user_saw_invalid_address</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_screen_final_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_screen_final</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__primary_filter_applied_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/primary_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_live_stream_ended_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_live_stream_ended</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_stream_creator_catalog_unpinned_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_stream_creator_catalog_unpinned</t>
+  </si>
+  <si>
+    <t>silver.msg_growth__user_address_details_event_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth/user_address_details_event</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_unserviceable_discovery_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_unserviceable_discovery</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_pre_sign_up_page_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_pre_sign_up_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__anonymous_website_launch_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/anonymous_website_launch</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__safety_banner_in_order_confirmation_page_cta_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/safety_banner_in_order_confirmation_page_cta_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_fod_popup_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_fod_popup_viewed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_join_bid_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_join_bid_clicked</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__supplier_on_hold_orders_v1_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/supplier_on_hold_orders_v1</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_typing_started_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_typing_started</t>
+  </si>
+  <si>
+    <t>silver.msg_merchandising__widget_document_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_merchandising/widget_document</t>
+  </si>
+  <si>
+    <t>silver.msg_growth_service__instagram_xdom_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_growth_service/instagram_xdom</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_landing_page_category_navigation_card_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_landing_page_category_navigation_card_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_login_page_register_button_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_login_page_register_button_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__merchandise_video_shared_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/merchandise_video_shared</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sx_subcategory_search_box_interacted_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sx_subcategory_search_box_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__call_customer_support_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/call_customer_support_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__glp_banner_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/glp_banner_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__referral_help_now_share_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/referral_help_now_share</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__bd_date_filter_applied_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/bd_date_filter_applied</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__address_typing_not_completed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/address_typing_not_completed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__supplier_pincode_validation_logs_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/supplier_pincode_validation_logs</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__add_products_to_sale_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/add_products_to_sale_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__bbs_bidding_page_viewed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/bbs_bidding_page_viewed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_meesho_web__lc_search_used_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_meesho_web/lc_search_used_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__loyalty_landing_page_shop_now_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/loyalty_landing_page_shop_now_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__add_more_items_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/add_more_items_clicked</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_view_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_view</t>
+  </si>
+  <si>
+    <t>silver.bulk_catalog__nps_ratings_data_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/bulk_catalog/nps_ratings_data</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__rocket_deals_update_app_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/rocket_deals_update_app_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__single_upload_tooltip_interacted_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/single_upload_tooltip_interacted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__live_landing_page_upcoming_filter_removed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/live_landing_page_upcoming_filter_removed</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__reels_video_load_start_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/reels_video_load_start</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__delete_order_confirmed_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/delete_order_confirmed</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__new_address_submitted_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/new_address_submitted</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_farmiso__farmiso_home_page_opened_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_farmiso/farmiso_home_page_opened_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.msg_manifest__scan_and_pack_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_manifest/scan_and_pack_events</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_android__challenge_reward_claimed_events_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_android/challenge_reward_claimed_events</t>
+  </si>
+  <si>
+    <t>silver.inhouse_android__live_stream_weekly_sale_communication_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/inhouse_android/live_stream_weekly_sale_communication_clicked</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__select_catalog_clicked_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/select_catalog_clicked_partition_fix</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__cla_cpc_edit_mode_during_creation_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/cla_cpc_edit_mode_during_creation</t>
+  </si>
+  <si>
+    <t>silver.msg_supplier_ums__supplier_fraud_status_scores_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/msg_supplier_ums/supplier_fraud_status_scores</t>
+  </si>
+  <si>
+    <t>silver.mixpanel_supplier_web__sup_login_page_forgot_password_button_28dec_SCH</t>
+  </si>
+  <si>
+    <t>delta_lake/SILVER/mixpanel_supplier_web/sup_login_page_forgot_pass